--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44348</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>280000</v>
+        <v>8000</v>
       </c>
       <c r="O2" t="n">
-        <v>280000</v>
+        <v>9000</v>
       </c>
       <c r="P2" t="n">
-        <v>280000</v>
+        <v>8500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>622</v>
+        <v>531</v>
       </c>
       <c r="T2" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44307</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>8000</v>
+        <v>390000</v>
       </c>
       <c r="O3" t="n">
-        <v>9000</v>
+        <v>390000</v>
       </c>
       <c r="P3" t="n">
-        <v>8500</v>
+        <v>390000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>531</v>
+        <v>867</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N4" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="O4" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P4" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="O5" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P5" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O6" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P6" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44328</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O7" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P7" t="n">
-        <v>225000</v>
+        <v>300000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44328</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N8" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O8" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P8" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44329</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O9" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P9" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>600</v>
+        <v>711</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44329</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="O10" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="P10" t="n">
-        <v>245000</v>
+        <v>290000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44322</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O11" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="P11" t="n">
-        <v>415000</v>
+        <v>260000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>922</v>
+        <v>578</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44322</v>
+        <v>44350</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N12" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O12" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P12" t="n">
-        <v>280000</v>
+        <v>255000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N13" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O13" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P13" t="n">
-        <v>255000</v>
+        <v>275000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44293</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,25 +1475,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N14" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O14" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P14" t="n">
-        <v>330000</v>
+        <v>245000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>733</v>
+        <v>544</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44293</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O15" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P15" t="n">
-        <v>285000</v>
+        <v>210000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>633</v>
+        <v>467</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44293</v>
+        <v>44349</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="O16" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="P16" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O17" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P17" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44312</v>
+        <v>44327</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1807,13 +1807,13 @@
         <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="O18" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P18" t="n">
-        <v>285000</v>
+        <v>365000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>633</v>
+        <v>811</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44327</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O19" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P19" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44312</v>
+        <v>44327</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N20" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O20" t="n">
         <v>260000</v>
       </c>
-      <c r="O20" t="n">
-        <v>270000</v>
-      </c>
       <c r="P20" t="n">
-        <v>265000</v>
+        <v>250000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44335</v>
+        <v>44327</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O21" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P21" t="n">
-        <v>265000</v>
+        <v>200000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>589</v>
+        <v>444</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44335</v>
+        <v>44306</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O22" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P22" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N23" t="n">
         <v>270000</v>
       </c>
       <c r="O23" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P23" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N24" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O24" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P24" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O25" t="n">
         <v>300000</v>
       </c>
       <c r="P25" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N26" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O26" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P26" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N27" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O27" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P27" t="n">
-        <v>275000</v>
+        <v>240000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O28" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P28" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N29" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O29" t="n">
         <v>300000</v>
       </c>
       <c r="P29" t="n">
-        <v>300000</v>
+        <v>285000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
         <v>260000</v>
       </c>
       <c r="O30" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P30" t="n">
-        <v>260000</v>
+        <v>265000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>12</v>
       </c>
       <c r="N31" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O31" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P31" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44349</v>
+        <v>44308</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N37" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O37" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P37" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44349</v>
+        <v>44308</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>15</v>
       </c>
       <c r="N38" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O38" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P38" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44295</v>
+        <v>44308</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3487,14 +3487,14 @@
         <v>18</v>
       </c>
       <c r="N39" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O39" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P39" t="n">
         <v>290000</v>
       </c>
-      <c r="P39" t="n">
-        <v>280000</v>
-      </c>
       <c r="Q39" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44295</v>
+        <v>44312</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N40" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="O40" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P40" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>489</v>
+        <v>733</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N41" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O41" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P41" t="n">
-        <v>320000</v>
+        <v>285000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N42" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O42" t="n">
         <v>300000</v>
       </c>
       <c r="P42" t="n">
-        <v>285000</v>
+        <v>300000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N43" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O43" t="n">
         <v>270000</v>
       </c>
-      <c r="O43" t="n">
-        <v>280000</v>
-      </c>
       <c r="P43" t="n">
-        <v>275000</v>
+        <v>265000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O44" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P44" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N45" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="O45" t="n">
-        <v>450000</v>
+        <v>240000</v>
       </c>
       <c r="P45" t="n">
-        <v>450000</v>
+        <v>235238</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>523</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N46" t="n">
-        <v>330000</v>
+        <v>180000</v>
       </c>
       <c r="O46" t="n">
-        <v>350000</v>
+        <v>180000</v>
       </c>
       <c r="P46" t="n">
-        <v>340000</v>
+        <v>180000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>756</v>
+        <v>400</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44300</v>
+        <v>44328</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N47" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O47" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P47" t="n">
-        <v>270000</v>
+        <v>225000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44320</v>
+        <v>44328</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N48" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O48" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P48" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44320</v>
+        <v>44343</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N49" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O49" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P49" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44320</v>
+        <v>44343</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N50" t="n">
         <v>230000</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44314</v>
+        <v>44293</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N51" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O51" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P51" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44314</v>
+        <v>44293</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N52" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O52" t="n">
         <v>300000</v>
       </c>
       <c r="P52" t="n">
-        <v>295000</v>
+        <v>285000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44314</v>
+        <v>44293</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N53" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O53" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P53" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44314</v>
+        <v>44344</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N54" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="O54" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P54" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44314</v>
+        <v>44344</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N55" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O55" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P55" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>644</v>
+        <v>511</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N56" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="O56" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P56" t="n">
-        <v>365000</v>
+        <v>300000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>811</v>
+        <v>667</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N57" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O57" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P57" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N58" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O58" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P58" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44327</v>
+        <v>44334</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N59" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="O59" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="P59" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44313</v>
+        <v>44334</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N60" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="O60" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P60" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44313</v>
+        <v>44334</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N61" t="n">
-        <v>370000</v>
+        <v>230000</v>
       </c>
       <c r="O61" t="n">
-        <v>370000</v>
+        <v>230000</v>
       </c>
       <c r="P61" t="n">
-        <v>370000</v>
+        <v>230000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>822</v>
+        <v>511</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44313</v>
+        <v>44300</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N62" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O62" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P62" t="n">
-        <v>305000</v>
+        <v>275000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44313</v>
+        <v>44300</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N63" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O63" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P63" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44313</v>
+        <v>44300</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N64" t="n">
-        <v>370000</v>
+        <v>450000</v>
       </c>
       <c r="O64" t="n">
-        <v>370000</v>
+        <v>450000</v>
       </c>
       <c r="P64" t="n">
-        <v>370000</v>
+        <v>450000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>822</v>
+        <v>1000</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44313</v>
+        <v>44300</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N65" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O65" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P65" t="n">
-        <v>285000</v>
+        <v>340000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>633</v>
+        <v>756</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44313</v>
+        <v>44300</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N66" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O66" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P66" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44330</v>
+        <v>44295</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N67" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O67" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P67" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44330</v>
+        <v>44295</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N68" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="O68" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P68" t="n">
-        <v>235238</v>
+        <v>220000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44330</v>
+        <v>44309</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N69" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="O69" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P69" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>400</v>
+        <v>689</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44351</v>
+        <v>44309</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N70" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O70" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P70" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44350</v>
+        <v>44309</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N71" t="n">
-        <v>250000</v>
+        <v>315000</v>
       </c>
       <c r="O71" t="n">
-        <v>260000</v>
+        <v>315000</v>
       </c>
       <c r="P71" t="n">
-        <v>255000</v>
+        <v>315000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>567</v>
+        <v>700</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44315</v>
+        <v>44309</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N72" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O72" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P72" t="n">
-        <v>320000</v>
+        <v>275000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>711</v>
+        <v>611</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N73" t="n">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="O73" t="n">
-        <v>350000</v>
+        <v>430000</v>
       </c>
       <c r="P73" t="n">
-        <v>350000</v>
+        <v>415000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>778</v>
+        <v>922</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N74" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O74" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P74" t="n">
-        <v>285000</v>
+        <v>280000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N75" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O75" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P75" t="n">
-        <v>240000</v>
+        <v>255000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44315</v>
+        <v>44358</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,24 +6440,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N76" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="O76" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="P76" t="n">
-        <v>320000</v>
+        <v>13000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>711</v>
+        <v>812</v>
       </c>
       <c r="T76" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44315</v>
+        <v>44358</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,24 +6520,24 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N77" t="n">
-        <v>340000</v>
+        <v>11000</v>
       </c>
       <c r="O77" t="n">
-        <v>340000</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>340000</v>
+        <v>11000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>756</v>
+        <v>688</v>
       </c>
       <c r="T77" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N78" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O78" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P78" t="n">
-        <v>290000</v>
+        <v>265000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N79" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O79" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P79" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6760,24 +6760,24 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N80" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="O80" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="P80" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>812</v>
+        <v>622</v>
       </c>
       <c r="T80" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44358</v>
+        <v>44316</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,29 +6835,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N81" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="O81" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="P81" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -6866,10 +6866,10 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="T81" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82">
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44305</v>
+        <v>44316</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,11 +6920,11 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N82" t="n">
         <v>330000</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44305</v>
+        <v>44316</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7007,13 +7007,13 @@
         <v>15</v>
       </c>
       <c r="N83" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O83" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P83" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44305</v>
+        <v>44316</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N84" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O84" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P84" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44305</v>
+        <v>44316</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,11 +7160,11 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N85" t="n">
         <v>320000</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44305</v>
+        <v>44316</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N86" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="O86" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="P86" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N87" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O87" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P87" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N88" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O88" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P88" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>467</v>
+        <v>622</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N89" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O89" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P89" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N90" t="n">
-        <v>390000</v>
+        <v>420000</v>
       </c>
       <c r="O90" t="n">
-        <v>390000</v>
+        <v>420000</v>
       </c>
       <c r="P90" t="n">
-        <v>390000</v>
+        <v>420000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7727,13 +7727,13 @@
         <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O92" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P92" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44333</v>
+        <v>44351</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N93" t="n">
         <v>260000</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44333</v>
+        <v>44294</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7884,16 +7884,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N94" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O94" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P94" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44309</v>
+        <v>44294</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N95" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="O95" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P95" t="n">
-        <v>310000</v>
+        <v>210000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>689</v>
+        <v>467</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N96" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="O96" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P96" t="n">
-        <v>275000</v>
+        <v>420000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>611</v>
+        <v>933</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N97" t="n">
-        <v>315000</v>
+        <v>340000</v>
       </c>
       <c r="O97" t="n">
-        <v>315000</v>
+        <v>340000</v>
       </c>
       <c r="P97" t="n">
-        <v>315000</v>
+        <v>340000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44309</v>
+        <v>44302</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N98" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O98" t="n">
         <v>280000</v>
       </c>
       <c r="P98" t="n">
-        <v>275000</v>
+        <v>280000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44344</v>
+        <v>44315</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>15</v>
       </c>
       <c r="N99" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O99" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P99" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44344</v>
+        <v>44315</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8355,25 +8355,25 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="O100" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="P100" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44319</v>
+        <v>44315</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N101" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O101" t="n">
         <v>300000</v>
       </c>
       <c r="P101" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N102" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O102" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P102" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N103" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O103" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P103" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M104" t="n">
         <v>15</v>
       </c>
       <c r="N104" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O104" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="P104" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N105" t="n">
         <v>280000</v>
       </c>
       <c r="O105" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P105" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>18</v>
       </c>
       <c r="N106" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O106" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P106" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>711</v>
+        <v>578</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8915,25 +8915,25 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N107" t="n">
-        <v>250000</v>
+        <v>340000</v>
       </c>
       <c r="O107" t="n">
-        <v>250000</v>
+        <v>340000</v>
       </c>
       <c r="P107" t="n">
-        <v>250000</v>
+        <v>340000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>556</v>
+        <v>756</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N108" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="O108" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="P108" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N109" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O109" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P109" t="n">
-        <v>280000</v>
+        <v>305000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>622</v>
+        <v>678</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N110" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O110" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P110" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>10</v>
       </c>
       <c r="N111" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="O111" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="P111" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>933</v>
+        <v>822</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N112" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O112" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P112" t="n">
-        <v>330000</v>
+        <v>285000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>733</v>
+        <v>633</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N113" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O113" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P113" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N114" t="n">
         <v>270000</v>
       </c>
       <c r="O114" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P114" t="n">
-        <v>275000</v>
+        <v>270000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N116" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O116" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="P116" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N117" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O117" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P117" t="n">
-        <v>275000</v>
+        <v>320000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N118" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="O118" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P118" t="n">
-        <v>230000</v>
+        <v>295000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>511</v>
+        <v>656</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44334</v>
+        <v>44314</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N119" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="O119" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P119" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44334</v>
+        <v>44314</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N120" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O120" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="P120" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44334</v>
+        <v>44314</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N121" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O121" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P121" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44295</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="O2" t="n">
-        <v>9000</v>
+        <v>290000</v>
       </c>
       <c r="P2" t="n">
-        <v>8500</v>
+        <v>280000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44307</v>
+        <v>44295</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>390000</v>
+        <v>220000</v>
       </c>
       <c r="O3" t="n">
-        <v>390000</v>
+        <v>220000</v>
       </c>
       <c r="P3" t="n">
-        <v>390000</v>
+        <v>220000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>867</v>
+        <v>489</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O4" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P4" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O5" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P5" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N6" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O6" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P6" t="n">
-        <v>330000</v>
+        <v>210000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>733</v>
+        <v>467</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O7" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P7" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O8" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P8" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="O9" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P9" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N10" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O10" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P10" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O11" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P11" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O12" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P12" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>567</v>
+        <v>711</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44315</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O13" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P13" t="n">
-        <v>275000</v>
+        <v>340000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44315</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N14" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O14" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P14" t="n">
-        <v>245000</v>
+        <v>290000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44315</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N15" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="O15" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P15" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44349</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="O16" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P16" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44349</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1727,13 +1727,13 @@
         <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O17" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P17" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44327</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N18" t="n">
-        <v>360000</v>
+        <v>250000</v>
       </c>
       <c r="O18" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="P18" t="n">
-        <v>365000</v>
+        <v>250000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>811</v>
+        <v>556</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44327</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O19" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P19" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44327</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="O20" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P20" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>556</v>
+        <v>644</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44327</v>
+        <v>44305</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O21" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P21" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O22" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P22" t="n">
-        <v>300000</v>
+        <v>275000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44306</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N23" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O23" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P23" t="n">
-        <v>275000</v>
+        <v>245000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44306</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O24" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P24" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N25" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="O25" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P25" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="O26" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P26" t="n">
-        <v>260000</v>
+        <v>295000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>12</v>
       </c>
       <c r="N27" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O27" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P27" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44298</v>
+        <v>44314</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N28" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="O28" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P28" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44298</v>
+        <v>44314</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N29" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O29" t="n">
         <v>300000</v>
       </c>
       <c r="P29" t="n">
-        <v>285000</v>
+        <v>290000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44333</v>
+        <v>44349</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="O30" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="P30" t="n">
-        <v>265000</v>
+        <v>290000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44333</v>
+        <v>44349</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O31" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P31" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O32" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="P32" t="n">
-        <v>455000</v>
+        <v>270000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1011</v>
+        <v>600</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N33" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O33" t="n">
-        <v>430000</v>
+        <v>250000</v>
       </c>
       <c r="P33" t="n">
-        <v>415000</v>
+        <v>245000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>922</v>
+        <v>544</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N34" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O34" t="n">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="P34" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N35" t="n">
         <v>230000</v>
@@ -3173,7 +3173,7 @@
         <v>240000</v>
       </c>
       <c r="P35" t="n">
-        <v>235000</v>
+        <v>235238</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O36" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P36" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44308</v>
+        <v>44302</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N37" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="O37" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="P37" t="n">
-        <v>285000</v>
+        <v>420000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>633</v>
+        <v>933</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44308</v>
+        <v>44302</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="O38" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="P38" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>533</v>
+        <v>756</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44308</v>
+        <v>44302</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -3490,10 +3490,10 @@
         <v>280000</v>
       </c>
       <c r="O39" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P39" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44312</v>
+        <v>44348</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O40" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P40" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N41" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O41" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P41" t="n">
-        <v>285000</v>
+        <v>340000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>633</v>
+        <v>756</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N42" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="O42" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P42" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>667</v>
+        <v>822</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N43" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O43" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="P43" t="n">
-        <v>265000</v>
+        <v>305000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>589</v>
+        <v>678</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N44" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O44" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P44" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="O45" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="P45" t="n">
-        <v>235238</v>
+        <v>370000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>523</v>
+        <v>822</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N46" t="n">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="O46" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="P46" t="n">
-        <v>180000</v>
+        <v>285000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>400</v>
+        <v>633</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44328</v>
+        <v>44313</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N47" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O47" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P47" t="n">
-        <v>225000</v>
+        <v>240000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44328</v>
+        <v>44298</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O48" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="P48" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>444</v>
+        <v>711</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44343</v>
+        <v>44298</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N49" t="n">
         <v>270000</v>
       </c>
       <c r="O49" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P49" t="n">
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44343</v>
+        <v>44319</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N50" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O50" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P50" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N51" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O51" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P51" t="n">
-        <v>330000</v>
+        <v>415000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>733</v>
+        <v>922</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N52" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O52" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P52" t="n">
-        <v>285000</v>
+        <v>280000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N53" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O53" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P53" t="n">
-        <v>200000</v>
+        <v>255000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>444</v>
+        <v>567</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N54" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O54" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P54" t="n">
-        <v>280000</v>
+        <v>265000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N55" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O55" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P55" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44320</v>
+        <v>44293</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N56" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O56" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P56" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44320</v>
+        <v>44293</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4927,13 +4927,13 @@
         <v>18</v>
       </c>
       <c r="N57" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O57" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P57" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44320</v>
+        <v>44293</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O58" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P58" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44334</v>
+        <v>44320</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="O59" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P59" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44334</v>
+        <v>44320</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N60" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O60" t="n">
         <v>270000</v>
       </c>
       <c r="P60" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44334</v>
+        <v>44320</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N61" t="n">
         <v>230000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44300</v>
+        <v>44334</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N62" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="O62" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="P62" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44300</v>
+        <v>44334</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N63" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O63" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P63" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44300</v>
+        <v>44334</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>15</v>
       </c>
       <c r="N64" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="O64" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="P64" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N65" t="n">
-        <v>330000</v>
+        <v>360000</v>
       </c>
       <c r="O65" t="n">
-        <v>350000</v>
+        <v>370000</v>
       </c>
       <c r="P65" t="n">
-        <v>340000</v>
+        <v>365000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>756</v>
+        <v>811</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5647,13 +5647,13 @@
         <v>10</v>
       </c>
       <c r="N66" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O66" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P66" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44295</v>
+        <v>44327</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N67" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O67" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P67" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44295</v>
+        <v>44327</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N68" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O68" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P68" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N69" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="O69" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P69" t="n">
-        <v>310000</v>
+        <v>275000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>689</v>
+        <v>611</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N70" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O70" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P70" t="n">
-        <v>275000</v>
+        <v>240000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N71" t="n">
-        <v>315000</v>
+        <v>450000</v>
       </c>
       <c r="O71" t="n">
-        <v>315000</v>
+        <v>450000</v>
       </c>
       <c r="P71" t="n">
-        <v>315000</v>
+        <v>450000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N72" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O72" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P72" t="n">
-        <v>275000</v>
+        <v>340000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44322</v>
+        <v>44300</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N73" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O73" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P73" t="n">
-        <v>415000</v>
+        <v>270000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>922</v>
+        <v>600</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44322</v>
+        <v>44307</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N74" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="O74" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="P74" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>622</v>
+        <v>867</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44322</v>
+        <v>44307</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N75" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O75" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P75" t="n">
-        <v>255000</v>
+        <v>330000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44358</v>
+        <v>44307</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,24 +6440,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="O76" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="P76" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>812</v>
+        <v>600</v>
       </c>
       <c r="T76" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,36 +6520,36 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N77" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="O77" t="n">
-        <v>11000</v>
+        <v>230000</v>
       </c>
       <c r="P77" t="n">
-        <v>11000</v>
+        <v>225000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T77" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44335</v>
+        <v>44328</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N78" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O78" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P78" t="n">
-        <v>265000</v>
+        <v>200000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>589</v>
+        <v>444</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44335</v>
+        <v>44309</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N79" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="O79" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="P79" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>511</v>
+        <v>689</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44348</v>
+        <v>44309</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N80" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O80" t="n">
         <v>280000</v>
       </c>
       <c r="P80" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N81" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="O81" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="P81" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N82" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O82" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P82" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7007,13 +7007,13 @@
         <v>15</v>
       </c>
       <c r="N83" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O83" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P83" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N84" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O84" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P84" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N85" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O85" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P85" t="n">
-        <v>320000</v>
+        <v>255000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>711</v>
+        <v>567</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44316</v>
+        <v>44343</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N86" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O86" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P86" t="n">
-        <v>250000</v>
+        <v>275000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O87" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P87" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44301</v>
+        <v>44312</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N88" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O88" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P88" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44301</v>
+        <v>44312</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N89" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O89" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P89" t="n">
-        <v>230000</v>
+        <v>285000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>511</v>
+        <v>633</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44301</v>
+        <v>44312</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N90" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="O90" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="P90" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44301</v>
+        <v>44312</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N91" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O91" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P91" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N92" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O92" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P92" t="n">
-        <v>280000</v>
+        <v>285000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44351</v>
+        <v>44308</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N93" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O93" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P93" t="n">
-        <v>265000</v>
+        <v>240000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44294</v>
+        <v>44308</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N94" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O94" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P94" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N95" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O95" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P95" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N96" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="O96" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="P96" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>933</v>
+        <v>622</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N97" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O97" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="P97" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N98" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="O98" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P98" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>622</v>
+        <v>933</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44315</v>
+        <v>44301</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N99" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O99" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P99" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44315</v>
+        <v>44301</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8355,25 +8355,25 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
         <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="O100" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P100" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N101" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O101" t="n">
         <v>300000</v>
       </c>
       <c r="P101" t="n">
-        <v>285000</v>
+        <v>300000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N102" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O102" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P102" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>15</v>
       </c>
       <c r="N103" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O103" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P103" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>711</v>
+        <v>600</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N104" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O104" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="P104" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>756</v>
+        <v>622</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N105" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O105" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P105" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>18</v>
       </c>
       <c r="N106" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O106" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P106" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44313</v>
+        <v>44351</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8915,25 +8915,25 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N107" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="O107" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P107" t="n">
-        <v>340000</v>
+        <v>265000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>756</v>
+        <v>589</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N108" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="O108" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P108" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>822</v>
+        <v>667</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9087,13 +9087,13 @@
         <v>16</v>
       </c>
       <c r="N109" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O109" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P109" t="n">
-        <v>305000</v>
+        <v>275000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>678</v>
+        <v>611</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N110" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O110" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P110" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N111" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="O111" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P111" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>822</v>
+        <v>667</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N112" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O112" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P112" t="n">
-        <v>285000</v>
+        <v>260000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44329</v>
+        <v>44357</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N114" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O114" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>270000</v>
+        <v>8500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="T114" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44329</v>
+        <v>44358</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9564,20 +9564,20 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N115" t="n">
-        <v>240000</v>
+        <v>13000</v>
       </c>
       <c r="O115" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P115" t="n">
-        <v>245000</v>
+        <v>13000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>544</v>
+        <v>812</v>
       </c>
       <c r="T115" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>280000</v>
+        <v>11000</v>
       </c>
       <c r="O116" t="n">
-        <v>300000</v>
+        <v>11000</v>
       </c>
       <c r="P116" t="n">
-        <v>290000</v>
+        <v>11000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="T116" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9727,13 +9727,13 @@
         <v>12</v>
       </c>
       <c r="N117" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="O117" t="n">
-        <v>320000</v>
+        <v>460000</v>
       </c>
       <c r="P117" t="n">
-        <v>320000</v>
+        <v>455000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>711</v>
+        <v>1011</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N118" t="n">
-        <v>290000</v>
+        <v>400000</v>
       </c>
       <c r="O118" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P118" t="n">
-        <v>295000</v>
+        <v>415000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>656</v>
+        <v>922</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N119" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O119" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="P119" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N120" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O120" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P120" t="n">
-        <v>350000</v>
+        <v>235000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>778</v>
+        <v>522</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N121" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O121" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P121" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>644</v>
+        <v>444</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44295</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O2" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P2" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T2" t="n">
         <v>450</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44295</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O3" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P3" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>489</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44335</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N4" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O4" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P4" t="n">
-        <v>265000</v>
+        <v>250000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44335</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O5" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P5" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="O6" t="n">
-        <v>220000</v>
+        <v>290000</v>
       </c>
       <c r="P6" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O7" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P7" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O8" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P8" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44315</v>
+        <v>44329</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O9" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P9" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44315</v>
+        <v>44329</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O10" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P10" t="n">
-        <v>285000</v>
+        <v>245000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>633</v>
+        <v>544</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="O11" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="P11" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>533</v>
+        <v>756</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>320000</v>
+        <v>370000</v>
       </c>
       <c r="O12" t="n">
-        <v>320000</v>
+        <v>370000</v>
       </c>
       <c r="P12" t="n">
-        <v>320000</v>
+        <v>370000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>711</v>
+        <v>822</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N13" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="O13" t="n">
-        <v>340000</v>
+        <v>310000</v>
       </c>
       <c r="P13" t="n">
-        <v>340000</v>
+        <v>305000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>756</v>
+        <v>678</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O14" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P14" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="O15" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="P15" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>578</v>
+        <v>822</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O16" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P16" t="n">
-        <v>330000</v>
+        <v>285000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>733</v>
+        <v>633</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44313</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N17" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O17" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P17" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44302</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>250000</v>
+        <v>420000</v>
       </c>
       <c r="O18" t="n">
-        <v>250000</v>
+        <v>420000</v>
       </c>
       <c r="P18" t="n">
-        <v>250000</v>
+        <v>420000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44302</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="O19" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="P19" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44305</v>
+        <v>44302</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N20" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="O20" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P20" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N21" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="O21" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P21" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>578</v>
+        <v>689</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44309</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,16 +2115,16 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
         <v>270000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44309</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N23" t="n">
-        <v>240000</v>
+        <v>315000</v>
       </c>
       <c r="O23" t="n">
-        <v>250000</v>
+        <v>315000</v>
       </c>
       <c r="P23" t="n">
-        <v>245000</v>
+        <v>315000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>544</v>
+        <v>700</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44309</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N24" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="O24" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P24" t="n">
-        <v>210000</v>
+        <v>275000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2367,13 +2367,13 @@
         <v>12</v>
       </c>
       <c r="N25" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="O25" t="n">
-        <v>320000</v>
+        <v>460000</v>
       </c>
       <c r="P25" t="n">
-        <v>320000</v>
+        <v>455000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>711</v>
+        <v>1011</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N26" t="n">
-        <v>290000</v>
+        <v>400000</v>
       </c>
       <c r="O26" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P26" t="n">
-        <v>295000</v>
+        <v>415000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>656</v>
+        <v>922</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N27" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O27" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="P27" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N28" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O28" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P28" t="n">
-        <v>350000</v>
+        <v>235000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>778</v>
+        <v>522</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O29" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P29" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>644</v>
+        <v>444</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44349</v>
+        <v>44295</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N30" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O30" t="n">
         <v>290000</v>
       </c>
       <c r="P30" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44349</v>
+        <v>44295</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O31" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P31" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N32" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="O32" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="P32" t="n">
-        <v>270000</v>
+        <v>365000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>600</v>
+        <v>811</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N33" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O33" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P33" t="n">
-        <v>245000</v>
+        <v>330000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>544</v>
+        <v>733</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N34" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O34" t="n">
         <v>260000</v>
       </c>
       <c r="P34" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N35" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O35" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P35" t="n">
-        <v>235238</v>
+        <v>200000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>523</v>
+        <v>444</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N36" t="n">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="O36" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="P36" t="n">
-        <v>180000</v>
+        <v>285000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>400</v>
+        <v>633</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44302</v>
+        <v>44308</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>15</v>
       </c>
       <c r="N37" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="O37" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P37" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44302</v>
+        <v>44308</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N38" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O38" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="P38" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>756</v>
+        <v>644</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O39" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P39" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44348</v>
+        <v>44330</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N40" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O40" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P40" t="n">
-        <v>280000</v>
+        <v>235238</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>622</v>
+        <v>523</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>340000</v>
+        <v>180000</v>
       </c>
       <c r="O41" t="n">
-        <v>340000</v>
+        <v>180000</v>
       </c>
       <c r="P41" t="n">
-        <v>340000</v>
+        <v>180000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>756</v>
+        <v>400</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N42" t="n">
-        <v>370000</v>
+        <v>400000</v>
       </c>
       <c r="O42" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="P42" t="n">
-        <v>370000</v>
+        <v>415000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>822</v>
+        <v>922</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N43" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O43" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P43" t="n">
-        <v>305000</v>
+        <v>280000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>678</v>
+        <v>622</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N44" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O44" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P44" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="O45" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="P45" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O46" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P46" t="n">
-        <v>285000</v>
+        <v>350000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>633</v>
+        <v>778</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N47" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O47" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P47" t="n">
-        <v>240000</v>
+        <v>285000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44298</v>
+        <v>44315</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N48" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="O48" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="P48" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44298</v>
+        <v>44315</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N49" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O49" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P49" t="n">
-        <v>285000</v>
+        <v>320000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44319</v>
+        <v>44315</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N50" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="O50" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P50" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>644</v>
+        <v>756</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N51" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="O51" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P51" t="n">
-        <v>415000</v>
+        <v>290000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>922</v>
+        <v>644</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N52" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O52" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P52" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44322</v>
+        <v>44293</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N53" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O53" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P53" t="n">
-        <v>255000</v>
+        <v>330000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N54" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O54" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P54" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N55" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O55" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P55" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N56" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O56" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P56" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N57" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O57" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P57" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>633</v>
+        <v>511</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N58" t="n">
         <v>200000</v>
       </c>
       <c r="O58" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P58" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44320</v>
+        <v>44294</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
         <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O59" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P59" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>18</v>
       </c>
       <c r="N60" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O60" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P60" t="n">
-        <v>265000</v>
+        <v>300000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N61" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O61" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P61" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44334</v>
+        <v>44316</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>15</v>
       </c>
       <c r="N62" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O62" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="P62" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44334</v>
+        <v>44316</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N63" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O63" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P63" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44334</v>
+        <v>44316</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N64" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O64" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P64" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5567,13 +5567,13 @@
         <v>18</v>
       </c>
       <c r="N65" t="n">
-        <v>360000</v>
+        <v>250000</v>
       </c>
       <c r="O65" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="P65" t="n">
-        <v>365000</v>
+        <v>250000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>811</v>
+        <v>556</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44327</v>
+        <v>44319</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N66" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O66" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P66" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44327</v>
+        <v>44351</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N67" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O67" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P67" t="n">
-        <v>250000</v>
+        <v>265000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44327</v>
+        <v>44344</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N68" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O68" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P68" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44300</v>
+        <v>44344</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N69" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O69" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P69" t="n">
-        <v>275000</v>
+        <v>230000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44300</v>
+        <v>44358</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,29 +5955,29 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N70" t="n">
-        <v>240000</v>
+        <v>13000</v>
       </c>
       <c r="O70" t="n">
-        <v>240000</v>
+        <v>13000</v>
       </c>
       <c r="P70" t="n">
-        <v>240000</v>
+        <v>13000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>533</v>
+        <v>812</v>
       </c>
       <c r="T70" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44300</v>
+        <v>44358</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,24 +6040,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N71" t="n">
-        <v>450000</v>
+        <v>11000</v>
       </c>
       <c r="O71" t="n">
-        <v>450000</v>
+        <v>11000</v>
       </c>
       <c r="P71" t="n">
-        <v>450000</v>
+        <v>11000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="T71" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44300</v>
+        <v>44335</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N72" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O72" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P72" t="n">
-        <v>340000</v>
+        <v>265000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>756</v>
+        <v>589</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44300</v>
+        <v>44335</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N73" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O73" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P73" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44307</v>
+        <v>44320</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N74" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="O74" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="P74" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44307</v>
+        <v>44320</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N75" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O75" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P75" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44307</v>
+        <v>44320</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N76" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O76" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P76" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44328</v>
+        <v>44300</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N77" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O77" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P77" t="n">
-        <v>225000</v>
+        <v>275000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44328</v>
+        <v>44300</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N78" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O78" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P78" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N79" t="n">
-        <v>310000</v>
+        <v>450000</v>
       </c>
       <c r="O79" t="n">
-        <v>310000</v>
+        <v>450000</v>
       </c>
       <c r="P79" t="n">
-        <v>310000</v>
+        <v>450000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>689</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N80" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O80" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P80" t="n">
-        <v>275000</v>
+        <v>340000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N81" t="n">
-        <v>315000</v>
+        <v>270000</v>
       </c>
       <c r="O81" t="n">
-        <v>315000</v>
+        <v>270000</v>
       </c>
       <c r="P81" t="n">
-        <v>315000</v>
+        <v>270000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44309</v>
+        <v>44349</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N82" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="O82" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="P82" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44344</v>
+        <v>44349</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7007,13 +7007,13 @@
         <v>15</v>
       </c>
       <c r="N83" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O83" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P83" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44344</v>
+        <v>44350</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N84" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O84" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P84" t="n">
-        <v>230000</v>
+        <v>255000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44350</v>
+        <v>44307</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N85" t="n">
-        <v>250000</v>
+        <v>390000</v>
       </c>
       <c r="O85" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="P85" t="n">
-        <v>255000</v>
+        <v>390000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>567</v>
+        <v>867</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44343</v>
+        <v>44307</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N86" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O86" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P86" t="n">
-        <v>275000</v>
+        <v>330000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44343</v>
+        <v>44307</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7327,13 +7327,13 @@
         <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O87" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P87" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44312</v>
+        <v>44334</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N88" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="O88" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="P88" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44312</v>
+        <v>44334</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N89" t="n">
         <v>270000</v>
       </c>
       <c r="O89" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P89" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44312</v>
+        <v>44334</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N90" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O90" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P90" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44312</v>
+        <v>44306</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N91" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O91" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P91" t="n">
-        <v>265000</v>
+        <v>300000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N92" t="n">
         <v>270000</v>
       </c>
       <c r="O92" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P92" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N93" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O93" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P93" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N94" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O94" t="n">
         <v>300000</v>
       </c>
       <c r="P94" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N95" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O95" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P95" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N96" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O96" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P96" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N97" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O97" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P97" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N98" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="O98" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="P98" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>933</v>
+        <v>622</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N99" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O99" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P99" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N100" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="O100" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P100" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>622</v>
+        <v>933</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N101" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O101" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P101" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N102" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O102" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P102" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44316</v>
+        <v>44357</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N103" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O103" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="P103" t="n">
-        <v>270000</v>
+        <v>8500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="T103" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44316</v>
+        <v>44328</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N104" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="O104" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P104" t="n">
-        <v>280000</v>
+        <v>225000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8702,11 +8702,11 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>622</v>
+        <v>500</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44316</v>
+        <v>44328</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N105" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O105" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P105" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44316</v>
+        <v>44298</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N106" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O106" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P106" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44351</v>
+        <v>44298</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N107" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O107" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P107" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N108" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O108" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P108" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N109" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O109" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P109" t="n">
-        <v>275000</v>
+        <v>250000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>12</v>
       </c>
       <c r="N110" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O110" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P110" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N111" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="O111" t="n">
         <v>300000</v>
       </c>
       <c r="P111" t="n">
-        <v>300000</v>
+        <v>295000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N112" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O112" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P112" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N113" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O113" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P113" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44357</v>
+        <v>44314</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9484,20 +9484,20 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="N114" t="n">
-        <v>8000</v>
+        <v>280000</v>
       </c>
       <c r="O114" t="n">
-        <v>9000</v>
+        <v>300000</v>
       </c>
       <c r="P114" t="n">
-        <v>8500</v>
+        <v>290000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>531</v>
+        <v>644</v>
       </c>
       <c r="T114" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44358</v>
+        <v>44312</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9555,29 +9555,29 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="N115" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="O115" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="P115" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>812</v>
+        <v>733</v>
       </c>
       <c r="T115" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44358</v>
+        <v>44312</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9635,29 +9635,29 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N116" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="O116" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="P116" t="n">
-        <v>11000</v>
+        <v>285000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>688</v>
+        <v>633</v>
       </c>
       <c r="T116" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44323</v>
+        <v>44312</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9727,13 +9727,13 @@
         <v>12</v>
       </c>
       <c r="N117" t="n">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="O117" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P117" t="n">
-        <v>455000</v>
+        <v>300000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1011</v>
+        <v>667</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44323</v>
+        <v>44312</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N118" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O118" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P118" t="n">
-        <v>415000</v>
+        <v>265000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>922</v>
+        <v>589</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N119" t="n">
         <v>270000</v>
       </c>
       <c r="O119" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P119" t="n">
-        <v>290000</v>
+        <v>275000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N120" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O120" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P120" t="n">
-        <v>235000</v>
+        <v>245000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10047,13 +10047,13 @@
         <v>15</v>
       </c>
       <c r="N121" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="O121" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P121" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N3" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O3" t="n">
         <v>300000</v>
       </c>
       <c r="P3" t="n">
-        <v>300000</v>
+        <v>285000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O4" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P4" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N5" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O5" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P5" t="n">
-        <v>320000</v>
+        <v>265000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>711</v>
+        <v>589</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44349</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
         <v>290000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44349</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O7" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P7" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44329</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O9" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P9" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44329</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O10" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P10" t="n">
-        <v>245000</v>
+        <v>265000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>544</v>
+        <v>589</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O11" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="P11" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N12" t="n">
-        <v>370000</v>
+        <v>400000</v>
       </c>
       <c r="O12" t="n">
-        <v>370000</v>
+        <v>430000</v>
       </c>
       <c r="P12" t="n">
-        <v>370000</v>
+        <v>415000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>822</v>
+        <v>922</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N13" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O13" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P13" t="n">
-        <v>305000</v>
+        <v>280000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>678</v>
+        <v>622</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N14" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O14" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P14" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44313</v>
+        <v>44344</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="O15" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P15" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>822</v>
+        <v>622</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44313</v>
+        <v>44344</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O16" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P16" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>633</v>
+        <v>511</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44313</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N17" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O17" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P17" t="n">
-        <v>240000</v>
+        <v>275000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="O18" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P18" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>340000</v>
+        <v>450000</v>
       </c>
       <c r="O19" t="n">
-        <v>340000</v>
+        <v>450000</v>
       </c>
       <c r="P19" t="n">
-        <v>340000</v>
+        <v>450000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>756</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N20" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O20" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P20" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>622</v>
+        <v>756</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="O21" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P21" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O22" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P22" t="n">
-        <v>275000</v>
+        <v>340000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N23" t="n">
-        <v>315000</v>
+        <v>370000</v>
       </c>
       <c r="O23" t="n">
-        <v>315000</v>
+        <v>370000</v>
       </c>
       <c r="P23" t="n">
-        <v>315000</v>
+        <v>370000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>700</v>
+        <v>822</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2287,13 +2287,13 @@
         <v>16</v>
       </c>
       <c r="N24" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O24" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P24" t="n">
-        <v>275000</v>
+        <v>305000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N25" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="O25" t="n">
-        <v>460000</v>
+        <v>330000</v>
       </c>
       <c r="P25" t="n">
-        <v>455000</v>
+        <v>330000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1011</v>
+        <v>733</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>400000</v>
+        <v>370000</v>
       </c>
       <c r="O26" t="n">
-        <v>430000</v>
+        <v>370000</v>
       </c>
       <c r="P26" t="n">
-        <v>415000</v>
+        <v>370000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>922</v>
+        <v>822</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N27" t="n">
         <v>270000</v>
       </c>
       <c r="O27" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="P27" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44323</v>
+        <v>44313</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O28" t="n">
         <v>240000</v>
       </c>
       <c r="P28" t="n">
-        <v>235000</v>
+        <v>240000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="O29" t="n">
-        <v>200000</v>
+        <v>370000</v>
       </c>
       <c r="P29" t="n">
-        <v>200000</v>
+        <v>365000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>444</v>
+        <v>811</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44295</v>
+        <v>44327</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N30" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O30" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P30" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44295</v>
+        <v>44327</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N31" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O31" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P31" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N32" t="n">
-        <v>360000</v>
+        <v>200000</v>
       </c>
       <c r="O32" t="n">
-        <v>370000</v>
+        <v>200000</v>
       </c>
       <c r="P32" t="n">
-        <v>365000</v>
+        <v>200000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>811</v>
+        <v>444</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N33" t="n">
-        <v>330000</v>
+        <v>13000</v>
       </c>
       <c r="O33" t="n">
-        <v>330000</v>
+        <v>13000</v>
       </c>
       <c r="P33" t="n">
-        <v>330000</v>
+        <v>13000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>733</v>
+        <v>812</v>
       </c>
       <c r="T33" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,24 +3080,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>240000</v>
+        <v>11000</v>
       </c>
       <c r="O34" t="n">
-        <v>260000</v>
+        <v>11000</v>
       </c>
       <c r="P34" t="n">
-        <v>250000</v>
+        <v>11000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>688</v>
       </c>
       <c r="T34" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44327</v>
+        <v>44319</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O35" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P35" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N36" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O36" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P36" t="n">
-        <v>285000</v>
+        <v>310000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>633</v>
+        <v>689</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N37" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O37" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P37" t="n">
-        <v>240000</v>
+        <v>275000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N38" t="n">
-        <v>280000</v>
+        <v>315000</v>
       </c>
       <c r="O38" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="P38" t="n">
-        <v>290000</v>
+        <v>315000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44330</v>
+        <v>44309</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N39" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O39" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P39" t="n">
-        <v>260000</v>
+        <v>275000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44298</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O40" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P40" t="n">
-        <v>235238</v>
+        <v>320000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>523</v>
+        <v>711</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44330</v>
+        <v>44298</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N41" t="n">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="O41" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="P41" t="n">
-        <v>180000</v>
+        <v>285000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>400</v>
+        <v>633</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44322</v>
+        <v>44335</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O42" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P42" t="n">
-        <v>415000</v>
+        <v>265000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>922</v>
+        <v>589</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44322</v>
+        <v>44335</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N43" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O43" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P43" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44322</v>
+        <v>44305</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O44" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P44" t="n">
-        <v>255000</v>
+        <v>330000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="O45" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P45" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N46" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="O46" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="P46" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O47" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P47" t="n">
-        <v>285000</v>
+        <v>320000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N48" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="O48" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P48" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>15</v>
       </c>
       <c r="N49" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O49" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P49" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>711</v>
+        <v>578</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44315</v>
+        <v>44334</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>15</v>
       </c>
       <c r="N50" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="O50" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="P50" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>756</v>
+        <v>644</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44315</v>
+        <v>44334</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N51" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O51" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P51" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44315</v>
+        <v>44334</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N52" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O52" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P52" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44293</v>
+        <v>44326</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N53" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O53" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P53" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44293</v>
+        <v>44326</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N54" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O54" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P54" t="n">
-        <v>285000</v>
+        <v>245000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>633</v>
+        <v>544</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44293</v>
+        <v>44326</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4767,13 +4767,13 @@
         <v>15</v>
       </c>
       <c r="N55" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="O55" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P55" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N56" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O56" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P56" t="n">
-        <v>275000</v>
+        <v>320000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N57" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="O57" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P57" t="n">
-        <v>230000</v>
+        <v>295000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>511</v>
+        <v>656</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44294</v>
+        <v>44314</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N58" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O58" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P58" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44294</v>
+        <v>44314</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N59" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="O59" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P59" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>467</v>
+        <v>778</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N60" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O60" t="n">
         <v>300000</v>
       </c>
       <c r="P60" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N61" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O61" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P61" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N62" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O62" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P62" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N63" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O63" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="P63" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44316</v>
+        <v>44308</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N64" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O64" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P64" t="n">
-        <v>320000</v>
+        <v>285000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44316</v>
+        <v>44308</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N65" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O65" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P65" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44319</v>
+        <v>44308</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N66" t="n">
         <v>280000</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44351</v>
+        <v>44315</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N67" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O67" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P67" t="n">
-        <v>265000</v>
+        <v>320000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44344</v>
+        <v>44315</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>15</v>
       </c>
       <c r="N68" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="O68" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P68" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>622</v>
+        <v>778</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44344</v>
+        <v>44315</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N69" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O69" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P69" t="n">
-        <v>230000</v>
+        <v>285000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>511</v>
+        <v>633</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,29 +5955,29 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N70" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="O70" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="P70" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>812</v>
+        <v>533</v>
       </c>
       <c r="T70" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,24 +6040,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N71" t="n">
-        <v>11000</v>
+        <v>320000</v>
       </c>
       <c r="O71" t="n">
-        <v>11000</v>
+        <v>320000</v>
       </c>
       <c r="P71" t="n">
-        <v>11000</v>
+        <v>320000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6066,10 +6066,10 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="T71" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44335</v>
+        <v>44315</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N72" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O72" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="P72" t="n">
-        <v>265000</v>
+        <v>340000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>589</v>
+        <v>756</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44335</v>
+        <v>44315</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N73" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O73" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P73" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44320</v>
+        <v>44315</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N74" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O74" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P74" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6364,20 +6364,20 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="N75" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="O75" t="n">
-        <v>270000</v>
+        <v>9000</v>
       </c>
       <c r="P75" t="n">
-        <v>265000</v>
+        <v>8500</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>589</v>
+        <v>531</v>
       </c>
       <c r="T75" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44320</v>
+        <v>44329</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O76" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P76" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44300</v>
+        <v>44329</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N77" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O77" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P77" t="n">
-        <v>275000</v>
+        <v>245000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44300</v>
+        <v>44316</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N78" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O78" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P78" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44300</v>
+        <v>44316</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N79" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="O79" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="P79" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44300</v>
+        <v>44316</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N80" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O80" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P80" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44300</v>
+        <v>44316</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N81" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O81" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P81" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44349</v>
+        <v>44316</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N82" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="O82" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="P82" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44349</v>
+        <v>44316</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N83" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O83" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P83" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7087,13 +7087,13 @@
         <v>16</v>
       </c>
       <c r="N84" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O84" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P84" t="n">
-        <v>255000</v>
+        <v>265000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44307</v>
+        <v>44293</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,25 +7155,25 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>15</v>
       </c>
       <c r="N85" t="n">
-        <v>390000</v>
+        <v>330000</v>
       </c>
       <c r="O85" t="n">
-        <v>390000</v>
+        <v>330000</v>
       </c>
       <c r="P85" t="n">
-        <v>390000</v>
+        <v>330000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44307</v>
+        <v>44293</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N86" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O86" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P86" t="n">
-        <v>330000</v>
+        <v>285000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>733</v>
+        <v>633</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44307</v>
+        <v>44293</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7327,13 +7327,13 @@
         <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O87" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P87" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N88" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="O88" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="P88" t="n">
-        <v>290000</v>
+        <v>265000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N89" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O89" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P89" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N90" t="n">
-        <v>230000</v>
+        <v>450000</v>
       </c>
       <c r="O90" t="n">
-        <v>230000</v>
+        <v>460000</v>
       </c>
       <c r="P90" t="n">
-        <v>230000</v>
+        <v>455000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>511</v>
+        <v>1011</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N91" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="O91" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P91" t="n">
-        <v>300000</v>
+        <v>415000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>922</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N92" t="n">
         <v>270000</v>
       </c>
       <c r="O92" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P92" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N93" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O93" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P93" t="n">
-        <v>250000</v>
+        <v>235000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N94" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O94" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P94" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N95" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O95" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P95" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>578</v>
+        <v>667</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N96" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O96" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P96" t="n">
-        <v>240000</v>
+        <v>275000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>12</v>
       </c>
       <c r="N97" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O97" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P97" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N98" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O98" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P98" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N99" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O99" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P99" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N100" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="O100" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P100" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N101" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O101" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P101" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8527,13 +8527,13 @@
         <v>15</v>
       </c>
       <c r="N102" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O102" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P102" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44357</v>
+        <v>44328</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8604,32 +8604,32 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="N103" t="n">
-        <v>8000</v>
+        <v>220000</v>
       </c>
       <c r="O103" t="n">
-        <v>9000</v>
+        <v>230000</v>
       </c>
       <c r="P103" t="n">
-        <v>8500</v>
+        <v>225000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="T103" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104">
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N104" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O104" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P104" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N105" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O105" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P105" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N106" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O106" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P106" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N107" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O107" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P107" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>633</v>
+        <v>511</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44333</v>
+        <v>44301</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N108" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="O108" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="P108" t="n">
-        <v>265000</v>
+        <v>420000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>589</v>
+        <v>933</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44333</v>
+        <v>44301</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N109" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O109" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P109" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>556</v>
+        <v>733</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44314</v>
+        <v>44301</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N110" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O110" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P110" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44314</v>
+        <v>44330</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N111" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="O111" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P111" t="n">
-        <v>295000</v>
+        <v>260000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>656</v>
+        <v>578</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44314</v>
+        <v>44330</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N112" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O112" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P112" t="n">
-        <v>330000</v>
+        <v>235238</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>733</v>
+        <v>523</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44314</v>
+        <v>44330</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N113" t="n">
-        <v>350000</v>
+        <v>180000</v>
       </c>
       <c r="O113" t="n">
-        <v>350000</v>
+        <v>180000</v>
       </c>
       <c r="P113" t="n">
-        <v>350000</v>
+        <v>180000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44314</v>
+        <v>44295</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -9484,17 +9484,17 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N114" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O114" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P114" t="n">
         <v>280000</v>
       </c>
-      <c r="O114" t="n">
-        <v>300000</v>
-      </c>
-      <c r="P114" t="n">
-        <v>290000</v>
-      </c>
       <c r="Q114" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44312</v>
+        <v>44295</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N115" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O115" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P115" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44312</v>
+        <v>44307</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N116" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="O116" t="n">
-        <v>300000</v>
+        <v>390000</v>
       </c>
       <c r="P116" t="n">
-        <v>285000</v>
+        <v>390000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>633</v>
+        <v>867</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44312</v>
+        <v>44307</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N117" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O117" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P117" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44312</v>
+        <v>44307</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N118" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O118" t="n">
         <v>270000</v>
       </c>
       <c r="P118" t="n">
-        <v>265000</v>
+        <v>270000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44326</v>
+        <v>44302</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N119" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="O119" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P119" t="n">
-        <v>275000</v>
+        <v>420000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>611</v>
+        <v>933</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44326</v>
+        <v>44302</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N120" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="O120" t="n">
-        <v>250000</v>
+        <v>340000</v>
       </c>
       <c r="P120" t="n">
-        <v>245000</v>
+        <v>340000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>544</v>
+        <v>756</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44326</v>
+        <v>44302</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N121" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O121" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P121" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>467</v>
+        <v>622</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44312</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O2" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P2" t="n">
-        <v>330000</v>
+        <v>210000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>733</v>
+        <v>467</v>
       </c>
       <c r="T2" t="n">
         <v>450</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44312</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O3" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P3" t="n">
-        <v>285000</v>
+        <v>210000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>633</v>
+        <v>467</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44351</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O4" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P4" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44343</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O5" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P5" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44349</v>
+        <v>44343</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="O6" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="P6" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>644</v>
+        <v>511</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44349</v>
+        <v>44313</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O7" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="P7" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="O8" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="P8" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>622</v>
+        <v>822</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
         <v>300000</v>
       </c>
       <c r="O9" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P9" t="n">
-        <v>300000</v>
+        <v>305000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44313</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O10" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P10" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44313</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="O11" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="P11" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>511</v>
+        <v>822</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N12" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O12" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P12" t="n">
-        <v>415000</v>
+        <v>285000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>922</v>
+        <v>633</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>12</v>
       </c>
       <c r="N13" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O13" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P13" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44322</v>
+        <v>44334</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="O14" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P14" t="n">
-        <v>255000</v>
+        <v>290000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44344</v>
+        <v>44334</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O15" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P15" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44344</v>
+        <v>44334</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
         <v>230000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44319</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O17" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P17" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44300</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O18" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P18" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44300</v>
+        <v>44316</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N19" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="O19" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="P19" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44316</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O20" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P20" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44300</v>
+        <v>44316</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N21" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O21" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P21" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N22" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="O22" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="P22" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N23" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="O23" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="P23" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>822</v>
+        <v>556</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44313</v>
+        <v>44344</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O24" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P24" t="n">
-        <v>305000</v>
+        <v>280000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>678</v>
+        <v>622</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44313</v>
+        <v>44344</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O25" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P25" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N26" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="O26" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="P26" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="O27" t="n">
         <v>300000</v>
       </c>
       <c r="P27" t="n">
-        <v>285000</v>
+        <v>295000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O28" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P28" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N29" t="n">
-        <v>360000</v>
+        <v>350000</v>
       </c>
       <c r="O29" t="n">
-        <v>370000</v>
+        <v>350000</v>
       </c>
       <c r="P29" t="n">
-        <v>365000</v>
+        <v>350000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>811</v>
+        <v>778</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N30" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O30" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P30" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O31" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P31" t="n">
-        <v>250000</v>
+        <v>265000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O32" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P32" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44319</v>
+        <v>44298</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O35" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P35" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44309</v>
+        <v>44298</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N36" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="O36" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="P36" t="n">
-        <v>310000</v>
+        <v>285000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44309</v>
+        <v>44328</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N37" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O37" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P37" t="n">
-        <v>275000</v>
+        <v>225000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44309</v>
+        <v>44328</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N38" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="O38" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="P38" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44309</v>
+        <v>44357</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,32 +3484,32 @@
         </is>
       </c>
       <c r="M39" t="n">
+        <v>140</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>531</v>
+      </c>
+      <c r="T39" t="n">
         <v>16</v>
-      </c>
-      <c r="N39" t="n">
-        <v>270000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>275000</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
-        <v>611</v>
-      </c>
-      <c r="T39" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44298</v>
+        <v>44333</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O40" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P40" t="n">
-        <v>320000</v>
+        <v>265000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>711</v>
+        <v>589</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44298</v>
+        <v>44333</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N41" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O41" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P41" t="n">
-        <v>285000</v>
+        <v>250000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>633</v>
+        <v>556</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44335</v>
+        <v>44320</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O42" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P42" t="n">
-        <v>265000</v>
+        <v>300000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44335</v>
+        <v>44320</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N43" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O43" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P43" t="n">
-        <v>230000</v>
+        <v>265000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44305</v>
+        <v>44320</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N44" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O44" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P44" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44305</v>
+        <v>44293</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O45" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P45" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44305</v>
+        <v>44293</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N46" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O46" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P46" t="n">
-        <v>250000</v>
+        <v>285000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44305</v>
+        <v>44293</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O47" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P47" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N48" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O48" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P48" t="n">
-        <v>290000</v>
+        <v>275000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N49" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O49" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P49" t="n">
-        <v>260000</v>
+        <v>245000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44334</v>
+        <v>44326</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4360,20 +4360,20 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>15</v>
       </c>
       <c r="N50" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="O50" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="P50" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>644</v>
+        <v>467</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44334</v>
+        <v>44302</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N51" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="O51" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="P51" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44334</v>
+        <v>44302</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N52" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="O52" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="P52" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44326</v>
+        <v>44302</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N53" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O53" t="n">
         <v>280000</v>
       </c>
       <c r="P53" t="n">
-        <v>275000</v>
+        <v>280000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44326</v>
+        <v>44308</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4687,13 +4687,13 @@
         <v>24</v>
       </c>
       <c r="N54" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O54" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P54" t="n">
-        <v>245000</v>
+        <v>285000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>544</v>
+        <v>633</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44326</v>
+        <v>44308</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4767,13 +4767,13 @@
         <v>15</v>
       </c>
       <c r="N55" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="O55" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P55" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44314</v>
+        <v>44308</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N56" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O56" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P56" t="n">
-        <v>320000</v>
+        <v>290000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>711</v>
+        <v>644</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44314</v>
+        <v>44349</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N57" t="n">
         <v>290000</v>
       </c>
       <c r="O57" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P57" t="n">
-        <v>295000</v>
+        <v>290000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44314</v>
+        <v>44349</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O58" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P58" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44314</v>
+        <v>44306</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O59" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P59" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44314</v>
+        <v>44306</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N60" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O60" t="n">
         <v>280000</v>
       </c>
-      <c r="O60" t="n">
-        <v>300000</v>
-      </c>
       <c r="P60" t="n">
-        <v>290000</v>
+        <v>275000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44350</v>
+        <v>44306</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N61" t="n">
         <v>250000</v>
       </c>
       <c r="O61" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P61" t="n">
-        <v>255000</v>
+        <v>250000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N62" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O62" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P62" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44294</v>
+        <v>44306</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N63" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O63" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P63" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N64" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O64" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P64" t="n">
-        <v>285000</v>
+        <v>240000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>633</v>
+        <v>533</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N65" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O65" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P65" t="n">
-        <v>240000</v>
+        <v>275000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N66" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O66" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P66" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>644</v>
+        <v>533</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5727,13 +5727,13 @@
         <v>15</v>
       </c>
       <c r="N67" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="O67" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="P67" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>711</v>
+        <v>1000</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N68" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O68" t="n">
         <v>350000</v>
       </c>
       <c r="P68" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N69" t="n">
         <v>270000</v>
       </c>
       <c r="O69" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P69" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N70" t="n">
-        <v>240000</v>
+        <v>450000</v>
       </c>
       <c r="O70" t="n">
-        <v>240000</v>
+        <v>460000</v>
       </c>
       <c r="P70" t="n">
-        <v>240000</v>
+        <v>455000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>533</v>
+        <v>1011</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,25 +6035,25 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N71" t="n">
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="O71" t="n">
-        <v>320000</v>
+        <v>430000</v>
       </c>
       <c r="P71" t="n">
-        <v>320000</v>
+        <v>415000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>711</v>
+        <v>922</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N72" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="O72" t="n">
-        <v>340000</v>
+        <v>310000</v>
       </c>
       <c r="P72" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>756</v>
+        <v>644</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N73" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O73" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P73" t="n">
-        <v>290000</v>
+        <v>235000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>644</v>
+        <v>522</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44315</v>
+        <v>44323</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N74" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O74" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P74" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44357</v>
+        <v>44295</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,20 +6364,20 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="N75" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="O75" t="n">
-        <v>9000</v>
+        <v>290000</v>
       </c>
       <c r="P75" t="n">
-        <v>8500</v>
+        <v>280000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="T75" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44329</v>
+        <v>44295</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,25 +6435,25 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O76" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P76" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44329</v>
+        <v>44301</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N77" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O77" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P77" t="n">
-        <v>245000</v>
+        <v>330000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>544</v>
+        <v>733</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>18</v>
       </c>
       <c r="N78" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O78" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P78" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N79" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O79" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P79" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N80" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="O80" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="P80" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N81" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O81" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P81" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44316</v>
+        <v>44301</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N82" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O82" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P82" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N83" t="n">
         <v>250000</v>
       </c>
       <c r="O83" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P83" t="n">
-        <v>250000</v>
+        <v>255000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44351</v>
+        <v>44312</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N84" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O84" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P84" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44293</v>
+        <v>44312</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,25 +7155,25 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N85" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O85" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P85" t="n">
-        <v>330000</v>
+        <v>285000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>733</v>
+        <v>633</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44293</v>
+        <v>44312</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N86" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O86" t="n">
         <v>300000</v>
       </c>
       <c r="P86" t="n">
-        <v>285000</v>
+        <v>300000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44293</v>
+        <v>44312</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N87" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O87" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P87" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44333</v>
+        <v>44329</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N88" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O88" t="n">
         <v>270000</v>
       </c>
       <c r="P88" t="n">
-        <v>265000</v>
+        <v>270000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44333</v>
+        <v>44329</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N89" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O89" t="n">
         <v>250000</v>
       </c>
       <c r="P89" t="n">
-        <v>250000</v>
+        <v>245000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44323</v>
+        <v>44305</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N90" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="O90" t="n">
-        <v>460000</v>
+        <v>330000</v>
       </c>
       <c r="P90" t="n">
-        <v>455000</v>
+        <v>330000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1011</v>
+        <v>733</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44323</v>
+        <v>44305</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N91" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O91" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P91" t="n">
-        <v>415000</v>
+        <v>300000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>922</v>
+        <v>667</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44323</v>
+        <v>44305</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N92" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O92" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="P92" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44323</v>
+        <v>44305</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N93" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O93" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P93" t="n">
-        <v>235000</v>
+        <v>320000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>522</v>
+        <v>711</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44323</v>
+        <v>44305</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>15</v>
       </c>
       <c r="N94" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="O94" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="P94" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N95" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O95" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P95" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N96" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O96" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P96" t="n">
-        <v>275000</v>
+        <v>320000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N97" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="O97" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="P97" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N98" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O98" t="n">
         <v>300000</v>
       </c>
       <c r="P98" t="n">
-        <v>300000</v>
+        <v>285000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N99" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O99" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P99" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44306</v>
+        <v>44315</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O100" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P100" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O101" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P101" t="n">
-        <v>275000</v>
+        <v>340000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N102" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O102" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P102" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44328</v>
+        <v>44315</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>18</v>
       </c>
       <c r="N103" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O103" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P103" t="n">
-        <v>225000</v>
+        <v>260000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44328</v>
+        <v>44348</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N104" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O104" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P104" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8702,11 +8702,11 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44301</v>
+        <v>44322</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N105" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O105" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P105" t="n">
-        <v>330000</v>
+        <v>415000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>733</v>
+        <v>922</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44301</v>
+        <v>44322</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8835,16 +8835,16 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N106" t="n">
         <v>280000</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44301</v>
+        <v>44322</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8915,25 +8915,25 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N107" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O107" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P107" t="n">
-        <v>230000</v>
+        <v>255000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44301</v>
+        <v>44327</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N108" t="n">
-        <v>420000</v>
+        <v>360000</v>
       </c>
       <c r="O108" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="P108" t="n">
-        <v>420000</v>
+        <v>365000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>933</v>
+        <v>811</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44301</v>
+        <v>44327</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,16 +9075,16 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N109" t="n">
         <v>330000</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44301</v>
+        <v>44327</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N110" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O110" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P110" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N111" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O111" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P111" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>578</v>
+        <v>444</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N112" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O112" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P112" t="n">
-        <v>235238</v>
+        <v>260000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N113" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O113" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P113" t="n">
-        <v>180000</v>
+        <v>235238</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9475,25 +9475,25 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N114" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="O114" t="n">
-        <v>290000</v>
+        <v>180000</v>
       </c>
       <c r="P114" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>622</v>
+        <v>400</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44295</v>
+        <v>44307</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M115" t="n">
         <v>15</v>
       </c>
       <c r="N115" t="n">
-        <v>220000</v>
+        <v>390000</v>
       </c>
       <c r="O115" t="n">
-        <v>220000</v>
+        <v>390000</v>
       </c>
       <c r="P115" t="n">
-        <v>220000</v>
+        <v>390000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>489</v>
+        <v>867</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N116" t="n">
-        <v>390000</v>
+        <v>330000</v>
       </c>
       <c r="O116" t="n">
-        <v>390000</v>
+        <v>330000</v>
       </c>
       <c r="P116" t="n">
-        <v>390000</v>
+        <v>330000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N117" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O117" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P117" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44307</v>
+        <v>44309</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N118" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O118" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="P118" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N119" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="O119" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="P119" t="n">
-        <v>420000</v>
+        <v>275000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>933</v>
+        <v>611</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N120" t="n">
-        <v>340000</v>
+        <v>315000</v>
       </c>
       <c r="O120" t="n">
-        <v>340000</v>
+        <v>315000</v>
       </c>
       <c r="P120" t="n">
-        <v>340000</v>
+        <v>315000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>756</v>
+        <v>700</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N121" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O121" t="n">
         <v>280000</v>
       </c>
       <c r="P121" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O2" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P2" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T2" t="n">
         <v>450</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O3" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P3" t="n">
-        <v>210000</v>
+        <v>265000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>467</v>
+        <v>589</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44351</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O4" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P4" t="n">
-        <v>265000</v>
+        <v>250000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44343</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N5" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O5" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P5" t="n">
-        <v>275000</v>
+        <v>330000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44343</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O6" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P6" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O7" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="P7" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>370000</v>
+        <v>420000</v>
       </c>
       <c r="O8" t="n">
-        <v>370000</v>
+        <v>420000</v>
       </c>
       <c r="P8" t="n">
-        <v>370000</v>
+        <v>420000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>822</v>
+        <v>933</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N9" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O9" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="P9" t="n">
-        <v>305000</v>
+        <v>330000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O10" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P10" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44313</v>
+        <v>44343</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="O11" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P11" t="n">
-        <v>370000</v>
+        <v>275000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>822</v>
+        <v>611</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44313</v>
+        <v>44343</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O12" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P12" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>633</v>
+        <v>511</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44313</v>
+        <v>44334</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="O13" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P13" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O14" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="P14" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O15" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P15" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44334</v>
+        <v>44294</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O16" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P16" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44319</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O17" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P17" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>644</v>
+        <v>467</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O18" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P18" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N19" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O19" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P19" t="n">
-        <v>330000</v>
+        <v>235238</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>733</v>
+        <v>523</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="O20" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P20" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44316</v>
+        <v>44351</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N21" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O21" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P21" t="n">
-        <v>280000</v>
+        <v>265000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44316</v>
+        <v>44329</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O22" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P22" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>711</v>
+        <v>600</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44316</v>
+        <v>44329</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N23" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O23" t="n">
         <v>250000</v>
       </c>
       <c r="P23" t="n">
-        <v>250000</v>
+        <v>245000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="O24" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P24" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>622</v>
+        <v>933</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="O25" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="P25" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44314</v>
+        <v>44302</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N26" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O26" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P26" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N27" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="O27" t="n">
         <v>300000</v>
       </c>
       <c r="P27" t="n">
-        <v>295000</v>
+        <v>300000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N28" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O28" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P28" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O29" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="P29" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>778</v>
+        <v>511</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44314</v>
+        <v>44349</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,17 +2760,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O30" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P30" t="n">
         <v>290000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O31" t="n">
         <v>270000</v>
       </c>
       <c r="P31" t="n">
-        <v>265000</v>
+        <v>270000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44335</v>
+        <v>44348</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O32" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P32" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44358</v>
+        <v>44312</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,29 +2995,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="N33" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="O33" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="P33" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>812</v>
+        <v>733</v>
       </c>
       <c r="T33" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44358</v>
+        <v>44312</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,29 +3075,29 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N34" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="O34" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="P34" t="n">
-        <v>11000</v>
+        <v>285000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>688</v>
+        <v>633</v>
       </c>
       <c r="T34" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N35" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="O35" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P35" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N36" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O36" t="n">
         <v>270000</v>
       </c>
-      <c r="O36" t="n">
-        <v>300000</v>
-      </c>
       <c r="P36" t="n">
-        <v>285000</v>
+        <v>265000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44328</v>
+        <v>44309</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N37" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="O37" t="n">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="P37" t="n">
-        <v>225000</v>
+        <v>310000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>500</v>
+        <v>689</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44328</v>
+        <v>44309</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N38" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O38" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P38" t="n">
-        <v>200000</v>
+        <v>275000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44357</v>
+        <v>44309</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,24 +3480,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="N39" t="n">
-        <v>8000</v>
+        <v>315000</v>
       </c>
       <c r="O39" t="n">
-        <v>9000</v>
+        <v>315000</v>
       </c>
       <c r="P39" t="n">
-        <v>8500</v>
+        <v>315000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>531</v>
+        <v>700</v>
       </c>
       <c r="T39" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44333</v>
+        <v>44309</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N40" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O40" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P40" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44333</v>
+        <v>44323</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>12</v>
       </c>
       <c r="N41" t="n">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="O41" t="n">
-        <v>250000</v>
+        <v>460000</v>
       </c>
       <c r="P41" t="n">
-        <v>250000</v>
+        <v>455000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>556</v>
+        <v>1011</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N42" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="O42" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P42" t="n">
-        <v>300000</v>
+        <v>415000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>667</v>
+        <v>922</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N43" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O43" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="P43" t="n">
-        <v>265000</v>
+        <v>290000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N44" t="n">
         <v>230000</v>
       </c>
       <c r="O44" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P44" t="n">
-        <v>230000</v>
+        <v>235000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O45" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P45" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44293</v>
+        <v>44328</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4047,13 +4047,13 @@
         <v>18</v>
       </c>
       <c r="N46" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O46" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P46" t="n">
-        <v>285000</v>
+        <v>225000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44293</v>
+        <v>44328</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44326</v>
+        <v>44295</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,26 +4195,26 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N48" t="n">
         <v>270000</v>
       </c>
       <c r="O48" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P48" t="n">
         <v>280000</v>
       </c>
-      <c r="P48" t="n">
-        <v>275000</v>
-      </c>
       <c r="Q48" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44326</v>
+        <v>44295</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N49" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O49" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P49" t="n">
-        <v>245000</v>
+        <v>220000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N50" t="n">
-        <v>210000</v>
+        <v>360000</v>
       </c>
       <c r="O50" t="n">
-        <v>210000</v>
+        <v>370000</v>
       </c>
       <c r="P50" t="n">
-        <v>210000</v>
+        <v>365000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>467</v>
+        <v>811</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N51" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="O51" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P51" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N52" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="O52" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P52" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>756</v>
+        <v>556</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44302</v>
+        <v>44327</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N53" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O53" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P53" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44308</v>
+        <v>44305</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N54" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O54" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P54" t="n">
-        <v>285000</v>
+        <v>330000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44308</v>
+        <v>44305</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>15</v>
       </c>
       <c r="N55" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O55" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P55" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44308</v>
+        <v>44305</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N56" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O56" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P56" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44349</v>
+        <v>44305</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N57" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="O57" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="P57" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44349</v>
+        <v>44305</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5007,13 +5007,13 @@
         <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="O58" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="P58" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N59" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O59" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P59" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>578</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N60" t="n">
         <v>270000</v>
       </c>
       <c r="O60" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P60" t="n">
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N61" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O61" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P61" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N62" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O62" t="n">
         <v>300000</v>
       </c>
       <c r="P62" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44326</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N63" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O63" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P63" t="n">
-        <v>260000</v>
+        <v>275000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44306</v>
+        <v>44326</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N64" t="n">
         <v>240000</v>
       </c>
       <c r="O64" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P64" t="n">
-        <v>240000</v>
+        <v>245000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44300</v>
+        <v>44326</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N65" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O65" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="P65" t="n">
-        <v>275000</v>
+        <v>210000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>611</v>
+        <v>467</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N66" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O66" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P66" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N67" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O67" t="n">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="P67" t="n">
-        <v>450000</v>
+        <v>285000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1000</v>
+        <v>633</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N68" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O68" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="P68" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>756</v>
+        <v>444</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44300</v>
+        <v>44306</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>10</v>
       </c>
       <c r="N69" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O69" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P69" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N70" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O70" t="n">
-        <v>460000</v>
+        <v>280000</v>
       </c>
       <c r="P70" t="n">
-        <v>455000</v>
+        <v>275000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1011</v>
+        <v>611</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N71" t="n">
-        <v>400000</v>
+        <v>250000</v>
       </c>
       <c r="O71" t="n">
-        <v>430000</v>
+        <v>250000</v>
       </c>
       <c r="P71" t="n">
-        <v>415000</v>
+        <v>250000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>922</v>
+        <v>556</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N72" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O72" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="P72" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N73" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O73" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P73" t="n">
-        <v>235000</v>
+        <v>260000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44323</v>
+        <v>44306</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N74" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O74" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P74" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44295</v>
+        <v>44315</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N75" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O75" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="P75" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44295</v>
+        <v>44315</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,25 +6435,25 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O76" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P76" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>489</v>
+        <v>778</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N77" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O77" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P77" t="n">
-        <v>330000</v>
+        <v>285000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>733</v>
+        <v>633</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N78" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O78" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P78" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>15</v>
       </c>
       <c r="N79" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O79" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P79" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N80" t="n">
-        <v>420000</v>
+        <v>340000</v>
       </c>
       <c r="O80" t="n">
-        <v>420000</v>
+        <v>340000</v>
       </c>
       <c r="P80" t="n">
-        <v>420000</v>
+        <v>340000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>933</v>
+        <v>756</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N81" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O81" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P81" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44301</v>
+        <v>44315</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N82" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O82" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P82" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44350</v>
+        <v>44313</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N83" t="n">
-        <v>250000</v>
+        <v>340000</v>
       </c>
       <c r="O83" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P83" t="n">
-        <v>255000</v>
+        <v>340000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>567</v>
+        <v>756</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N84" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="O84" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="P84" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N85" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O85" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P85" t="n">
-        <v>285000</v>
+        <v>305000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N86" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O86" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P86" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N87" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="O87" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="P87" t="n">
-        <v>265000</v>
+        <v>370000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>589</v>
+        <v>822</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N88" t="n">
         <v>270000</v>
       </c>
       <c r="O88" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P88" t="n">
-        <v>270000</v>
+        <v>285000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N89" t="n">
         <v>240000</v>
       </c>
       <c r="O89" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P89" t="n">
-        <v>245000</v>
+        <v>240000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44305</v>
+        <v>44322</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N90" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O90" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P90" t="n">
-        <v>330000</v>
+        <v>415000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>733</v>
+        <v>922</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44305</v>
+        <v>44322</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N91" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O91" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P91" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44305</v>
+        <v>44322</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N92" t="n">
         <v>250000</v>
       </c>
       <c r="O92" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P92" t="n">
-        <v>250000</v>
+        <v>255000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44305</v>
+        <v>44298</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N93" t="n">
         <v>320000</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44305</v>
+        <v>44298</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7884,16 +7884,16 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N94" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O94" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P94" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44305</v>
+        <v>44357</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N95" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="O95" t="n">
-        <v>260000</v>
+        <v>9000</v>
       </c>
       <c r="P95" t="n">
-        <v>260000</v>
+        <v>8500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="T95" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N96" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O96" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P96" t="n">
-        <v>320000</v>
+        <v>275000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>711</v>
+        <v>611</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N97" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="O97" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P97" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>778</v>
+        <v>533</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N98" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O98" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="P98" t="n">
-        <v>285000</v>
+        <v>450000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>633</v>
+        <v>1000</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N99" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O99" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P99" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>533</v>
+        <v>756</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44315</v>
+        <v>44300</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N100" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O100" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P100" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>711</v>
+        <v>600</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8447,13 +8447,13 @@
         <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>340000</v>
+        <v>390000</v>
       </c>
       <c r="O101" t="n">
-        <v>340000</v>
+        <v>390000</v>
       </c>
       <c r="P101" t="n">
-        <v>340000</v>
+        <v>390000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>756</v>
+        <v>867</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N102" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O102" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P102" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N103" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O103" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P103" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44348</v>
+        <v>44316</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N104" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O104" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P104" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N105" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="O105" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="P105" t="n">
-        <v>415000</v>
+        <v>330000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>922</v>
+        <v>733</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N106" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O106" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P106" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44322</v>
+        <v>44316</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N107" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O107" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P107" t="n">
-        <v>255000</v>
+        <v>280000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>18</v>
       </c>
       <c r="N108" t="n">
-        <v>360000</v>
+        <v>320000</v>
       </c>
       <c r="O108" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="P108" t="n">
-        <v>365000</v>
+        <v>320000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>811</v>
+        <v>711</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N109" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O109" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P109" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44327</v>
+        <v>44350</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N110" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O110" t="n">
         <v>260000</v>
       </c>
       <c r="P110" t="n">
-        <v>250000</v>
+        <v>255000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,24 +9240,24 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="N111" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="O111" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="P111" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>444</v>
+        <v>812</v>
       </c>
       <c r="T111" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9320,24 +9320,24 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N112" t="n">
-        <v>260000</v>
+        <v>11000</v>
       </c>
       <c r="O112" t="n">
-        <v>260000</v>
+        <v>11000</v>
       </c>
       <c r="P112" t="n">
-        <v>260000</v>
+        <v>11000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,10 +9346,10 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>578</v>
+        <v>688</v>
       </c>
       <c r="T112" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44330</v>
+        <v>44335</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N113" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O113" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P113" t="n">
-        <v>235238</v>
+        <v>265000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44330</v>
+        <v>44335</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9487,13 +9487,13 @@
         <v>20</v>
       </c>
       <c r="N114" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O114" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P114" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>400</v>
+        <v>511</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44307</v>
+        <v>44314</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N115" t="n">
-        <v>390000</v>
+        <v>320000</v>
       </c>
       <c r="O115" t="n">
-        <v>390000</v>
+        <v>320000</v>
       </c>
       <c r="P115" t="n">
-        <v>390000</v>
+        <v>320000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>867</v>
+        <v>711</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44307</v>
+        <v>44314</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N116" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="O116" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P116" t="n">
-        <v>330000</v>
+        <v>295000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>733</v>
+        <v>656</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44307</v>
+        <v>44314</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N117" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O117" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P117" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44309</v>
+        <v>44314</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M118" t="n">
         <v>8</v>
       </c>
       <c r="N118" t="n">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="O118" t="n">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="P118" t="n">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>689</v>
+        <v>778</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44309</v>
+        <v>44314</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N119" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O119" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P119" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44309</v>
+        <v>44344</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N120" t="n">
-        <v>315000</v>
+        <v>280000</v>
       </c>
       <c r="O120" t="n">
-        <v>315000</v>
+        <v>280000</v>
       </c>
       <c r="P120" t="n">
-        <v>315000</v>
+        <v>280000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>700</v>
+        <v>622</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44309</v>
+        <v>44344</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N121" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O121" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P121" t="n">
-        <v>275000</v>
+        <v>230000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44319</v>
+        <v>44335</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O2" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P2" t="n">
-        <v>290000</v>
+        <v>265000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="T2" t="n">
         <v>450</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O3" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P3" t="n">
-        <v>265000</v>
+        <v>230000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>589</v>
+        <v>511</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>250000</v>
+        <v>390000</v>
       </c>
       <c r="O4" t="n">
-        <v>250000</v>
+        <v>390000</v>
       </c>
       <c r="P4" t="n">
-        <v>250000</v>
+        <v>390000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>867</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,16 +755,16 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N5" t="n">
         <v>330000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,25 +835,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O6" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P6" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O7" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P7" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N8" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="O8" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="P8" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>933</v>
+        <v>622</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O9" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P9" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="O10" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P10" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>622</v>
+        <v>933</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44343</v>
+        <v>44301</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N11" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O11" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P11" t="n">
-        <v>275000</v>
+        <v>330000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44343</v>
+        <v>44301</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,13 +1327,13 @@
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O12" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P12" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44294</v>
+        <v>44314</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N16" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O16" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="P16" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>467</v>
+        <v>711</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44314</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="O17" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P17" t="n">
-        <v>210000</v>
+        <v>295000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>467</v>
+        <v>656</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44330</v>
+        <v>44314</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N18" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O18" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P18" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44330</v>
+        <v>44314</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="N19" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="O19" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P19" t="n">
-        <v>235238</v>
+        <v>350000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>523</v>
+        <v>778</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44330</v>
+        <v>44314</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N20" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="O20" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="P20" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>400</v>
+        <v>644</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44351</v>
+        <v>44305</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N21" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O21" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P21" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44329</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O22" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P22" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44329</v>
+        <v>44305</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N23" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O23" t="n">
         <v>250000</v>
       </c>
       <c r="P23" t="n">
-        <v>245000</v>
+        <v>250000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2287,13 +2287,13 @@
         <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="O24" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="P24" t="n">
-        <v>420000</v>
+        <v>320000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>933</v>
+        <v>711</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="O25" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="P25" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>756</v>
+        <v>644</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44302</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O26" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P26" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44320</v>
+        <v>44293</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O27" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P27" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44320</v>
+        <v>44293</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2607,13 +2607,13 @@
         <v>18</v>
       </c>
       <c r="N28" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O28" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P28" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44320</v>
+        <v>44293</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O29" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P29" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44349</v>
+        <v>44295</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N30" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O30" t="n">
         <v>290000</v>
       </c>
       <c r="P30" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44349</v>
+        <v>44295</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O31" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P31" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44348</v>
+        <v>44333</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O32" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P32" t="n">
-        <v>280000</v>
+        <v>265000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N33" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O33" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P33" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44312</v>
+        <v>44343</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N34" t="n">
         <v>270000</v>
       </c>
       <c r="O34" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P34" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44312</v>
+        <v>44343</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O35" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P35" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O36" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P36" t="n">
-        <v>265000</v>
+        <v>290000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N37" t="n">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="O37" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P37" t="n">
-        <v>310000</v>
+        <v>265000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>689</v>
+        <v>589</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N39" t="n">
-        <v>315000</v>
+        <v>240000</v>
       </c>
       <c r="O39" t="n">
-        <v>315000</v>
+        <v>240000</v>
       </c>
       <c r="P39" t="n">
-        <v>315000</v>
+        <v>240000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44309</v>
+        <v>44300</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O40" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="P40" t="n">
-        <v>275000</v>
+        <v>450000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44323</v>
+        <v>44300</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N41" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="O41" t="n">
-        <v>460000</v>
+        <v>350000</v>
       </c>
       <c r="P41" t="n">
-        <v>455000</v>
+        <v>340000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1011</v>
+        <v>756</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44323</v>
+        <v>44300</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O42" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P42" t="n">
-        <v>415000</v>
+        <v>270000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>922</v>
+        <v>600</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,24 +3800,24 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="N43" t="n">
-        <v>270000</v>
+        <v>13000</v>
       </c>
       <c r="O43" t="n">
-        <v>310000</v>
+        <v>13000</v>
       </c>
       <c r="P43" t="n">
-        <v>290000</v>
+        <v>13000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>644</v>
+        <v>812</v>
       </c>
       <c r="T43" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,24 +3880,24 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="O44" t="n">
-        <v>240000</v>
+        <v>11000</v>
       </c>
       <c r="P44" t="n">
-        <v>235000</v>
+        <v>11000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>522</v>
+        <v>688</v>
       </c>
       <c r="T44" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O45" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P45" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44328</v>
+        <v>44320</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4047,13 +4047,13 @@
         <v>18</v>
       </c>
       <c r="N46" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O46" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P46" t="n">
-        <v>225000</v>
+        <v>265000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>500</v>
+        <v>589</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44328</v>
+        <v>44320</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N47" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O47" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P47" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N48" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O48" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P48" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N49" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="O49" t="n">
         <v>220000</v>
       </c>
       <c r="P49" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N50" t="n">
-        <v>360000</v>
+        <v>270000</v>
       </c>
       <c r="O50" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P50" t="n">
-        <v>365000</v>
+        <v>275000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>811</v>
+        <v>611</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N51" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O51" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P51" t="n">
-        <v>330000</v>
+        <v>245000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>733</v>
+        <v>544</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N52" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="O52" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P52" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44327</v>
+        <v>44315</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N53" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O53" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="P53" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>444</v>
+        <v>711</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N54" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="O54" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="P54" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N55" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O55" t="n">
         <v>300000</v>
       </c>
       <c r="P55" t="n">
-        <v>300000</v>
+        <v>285000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N56" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O56" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P56" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="O58" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="P58" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>644</v>
+        <v>756</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N59" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O59" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P59" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44308</v>
+        <v>44315</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N60" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O60" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P60" t="n">
-        <v>285000</v>
+        <v>260000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44308</v>
+        <v>44348</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N61" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O61" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P61" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N62" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="O62" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P62" t="n">
-        <v>290000</v>
+        <v>310000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44326</v>
+        <v>44309</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,16 +5395,16 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N63" t="n">
         <v>270000</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44326</v>
+        <v>44309</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N64" t="n">
-        <v>240000</v>
+        <v>315000</v>
       </c>
       <c r="O64" t="n">
-        <v>250000</v>
+        <v>315000</v>
       </c>
       <c r="P64" t="n">
-        <v>245000</v>
+        <v>315000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>544</v>
+        <v>700</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44326</v>
+        <v>44309</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N65" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="O65" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P65" t="n">
-        <v>210000</v>
+        <v>275000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44293</v>
+        <v>44312</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N66" t="n">
         <v>330000</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44293</v>
+        <v>44312</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44293</v>
+        <v>44312</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N68" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O68" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P68" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N69" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O69" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P69" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44306</v>
+        <v>44349</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N70" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="O70" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="P70" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44306</v>
+        <v>44349</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,25 +6035,25 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N71" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O71" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P71" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N72" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="O72" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P72" t="n">
-        <v>300000</v>
+        <v>365000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>667</v>
+        <v>811</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N73" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O73" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P73" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44306</v>
+        <v>44327</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N74" t="n">
         <v>240000</v>
       </c>
       <c r="O74" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P74" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44315</v>
+        <v>44327</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N75" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O75" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P75" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N76" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O76" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P76" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N77" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O77" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P77" t="n">
-        <v>285000</v>
+        <v>330000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N78" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O78" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P78" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N79" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O79" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P79" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N80" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="O80" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="P80" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N81" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O81" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P81" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44315</v>
+        <v>44330</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,11 +6920,11 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N82" t="n">
         <v>260000</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N83" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O83" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="P83" t="n">
-        <v>340000</v>
+        <v>235238</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>756</v>
+        <v>523</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N84" t="n">
-        <v>370000</v>
+        <v>180000</v>
       </c>
       <c r="O84" t="n">
-        <v>370000</v>
+        <v>180000</v>
       </c>
       <c r="P84" t="n">
-        <v>370000</v>
+        <v>180000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>822</v>
+        <v>400</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N85" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="O85" t="n">
-        <v>310000</v>
+        <v>460000</v>
       </c>
       <c r="P85" t="n">
-        <v>305000</v>
+        <v>455000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>678</v>
+        <v>1011</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N86" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O86" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P86" t="n">
-        <v>330000</v>
+        <v>415000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>733</v>
+        <v>922</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N87" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="O87" t="n">
-        <v>370000</v>
+        <v>310000</v>
       </c>
       <c r="P87" t="n">
-        <v>370000</v>
+        <v>290000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>822</v>
+        <v>644</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N88" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O88" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P88" t="n">
-        <v>285000</v>
+        <v>235000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>633</v>
+        <v>522</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44313</v>
+        <v>44323</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N89" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O89" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P89" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N90" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O90" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P90" t="n">
-        <v>415000</v>
+        <v>300000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>922</v>
+        <v>667</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N91" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O91" t="n">
         <v>280000</v>
       </c>
       <c r="P91" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44322</v>
+        <v>44306</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N92" t="n">
         <v>250000</v>
       </c>
       <c r="O92" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P92" t="n">
-        <v>255000</v>
+        <v>250000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N93" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="O93" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P93" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44298</v>
+        <v>44306</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7887,13 +7887,13 @@
         <v>14</v>
       </c>
       <c r="N94" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O94" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P94" t="n">
-        <v>285000</v>
+        <v>260000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7960,24 +7960,24 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="N95" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O95" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="P95" t="n">
-        <v>8500</v>
+        <v>240000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -7986,10 +7986,10 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="T95" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44300</v>
+        <v>44328</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N96" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O96" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P96" t="n">
-        <v>275000</v>
+        <v>225000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8062,11 +8062,11 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44300</v>
+        <v>44328</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N97" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O97" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P97" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N98" t="n">
-        <v>450000</v>
+        <v>400000</v>
       </c>
       <c r="O98" t="n">
-        <v>450000</v>
+        <v>430000</v>
       </c>
       <c r="P98" t="n">
-        <v>450000</v>
+        <v>415000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1000</v>
+        <v>922</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N99" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O99" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P99" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>756</v>
+        <v>622</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N100" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O100" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P100" t="n">
-        <v>270000</v>
+        <v>255000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N101" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O101" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="P101" t="n">
-        <v>390000</v>
+        <v>285000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>867</v>
+        <v>633</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N102" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O102" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P102" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N103" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O103" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P103" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N104" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O104" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P104" t="n">
-        <v>300000</v>
+        <v>255000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44316</v>
+        <v>44298</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N105" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O105" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P105" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44316</v>
+        <v>44298</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N106" t="n">
         <v>270000</v>
       </c>
       <c r="O106" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P106" t="n">
-        <v>270000</v>
+        <v>285000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44316</v>
+        <v>44329</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N107" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O107" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P107" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44316</v>
+        <v>44329</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N108" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="O108" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P108" t="n">
-        <v>320000</v>
+        <v>245000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>711</v>
+        <v>544</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44316</v>
+        <v>44302</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N109" t="n">
-        <v>250000</v>
+        <v>420000</v>
       </c>
       <c r="O109" t="n">
-        <v>250000</v>
+        <v>420000</v>
       </c>
       <c r="P109" t="n">
-        <v>250000</v>
+        <v>420000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44350</v>
+        <v>44302</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N110" t="n">
-        <v>250000</v>
+        <v>340000</v>
       </c>
       <c r="O110" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P110" t="n">
-        <v>255000</v>
+        <v>340000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>567</v>
+        <v>756</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44358</v>
+        <v>44302</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,24 +9240,24 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N111" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="O111" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="P111" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>812</v>
+        <v>622</v>
       </c>
       <c r="T111" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9320,24 +9320,24 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N112" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="O112" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="P112" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -9346,10 +9346,10 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>688</v>
+        <v>622</v>
       </c>
       <c r="T112" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44335</v>
+        <v>44344</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N113" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O113" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P113" t="n">
-        <v>265000</v>
+        <v>230000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>589</v>
+        <v>511</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44335</v>
+        <v>44357</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N114" t="n">
-        <v>230000</v>
+        <v>8000</v>
       </c>
       <c r="O114" t="n">
-        <v>230000</v>
+        <v>9000</v>
       </c>
       <c r="P114" t="n">
-        <v>230000</v>
+        <v>8500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="T114" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N115" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="O115" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="P115" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N116" t="n">
-        <v>290000</v>
+        <v>370000</v>
       </c>
       <c r="O116" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P116" t="n">
-        <v>295000</v>
+        <v>370000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>656</v>
+        <v>822</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N117" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="O117" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="P117" t="n">
-        <v>330000</v>
+        <v>305000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>733</v>
+        <v>678</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N118" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O118" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P118" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N119" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="O119" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P119" t="n">
-        <v>290000</v>
+        <v>370000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>644</v>
+        <v>822</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N120" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O120" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P120" t="n">
-        <v>280000</v>
+        <v>285000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N121" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O121" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P121" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44335</v>
+        <v>44351</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N2" t="n">
         <v>260000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44335</v>
+        <v>44348</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O3" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P3" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44307</v>
+        <v>44326</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O4" t="n">
-        <v>390000</v>
+        <v>280000</v>
       </c>
       <c r="P4" t="n">
-        <v>390000</v>
+        <v>275000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>867</v>
+        <v>611</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44307</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O5" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P5" t="n">
-        <v>330000</v>
+        <v>245000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>733</v>
+        <v>544</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44307</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O6" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P6" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -927,13 +927,13 @@
         <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O7" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P7" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O8" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P8" t="n">
-        <v>280000</v>
+        <v>295000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N9" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O9" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P9" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>420000</v>
+        <v>350000</v>
       </c>
       <c r="O10" t="n">
-        <v>420000</v>
+        <v>350000</v>
       </c>
       <c r="P10" t="n">
-        <v>420000</v>
+        <v>350000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O11" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P11" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44301</v>
+        <v>44323</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N12" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="O12" t="n">
-        <v>280000</v>
+        <v>460000</v>
       </c>
       <c r="P12" t="n">
-        <v>280000</v>
+        <v>455000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>622</v>
+        <v>1011</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N13" t="n">
-        <v>290000</v>
+        <v>400000</v>
       </c>
       <c r="O13" t="n">
-        <v>290000</v>
+        <v>430000</v>
       </c>
       <c r="P13" t="n">
-        <v>290000</v>
+        <v>415000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>644</v>
+        <v>922</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N14" t="n">
         <v>270000</v>
       </c>
       <c r="O14" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="P14" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44334</v>
+        <v>44323</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N15" t="n">
         <v>230000</v>
       </c>
       <c r="O15" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P15" t="n">
-        <v>230000</v>
+        <v>235000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44314</v>
+        <v>44323</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O16" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P16" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44314</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>290000</v>
+        <v>13000</v>
       </c>
       <c r="O17" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="P17" t="n">
-        <v>295000</v>
+        <v>13000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>656</v>
+        <v>812</v>
       </c>
       <c r="T17" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44314</v>
+        <v>44358</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="T18" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O19" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="P19" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="O20" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P20" t="n">
-        <v>290000</v>
+        <v>350000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>644</v>
+        <v>778</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N21" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O21" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P21" t="n">
-        <v>330000</v>
+        <v>285000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>633</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O22" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P22" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O23" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P23" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="O24" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="P24" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,13 +2364,13 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N25" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="O25" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P25" t="n">
         <v>290000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N26" t="n">
         <v>260000</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44293</v>
+        <v>44344</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O27" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P27" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44293</v>
+        <v>44344</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O28" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P28" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>633</v>
+        <v>511</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44293</v>
+        <v>44333</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O29" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P29" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44295</v>
+        <v>44333</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O30" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="P30" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44295</v>
+        <v>44307</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>220000</v>
+        <v>390000</v>
       </c>
       <c r="O31" t="n">
-        <v>220000</v>
+        <v>390000</v>
       </c>
       <c r="P31" t="n">
-        <v>220000</v>
+        <v>390000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>489</v>
+        <v>867</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N32" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O32" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P32" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O33" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P33" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44343</v>
+        <v>44302</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N34" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="O34" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P34" t="n">
-        <v>275000</v>
+        <v>420000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>611</v>
+        <v>933</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44343</v>
+        <v>44302</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="O35" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="P35" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44319</v>
+        <v>44302</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N36" t="n">
         <v>280000</v>
       </c>
       <c r="O36" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P36" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44351</v>
+        <v>44349</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="O37" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="P37" t="n">
-        <v>265000</v>
+        <v>290000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44300</v>
+        <v>44349</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N38" t="n">
         <v>270000</v>
       </c>
       <c r="O38" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P38" t="n">
-        <v>275000</v>
+        <v>270000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44300</v>
+        <v>44309</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N39" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="O39" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="P39" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>533</v>
+        <v>689</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44300</v>
+        <v>44309</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N40" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O40" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="P40" t="n">
-        <v>450000</v>
+        <v>275000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44300</v>
+        <v>44309</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N41" t="n">
-        <v>330000</v>
+        <v>315000</v>
       </c>
       <c r="O41" t="n">
-        <v>350000</v>
+        <v>315000</v>
       </c>
       <c r="P41" t="n">
-        <v>340000</v>
+        <v>315000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>756</v>
+        <v>700</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44300</v>
+        <v>44309</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N42" t="n">
         <v>270000</v>
       </c>
       <c r="O42" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P42" t="n">
-        <v>270000</v>
+        <v>275000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44358</v>
+        <v>44300</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,20 +3804,20 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N43" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="O43" t="n">
-        <v>13000</v>
+        <v>280000</v>
       </c>
       <c r="P43" t="n">
-        <v>13000</v>
+        <v>275000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>812</v>
+        <v>611</v>
       </c>
       <c r="T43" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44358</v>
+        <v>44300</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,20 +3884,20 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N44" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="O44" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="P44" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>688</v>
+        <v>533</v>
       </c>
       <c r="T44" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="O45" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="P45" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N46" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O46" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="P46" t="n">
-        <v>265000</v>
+        <v>340000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>589</v>
+        <v>756</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44320</v>
+        <v>44300</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4127,13 +4127,13 @@
         <v>10</v>
       </c>
       <c r="N47" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O47" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P47" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44294</v>
+        <v>44350</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N48" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O48" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P48" t="n">
-        <v>210000</v>
+        <v>255000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>467</v>
+        <v>567</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N49" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O49" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P49" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44326</v>
+        <v>44308</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N50" t="n">
         <v>270000</v>
       </c>
       <c r="O50" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P50" t="n">
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44326</v>
+        <v>44308</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N51" t="n">
         <v>240000</v>
       </c>
       <c r="O51" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P51" t="n">
-        <v>245000</v>
+        <v>240000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44326</v>
+        <v>44308</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N52" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O52" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="P52" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44315</v>
+        <v>44357</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,29 +4595,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N53" t="n">
-        <v>320000</v>
+        <v>8000</v>
       </c>
       <c r="O53" t="n">
-        <v>320000</v>
+        <v>9000</v>
       </c>
       <c r="P53" t="n">
-        <v>320000</v>
+        <v>8500</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>711</v>
+        <v>531</v>
       </c>
       <c r="T53" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N54" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="O54" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P54" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N55" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O55" t="n">
         <v>270000</v>
       </c>
-      <c r="O55" t="n">
-        <v>300000</v>
-      </c>
       <c r="P55" t="n">
-        <v>285000</v>
+        <v>265000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N56" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O56" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P56" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N57" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O57" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P57" t="n">
-        <v>320000</v>
+        <v>265000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>711</v>
+        <v>589</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N58" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O58" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="P58" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44315</v>
+        <v>44306</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O59" t="n">
         <v>300000</v>
       </c>
       <c r="P59" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44315</v>
+        <v>44306</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,25 +5155,25 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N60" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O60" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P60" t="n">
-        <v>260000</v>
+        <v>275000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44348</v>
+        <v>44306</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N61" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O61" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P61" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N62" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="O62" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="P62" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5407,13 +5407,13 @@
         <v>14</v>
       </c>
       <c r="N63" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O63" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P63" t="n">
-        <v>275000</v>
+        <v>260000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N64" t="n">
-        <v>315000</v>
+        <v>240000</v>
       </c>
       <c r="O64" t="n">
-        <v>315000</v>
+        <v>240000</v>
       </c>
       <c r="P64" t="n">
-        <v>315000</v>
+        <v>240000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44309</v>
+        <v>44295</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,17 +5564,17 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N65" t="n">
         <v>270000</v>
       </c>
       <c r="O65" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P65" t="n">
         <v>280000</v>
       </c>
-      <c r="P65" t="n">
-        <v>275000</v>
-      </c>
       <c r="Q65" t="inlineStr">
         <is>
           <t>$/bins (450 kilos)</t>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44312</v>
+        <v>44295</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N66" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O66" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P66" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44312</v>
+        <v>44343</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N67" t="n">
         <v>270000</v>
       </c>
       <c r="O67" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P67" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44312</v>
+        <v>44343</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N68" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O68" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P68" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44312</v>
+        <v>44316</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>18</v>
       </c>
       <c r="N69" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O69" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P69" t="n">
-        <v>265000</v>
+        <v>300000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44349</v>
+        <v>44316</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N70" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="O70" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P70" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44349</v>
+        <v>44316</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N72" t="n">
-        <v>360000</v>
+        <v>280000</v>
       </c>
       <c r="O72" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P72" t="n">
-        <v>365000</v>
+        <v>280000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>811</v>
+        <v>622</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N73" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O73" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P73" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6284,13 +6284,13 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N74" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O74" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P74" t="n">
         <v>250000</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N75" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O75" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P75" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44316</v>
+        <v>44329</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,25 +6435,25 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N76" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O76" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P76" t="n">
-        <v>300000</v>
+        <v>245000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>667</v>
+        <v>544</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N77" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="O77" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="P77" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N78" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="O78" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="P78" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>600</v>
+        <v>822</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N79" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O79" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P79" t="n">
-        <v>280000</v>
+        <v>305000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>622</v>
+        <v>678</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N80" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O80" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P80" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44316</v>
+        <v>44313</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N81" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="O81" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="P81" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>556</v>
+        <v>822</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N82" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O82" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P82" t="n">
-        <v>260000</v>
+        <v>285000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N83" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O83" t="n">
         <v>240000</v>
       </c>
       <c r="P83" t="n">
-        <v>235238</v>
+        <v>240000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N84" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="O84" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="P84" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>400</v>
+        <v>644</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,25 +7155,25 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N85" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O85" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="P85" t="n">
-        <v>455000</v>
+        <v>270000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1011</v>
+        <v>600</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N86" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O86" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="P86" t="n">
-        <v>415000</v>
+        <v>230000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>922</v>
+        <v>511</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O87" t="n">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="P87" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N88" t="n">
         <v>230000</v>
@@ -7413,7 +7413,7 @@
         <v>240000</v>
       </c>
       <c r="P88" t="n">
-        <v>235000</v>
+        <v>235238</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N89" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="O89" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P89" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44306</v>
+        <v>44328</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N90" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="O90" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P90" t="n">
-        <v>300000</v>
+        <v>225000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44306</v>
+        <v>44328</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N91" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O91" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P91" t="n">
-        <v>275000</v>
+        <v>200000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N92" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O92" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P92" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44306</v>
+        <v>44298</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N93" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O93" t="n">
         <v>300000</v>
       </c>
       <c r="P93" t="n">
-        <v>300000</v>
+        <v>285000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44306</v>
+        <v>44294</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>14</v>
       </c>
       <c r="N94" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O94" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P94" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>578</v>
+        <v>467</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44306</v>
+        <v>44294</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N95" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O95" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P95" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44328</v>
+        <v>44305</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N96" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="O96" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P96" t="n">
-        <v>225000</v>
+        <v>330000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8062,11 +8062,11 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44328</v>
+        <v>44305</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>15</v>
       </c>
       <c r="N97" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O97" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P97" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44322</v>
+        <v>44305</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N98" t="n">
-        <v>400000</v>
+        <v>250000</v>
       </c>
       <c r="O98" t="n">
-        <v>430000</v>
+        <v>250000</v>
       </c>
       <c r="P98" t="n">
-        <v>415000</v>
+        <v>250000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>922</v>
+        <v>556</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44322</v>
+        <v>44305</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N99" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O99" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P99" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44322</v>
+        <v>44305</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="O100" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P100" t="n">
-        <v>255000</v>
+        <v>290000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44308</v>
+        <v>44305</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8435,25 +8435,25 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O101" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P101" t="n">
-        <v>285000</v>
+        <v>260000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44308</v>
+        <v>44301</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N102" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O102" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P102" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44308</v>
+        <v>44301</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8610,10 +8610,10 @@
         <v>280000</v>
       </c>
       <c r="O103" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P103" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44350</v>
+        <v>44301</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N104" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O104" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P104" t="n">
-        <v>255000</v>
+        <v>230000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N105" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="O105" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="P105" t="n">
-        <v>320000</v>
+        <v>420000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>711</v>
+        <v>933</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N106" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O106" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P106" t="n">
-        <v>285000</v>
+        <v>330000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44329</v>
+        <v>44301</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>15</v>
       </c>
       <c r="N107" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O107" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P107" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44329</v>
+        <v>44322</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N108" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="O108" t="n">
-        <v>250000</v>
+        <v>430000</v>
       </c>
       <c r="P108" t="n">
-        <v>245000</v>
+        <v>415000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>544</v>
+        <v>922</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N109" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="O109" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="P109" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>933</v>
+        <v>622</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44302</v>
+        <v>44322</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N110" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="O110" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P110" t="n">
-        <v>340000</v>
+        <v>255000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>756</v>
+        <v>567</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44302</v>
+        <v>44293</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N111" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O111" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P111" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N112" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O112" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P112" t="n">
-        <v>280000</v>
+        <v>285000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N113" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O113" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P113" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44357</v>
+        <v>44327</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -9484,20 +9484,20 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="N114" t="n">
-        <v>8000</v>
+        <v>360000</v>
       </c>
       <c r="O114" t="n">
-        <v>9000</v>
+        <v>370000</v>
       </c>
       <c r="P114" t="n">
-        <v>8500</v>
+        <v>365000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>531</v>
+        <v>811</v>
       </c>
       <c r="T114" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
         <v>10</v>
       </c>
       <c r="N115" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="O115" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="P115" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N116" t="n">
-        <v>370000</v>
+        <v>240000</v>
       </c>
       <c r="O116" t="n">
-        <v>370000</v>
+        <v>260000</v>
       </c>
       <c r="P116" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>822</v>
+        <v>556</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N117" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O117" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="P117" t="n">
-        <v>305000</v>
+        <v>200000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>678</v>
+        <v>444</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N119" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="O119" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P119" t="n">
-        <v>370000</v>
+        <v>285000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>822</v>
+        <v>633</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N120" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O120" t="n">
         <v>300000</v>
       </c>
       <c r="P120" t="n">
-        <v>285000</v>
+        <v>300000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N121" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O121" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P121" t="n">
-        <v>240000</v>
+        <v>265000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44351</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>260000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44348</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O3" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P3" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44326</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
+        <v>140</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>531</v>
+      </c>
+      <c r="T4" t="n">
         <v>16</v>
-      </c>
-      <c r="N4" t="n">
-        <v>270000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>275000</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>611</v>
-      </c>
-      <c r="T4" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O5" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P5" t="n">
-        <v>245000</v>
+        <v>275000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="O6" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P6" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44314</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="O7" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="P7" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>711</v>
+        <v>867</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44314</v>
+        <v>44307</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N8" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="O8" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P8" t="n">
-        <v>295000</v>
+        <v>330000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44314</v>
+        <v>44307</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O9" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P9" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44314</v>
+        <v>44301</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O10" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P10" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44314</v>
+        <v>44301</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N11" t="n">
         <v>280000</v>
       </c>
       <c r="O11" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P11" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="O12" t="n">
-        <v>460000</v>
+        <v>230000</v>
       </c>
       <c r="P12" t="n">
-        <v>455000</v>
+        <v>230000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1011</v>
+        <v>511</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>400000</v>
+        <v>420000</v>
       </c>
       <c r="O13" t="n">
-        <v>430000</v>
+        <v>420000</v>
       </c>
       <c r="P13" t="n">
-        <v>415000</v>
+        <v>420000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O14" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="P14" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O15" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P15" t="n">
-        <v>235000</v>
+        <v>280000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>522</v>
+        <v>622</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44323</v>
+        <v>44294</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
         <v>200000</v>
       </c>
       <c r="O16" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P16" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="O17" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="P17" t="n">
-        <v>13000</v>
+        <v>210000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>812</v>
+        <v>467</v>
       </c>
       <c r="T17" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44358</v>
+        <v>44320</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O19" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P19" t="n">
-        <v>320000</v>
+        <v>265000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>711</v>
+        <v>589</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O20" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="P20" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>778</v>
+        <v>511</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44315</v>
+        <v>44298</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O21" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P21" t="n">
-        <v>285000</v>
+        <v>320000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44315</v>
+        <v>44298</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O22" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P22" t="n">
-        <v>240000</v>
+        <v>285000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O23" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P23" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N24" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="O24" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="P24" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O25" t="n">
         <v>300000</v>
       </c>
       <c r="P25" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N26" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O26" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P26" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44344</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O27" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P27" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44344</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="O28" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="P28" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
         <v>260000</v>
       </c>
       <c r="O29" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P29" t="n">
-        <v>265000</v>
+        <v>260000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44333</v>
+        <v>44308</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N30" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O30" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P30" t="n">
-        <v>250000</v>
+        <v>285000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>390000</v>
+        <v>240000</v>
       </c>
       <c r="O31" t="n">
-        <v>390000</v>
+        <v>240000</v>
       </c>
       <c r="P31" t="n">
-        <v>390000</v>
+        <v>240000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O32" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P32" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44307</v>
+        <v>44351</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N33" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O33" t="n">
         <v>270000</v>
       </c>
       <c r="P33" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44302</v>
+        <v>44349</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>420000</v>
+        <v>290000</v>
       </c>
       <c r="O34" t="n">
-        <v>420000</v>
+        <v>290000</v>
       </c>
       <c r="P34" t="n">
-        <v>420000</v>
+        <v>290000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>933</v>
+        <v>644</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44302</v>
+        <v>44349</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="O35" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P35" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44302</v>
+        <v>44326</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N36" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O36" t="n">
         <v>280000</v>
       </c>
       <c r="P36" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44349</v>
+        <v>44326</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N37" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="O37" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="P37" t="n">
-        <v>290000</v>
+        <v>245000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44349</v>
+        <v>44326</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>15</v>
       </c>
       <c r="N38" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="O38" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P38" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44309</v>
+        <v>44293</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="O39" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="P39" t="n">
-        <v>310000</v>
+        <v>330000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>689</v>
+        <v>733</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44309</v>
+        <v>44293</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N40" t="n">
         <v>270000</v>
       </c>
       <c r="O40" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P40" t="n">
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44309</v>
+        <v>44293</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N41" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="O41" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="P41" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44309</v>
+        <v>44319</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O42" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P42" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44300</v>
+        <v>44350</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N43" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O43" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P43" t="n">
-        <v>275000</v>
+        <v>255000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44300</v>
+        <v>44329</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O44" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P44" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44300</v>
+        <v>44329</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N45" t="n">
-        <v>450000</v>
+        <v>240000</v>
       </c>
       <c r="O45" t="n">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="P45" t="n">
-        <v>450000</v>
+        <v>245000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1000</v>
+        <v>544</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44300</v>
+        <v>44358</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N46" t="n">
-        <v>330000</v>
+        <v>13000</v>
       </c>
       <c r="O46" t="n">
-        <v>350000</v>
+        <v>13000</v>
       </c>
       <c r="P46" t="n">
-        <v>340000</v>
+        <v>13000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="T46" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44300</v>
+        <v>44358</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>270000</v>
+        <v>11000</v>
       </c>
       <c r="O47" t="n">
-        <v>270000</v>
+        <v>11000</v>
       </c>
       <c r="P47" t="n">
-        <v>270000</v>
+        <v>11000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="T47" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N48" t="n">
-        <v>250000</v>
+        <v>360000</v>
       </c>
       <c r="O48" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="P48" t="n">
-        <v>255000</v>
+        <v>365000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>567</v>
+        <v>811</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44319</v>
+        <v>44327</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N49" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O49" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P49" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44308</v>
+        <v>44327</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,13 +4367,13 @@
         <v>24</v>
       </c>
       <c r="N50" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O50" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P50" t="n">
-        <v>285000</v>
+        <v>250000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>633</v>
+        <v>556</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44308</v>
+        <v>44327</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N51" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O51" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P51" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N52" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="O52" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P52" t="n">
-        <v>290000</v>
+        <v>310000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44357</v>
+        <v>44309</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4604,20 +4604,20 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="N53" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="O53" t="n">
-        <v>9000</v>
+        <v>280000</v>
       </c>
       <c r="P53" t="n">
-        <v>8500</v>
+        <v>275000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4626,10 +4626,10 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="T53" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44320</v>
+        <v>44309</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N54" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="O54" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="P54" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44320</v>
+        <v>44309</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N55" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O55" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P55" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44320</v>
+        <v>44295</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N56" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O56" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="P56" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44335</v>
+        <v>44295</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N57" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O57" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P57" t="n">
-        <v>265000</v>
+        <v>220000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>589</v>
+        <v>489</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44335</v>
+        <v>44313</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N58" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="O58" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="P58" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N59" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="O59" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P59" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>822</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5167,13 +5167,13 @@
         <v>16</v>
       </c>
       <c r="N60" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O60" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P60" t="n">
-        <v>275000</v>
+        <v>305000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N61" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O61" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P61" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>556</v>
+        <v>733</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N62" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="O62" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P62" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>667</v>
+        <v>822</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N63" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O63" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P63" t="n">
-        <v>260000</v>
+        <v>285000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44295</v>
+        <v>44322</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N65" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O65" t="n">
-        <v>290000</v>
+        <v>430000</v>
       </c>
       <c r="P65" t="n">
-        <v>280000</v>
+        <v>415000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>622</v>
+        <v>922</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44295</v>
+        <v>44322</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N66" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O66" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P66" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44343</v>
+        <v>44322</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N67" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O67" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P67" t="n">
-        <v>275000</v>
+        <v>255000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>15</v>
       </c>
       <c r="N68" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O68" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P68" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N69" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O69" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P69" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44316</v>
+        <v>44334</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N70" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="O70" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="P70" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44316</v>
+        <v>44334</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N71" t="n">
         <v>270000</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44316</v>
+        <v>44334</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N72" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O72" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P72" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N73" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O73" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P73" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>711</v>
+        <v>578</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N74" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O74" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P74" t="n">
-        <v>250000</v>
+        <v>235238</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N75" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="O75" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P75" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N76" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O76" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P76" t="n">
-        <v>245000</v>
+        <v>225000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44313</v>
+        <v>44328</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N77" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="O77" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="P77" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>756</v>
+        <v>444</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44313</v>
+        <v>44335</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N78" t="n">
-        <v>370000</v>
+        <v>260000</v>
       </c>
       <c r="O78" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="P78" t="n">
-        <v>370000</v>
+        <v>265000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>822</v>
+        <v>589</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44313</v>
+        <v>44335</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N79" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O79" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P79" t="n">
-        <v>305000</v>
+        <v>230000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>678</v>
+        <v>511</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N80" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="O80" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P80" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N81" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="O81" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="P81" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>822</v>
+        <v>733</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N82" t="n">
         <v>270000</v>
       </c>
       <c r="O82" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P82" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N83" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O83" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P83" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44334</v>
+        <v>44316</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N84" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="O84" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="P84" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44334</v>
+        <v>44316</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N85" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O85" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P85" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>15</v>
       </c>
       <c r="N86" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O86" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P86" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44330</v>
+        <v>44315</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="O87" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="P87" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>578</v>
+        <v>778</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44330</v>
+        <v>44315</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N88" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O88" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P88" t="n">
-        <v>235238</v>
+        <v>285000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>523</v>
+        <v>633</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44330</v>
+        <v>44315</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7487,13 +7487,13 @@
         <v>20</v>
       </c>
       <c r="N89" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="O89" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P89" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44328</v>
+        <v>44315</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N90" t="n">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="O90" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P90" t="n">
-        <v>225000</v>
+        <v>320000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>500</v>
+        <v>711</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44328</v>
+        <v>44315</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>15</v>
       </c>
       <c r="N91" t="n">
-        <v>200000</v>
+        <v>340000</v>
       </c>
       <c r="O91" t="n">
-        <v>200000</v>
+        <v>340000</v>
       </c>
       <c r="P91" t="n">
-        <v>200000</v>
+        <v>340000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>444</v>
+        <v>756</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44298</v>
+        <v>44315</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="N92" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O92" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P92" t="n">
-        <v>320000</v>
+        <v>290000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>711</v>
+        <v>644</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44298</v>
+        <v>44315</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N93" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O93" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P93" t="n">
-        <v>285000</v>
+        <v>260000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44294</v>
+        <v>44312</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N94" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O94" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P94" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44294</v>
+        <v>44312</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N95" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O95" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P95" t="n">
-        <v>210000</v>
+        <v>285000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>467</v>
+        <v>633</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N96" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="O96" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P96" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N97" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O97" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P97" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44305</v>
+        <v>44300</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N98" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O98" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P98" t="n">
-        <v>250000</v>
+        <v>275000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44305</v>
+        <v>44300</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N99" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="O99" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="P99" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44305</v>
+        <v>44300</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
         <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>290000</v>
+        <v>450000</v>
       </c>
       <c r="O100" t="n">
-        <v>290000</v>
+        <v>450000</v>
       </c>
       <c r="P100" t="n">
-        <v>290000</v>
+        <v>450000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>644</v>
+        <v>1000</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44305</v>
+        <v>44300</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N101" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O101" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="P101" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N102" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O102" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P102" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N103" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O103" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P103" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N104" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="O104" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P104" t="n">
-        <v>230000</v>
+        <v>295000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>511</v>
+        <v>656</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N105" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="O105" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P105" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N106" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="O106" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="P106" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44301</v>
+        <v>44314</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N107" t="n">
         <v>280000</v>
       </c>
       <c r="O107" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P107" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N108" t="n">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="O108" t="n">
-        <v>430000</v>
+        <v>460000</v>
       </c>
       <c r="P108" t="n">
-        <v>415000</v>
+        <v>455000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>922</v>
+        <v>1011</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N109" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="O109" t="n">
-        <v>280000</v>
+        <v>430000</v>
       </c>
       <c r="P109" t="n">
-        <v>280000</v>
+        <v>415000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>622</v>
+        <v>922</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>14</v>
       </c>
       <c r="N110" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O110" t="n">
-        <v>260000</v>
+        <v>310000</v>
       </c>
       <c r="P110" t="n">
-        <v>255000</v>
+        <v>290000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9235,25 +9235,25 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N111" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O111" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P111" t="n">
-        <v>330000</v>
+        <v>235000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>733</v>
+        <v>522</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N112" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O112" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P112" t="n">
-        <v>285000</v>
+        <v>200000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>633</v>
+        <v>444</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44293</v>
+        <v>44306</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N113" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O113" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P113" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N114" t="n">
-        <v>360000</v>
+        <v>270000</v>
       </c>
       <c r="O114" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P114" t="n">
-        <v>365000</v>
+        <v>275000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>811</v>
+        <v>611</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N115" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O115" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P115" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N116" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O116" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P116" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44327</v>
+        <v>44306</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N117" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O117" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P117" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44312</v>
+        <v>44306</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N118" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O118" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P118" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44312</v>
+        <v>44302</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N119" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="O119" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="P119" t="n">
-        <v>285000</v>
+        <v>420000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>633</v>
+        <v>933</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44312</v>
+        <v>44302</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N120" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="O120" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P120" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>667</v>
+        <v>756</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44312</v>
+        <v>44302</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
         <v>18</v>
       </c>
       <c r="N121" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O121" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P121" t="n">
-        <v>265000</v>
+        <v>280000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44344</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O2" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P2" t="n">
-        <v>265000</v>
+        <v>280000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="T2" t="n">
         <v>450</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44344</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O3" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P3" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44327</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>360000</v>
       </c>
       <c r="O4" t="n">
-        <v>9000</v>
+        <v>370000</v>
       </c>
       <c r="P4" t="n">
-        <v>8500</v>
+        <v>365000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>531</v>
+        <v>811</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44343</v>
+        <v>44327</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O5" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P5" t="n">
-        <v>275000</v>
+        <v>330000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44343</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N6" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O6" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P6" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44307</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>390000</v>
+        <v>200000</v>
       </c>
       <c r="O7" t="n">
-        <v>390000</v>
+        <v>200000</v>
       </c>
       <c r="P7" t="n">
-        <v>390000</v>
+        <v>200000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>867</v>
+        <v>444</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44307</v>
+        <v>44293</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,16 +995,16 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
         <v>330000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44307</v>
+        <v>44293</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N9" t="n">
         <v>270000</v>
       </c>
       <c r="O9" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P9" t="n">
-        <v>270000</v>
+        <v>285000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44301</v>
+        <v>44293</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O10" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P10" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="O11" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P11" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N12" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O12" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P12" t="n">
-        <v>230000</v>
+        <v>275000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>420000</v>
+        <v>315000</v>
       </c>
       <c r="O13" t="n">
-        <v>420000</v>
+        <v>315000</v>
       </c>
       <c r="P13" t="n">
-        <v>420000</v>
+        <v>315000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44301</v>
+        <v>44309</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N14" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O14" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P14" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N15" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O15" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P15" t="n">
-        <v>280000</v>
+        <v>285000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44294</v>
+        <v>44308</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O16" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P16" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44308</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O17" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P17" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44320</v>
+        <v>44307</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>300000</v>
+        <v>390000</v>
       </c>
       <c r="O18" t="n">
-        <v>300000</v>
+        <v>390000</v>
       </c>
       <c r="P18" t="n">
-        <v>300000</v>
+        <v>390000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44320</v>
+        <v>44307</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O19" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P19" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44320</v>
+        <v>44307</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O20" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P20" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44348</v>
+        <v>44306</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2207,13 +2207,13 @@
         <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O23" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P23" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N24" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O24" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P24" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N25" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O25" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P25" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N26" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O26" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P26" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N27" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O27" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P27" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>711</v>
+        <v>578</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="O28" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="P28" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>644</v>
+        <v>533</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44305</v>
+        <v>44295</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O29" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P29" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O30" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P30" t="n">
-        <v>285000</v>
+        <v>220000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>633</v>
+        <v>489</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44308</v>
+        <v>44314</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N31" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O31" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P31" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44308</v>
+        <v>44314</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O32" t="n">
         <v>300000</v>
       </c>
       <c r="P32" t="n">
-        <v>290000</v>
+        <v>295000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44351</v>
+        <v>44314</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N33" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O33" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P33" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N34" t="n">
-        <v>290000</v>
+        <v>350000</v>
       </c>
       <c r="O34" t="n">
-        <v>290000</v>
+        <v>350000</v>
       </c>
       <c r="P34" t="n">
-        <v>290000</v>
+        <v>350000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>644</v>
+        <v>778</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N35" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O35" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P35" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N36" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O36" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P36" t="n">
-        <v>275000</v>
+        <v>330000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N37" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O37" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P37" t="n">
-        <v>245000</v>
+        <v>300000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>544</v>
+        <v>667</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N38" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="O38" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="P38" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44293</v>
+        <v>44305</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3487,13 +3487,13 @@
         <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O39" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P39" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44293</v>
+        <v>44305</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="O40" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P40" t="n">
-        <v>285000</v>
+        <v>290000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44293</v>
+        <v>44305</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3647,13 +3647,13 @@
         <v>15</v>
       </c>
       <c r="N41" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O41" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P41" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44319</v>
+        <v>44350</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N42" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O42" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P42" t="n">
-        <v>290000</v>
+        <v>255000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44350</v>
+        <v>44323</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N43" t="n">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="O43" t="n">
-        <v>260000</v>
+        <v>460000</v>
       </c>
       <c r="P43" t="n">
-        <v>255000</v>
+        <v>455000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>567</v>
+        <v>1011</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44329</v>
+        <v>44323</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N44" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O44" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="P44" t="n">
-        <v>270000</v>
+        <v>415000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>600</v>
+        <v>922</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44329</v>
+        <v>44323</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N45" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O45" t="n">
-        <v>250000</v>
+        <v>310000</v>
       </c>
       <c r="P45" t="n">
-        <v>245000</v>
+        <v>290000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N46" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="O46" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="P46" t="n">
-        <v>13000</v>
+        <v>235000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4066,10 +4066,10 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>812</v>
+        <v>522</v>
       </c>
       <c r="T46" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47">
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,20 +4124,20 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O47" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P47" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>688</v>
+        <v>444</v>
       </c>
       <c r="T47" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>18</v>
       </c>
       <c r="N48" t="n">
-        <v>360000</v>
+        <v>220000</v>
       </c>
       <c r="O48" t="n">
-        <v>370000</v>
+        <v>230000</v>
       </c>
       <c r="P48" t="n">
-        <v>365000</v>
+        <v>225000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>811</v>
+        <v>500</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N49" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O49" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P49" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N50" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O50" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P50" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44327</v>
+        <v>44316</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N51" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O51" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P51" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N52" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="O52" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P52" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N53" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O53" t="n">
         <v>280000</v>
       </c>
       <c r="P53" t="n">
-        <v>275000</v>
+        <v>280000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N54" t="n">
-        <v>315000</v>
+        <v>320000</v>
       </c>
       <c r="O54" t="n">
-        <v>315000</v>
+        <v>320000</v>
       </c>
       <c r="P54" t="n">
-        <v>315000</v>
+        <v>320000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N55" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O55" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P55" t="n">
-        <v>275000</v>
+        <v>250000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44295</v>
+        <v>44322</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4844,16 +4844,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N56" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O56" t="n">
-        <v>290000</v>
+        <v>430000</v>
       </c>
       <c r="P56" t="n">
-        <v>280000</v>
+        <v>415000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>622</v>
+        <v>922</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44295</v>
+        <v>44322</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N57" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O57" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P57" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44313</v>
+        <v>44322</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N58" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="O58" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="P58" t="n">
-        <v>340000</v>
+        <v>255000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>756</v>
+        <v>567</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="O59" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P59" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>822</v>
+        <v>667</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N60" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O60" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P60" t="n">
-        <v>305000</v>
+        <v>265000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>678</v>
+        <v>589</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N61" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O61" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P61" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,24 +5320,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N62" t="n">
-        <v>370000</v>
+        <v>13000</v>
       </c>
       <c r="O62" t="n">
-        <v>370000</v>
+        <v>13000</v>
       </c>
       <c r="P62" t="n">
-        <v>370000</v>
+        <v>13000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="T62" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,36 +5400,36 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M63" t="n">
+        <v>100</v>
+      </c>
+      <c r="N63" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O63" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P63" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S63" t="n">
+        <v>688</v>
+      </c>
+      <c r="T63" t="n">
         <v>16</v>
-      </c>
-      <c r="N63" t="n">
-        <v>270000</v>
-      </c>
-      <c r="O63" t="n">
-        <v>300000</v>
-      </c>
-      <c r="P63" t="n">
-        <v>285000</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S63" t="n">
-        <v>633</v>
-      </c>
-      <c r="T63" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="64">
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N64" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="O64" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="P64" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>533</v>
+        <v>756</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N65" t="n">
-        <v>400000</v>
+        <v>370000</v>
       </c>
       <c r="O65" t="n">
-        <v>430000</v>
+        <v>370000</v>
       </c>
       <c r="P65" t="n">
-        <v>415000</v>
+        <v>370000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>922</v>
+        <v>822</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N66" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O66" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P66" t="n">
-        <v>280000</v>
+        <v>305000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>622</v>
+        <v>678</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N67" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O67" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P67" t="n">
-        <v>255000</v>
+        <v>330000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N68" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="O68" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="P68" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>622</v>
+        <v>822</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N69" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O69" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P69" t="n">
-        <v>230000</v>
+        <v>285000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>511</v>
+        <v>633</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N70" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="O70" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="P70" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>644</v>
+        <v>533</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N71" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O71" t="n">
         <v>270000</v>
       </c>
       <c r="P71" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N72" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O72" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P72" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6207,13 +6207,13 @@
         <v>15</v>
       </c>
       <c r="N73" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="O73" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="P73" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>578</v>
+        <v>933</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N74" t="n">
-        <v>230000</v>
+        <v>340000</v>
       </c>
       <c r="O74" t="n">
-        <v>240000</v>
+        <v>340000</v>
       </c>
       <c r="P74" t="n">
-        <v>235238</v>
+        <v>340000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>523</v>
+        <v>756</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44330</v>
+        <v>44302</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N75" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="O75" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="P75" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>400</v>
+        <v>622</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N76" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O76" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P76" t="n">
-        <v>225000</v>
+        <v>275000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N77" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O77" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P77" t="n">
-        <v>200000</v>
+        <v>245000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>444</v>
+        <v>544</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44335</v>
+        <v>44326</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N78" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="O78" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P78" t="n">
-        <v>265000</v>
+        <v>210000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>589</v>
+        <v>467</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44335</v>
+        <v>44348</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N79" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O79" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P79" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44316</v>
+        <v>44351</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N80" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O80" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P80" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44316</v>
+        <v>44300</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N81" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O81" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P81" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44316</v>
+        <v>44300</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N82" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O82" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P82" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44316</v>
+        <v>44300</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N83" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="O83" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="P83" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>622</v>
+        <v>1000</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44316</v>
+        <v>44300</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N84" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O84" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P84" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44316</v>
+        <v>44300</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N85" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O85" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P85" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N86" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O86" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P86" t="n">
-        <v>320000</v>
+        <v>275000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>711</v>
+        <v>611</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O87" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="P87" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>778</v>
+        <v>511</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N88" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O88" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P88" t="n">
-        <v>285000</v>
+        <v>320000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N89" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O89" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P89" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N90" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O90" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P90" t="n">
-        <v>320000</v>
+        <v>285000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N91" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="O91" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="P91" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>756</v>
+        <v>533</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O92" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P92" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N93" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O93" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P93" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N94" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O94" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P94" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>18</v>
       </c>
       <c r="N95" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O95" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P95" t="n">
-        <v>285000</v>
+        <v>260000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44312</v>
+        <v>44334</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N96" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="O96" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P96" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44312</v>
+        <v>44334</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N97" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O97" t="n">
         <v>270000</v>
       </c>
       <c r="P97" t="n">
-        <v>265000</v>
+        <v>270000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44300</v>
+        <v>44334</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N98" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O98" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P98" t="n">
-        <v>275000</v>
+        <v>230000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44300</v>
+        <v>44319</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8275,25 +8275,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N99" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O99" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P99" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44300</v>
+        <v>44357</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8360,24 +8360,24 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N100" t="n">
-        <v>450000</v>
+        <v>8000</v>
       </c>
       <c r="O100" t="n">
-        <v>450000</v>
+        <v>9000</v>
       </c>
       <c r="P100" t="n">
-        <v>450000</v>
+        <v>8500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,10 +8386,10 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1000</v>
+        <v>531</v>
       </c>
       <c r="T100" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44300</v>
+        <v>44329</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O101" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P101" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44300</v>
+        <v>44329</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N102" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O102" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P102" t="n">
-        <v>270000</v>
+        <v>245000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44314</v>
+        <v>44294</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N103" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O103" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="P103" t="n">
-        <v>320000</v>
+        <v>210000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>711</v>
+        <v>467</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44314</v>
+        <v>44294</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N104" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="O104" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P104" t="n">
-        <v>295000</v>
+        <v>210000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>656</v>
+        <v>467</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44314</v>
+        <v>44330</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N105" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O105" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P105" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44314</v>
+        <v>44330</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N106" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O106" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P106" t="n">
-        <v>350000</v>
+        <v>235238</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>778</v>
+        <v>523</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44314</v>
+        <v>44330</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N107" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="O107" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P107" t="n">
-        <v>290000</v>
+        <v>180000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>644</v>
+        <v>400</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9007,13 +9007,13 @@
         <v>12</v>
       </c>
       <c r="N108" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="O108" t="n">
-        <v>460000</v>
+        <v>330000</v>
       </c>
       <c r="P108" t="n">
-        <v>455000</v>
+        <v>330000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1011</v>
+        <v>733</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N109" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="O109" t="n">
-        <v>430000</v>
+        <v>280000</v>
       </c>
       <c r="P109" t="n">
-        <v>415000</v>
+        <v>280000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>922</v>
+        <v>622</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N110" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O110" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P110" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>644</v>
+        <v>511</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N111" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="O111" t="n">
-        <v>240000</v>
+        <v>420000</v>
       </c>
       <c r="P111" t="n">
-        <v>235000</v>
+        <v>420000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>522</v>
+        <v>933</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44323</v>
+        <v>44301</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N112" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O112" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P112" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44306</v>
+        <v>44301</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N113" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O113" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P113" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N114" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O114" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P114" t="n">
-        <v>275000</v>
+        <v>330000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N115" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O115" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P115" t="n">
-        <v>250000</v>
+        <v>285000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N116" t="n">
         <v>300000</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N117" t="n">
         <v>260000</v>
       </c>
       <c r="O117" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P117" t="n">
-        <v>260000</v>
+        <v>265000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44306</v>
+        <v>44349</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N118" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="O118" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P118" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44302</v>
+        <v>44349</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
         <v>15</v>
       </c>
       <c r="N119" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="O119" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="P119" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44302</v>
+        <v>44335</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N120" t="n">
-        <v>340000</v>
+        <v>260000</v>
       </c>
       <c r="O120" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="P120" t="n">
-        <v>340000</v>
+        <v>265000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>756</v>
+        <v>589</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44302</v>
+        <v>44335</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N121" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O121" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P121" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44344</v>
+        <v>44315</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O2" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P2" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="T2" t="n">
         <v>450</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44344</v>
+        <v>44315</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,25 +595,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="O3" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="P3" t="n">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44327</v>
+        <v>44315</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N4" t="n">
-        <v>360000</v>
+        <v>270000</v>
       </c>
       <c r="O4" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P4" t="n">
-        <v>365000</v>
+        <v>285000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>811</v>
+        <v>633</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44327</v>
+        <v>44315</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O5" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P5" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44315</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O6" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P6" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44315</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>200000</v>
+        <v>340000</v>
       </c>
       <c r="O7" t="n">
-        <v>200000</v>
+        <v>340000</v>
       </c>
       <c r="P7" t="n">
-        <v>200000</v>
+        <v>340000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>444</v>
+        <v>756</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N8" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O8" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P8" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>18</v>
       </c>
       <c r="N9" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O9" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P9" t="n">
-        <v>285000</v>
+        <v>260000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44293</v>
+        <v>44314</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="O10" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="P10" t="n">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>444</v>
+        <v>711</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44309</v>
+        <v>44314</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>310000</v>
+        <v>290000</v>
       </c>
       <c r="O11" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="P11" t="n">
-        <v>310000</v>
+        <v>295000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44309</v>
+        <v>44314</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N12" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O12" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P12" t="n">
-        <v>275000</v>
+        <v>330000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44309</v>
+        <v>44314</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>315000</v>
+        <v>350000</v>
       </c>
       <c r="O13" t="n">
-        <v>315000</v>
+        <v>350000</v>
       </c>
       <c r="P13" t="n">
-        <v>315000</v>
+        <v>350000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44309</v>
+        <v>44314</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N14" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O14" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P14" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44308</v>
+        <v>44357</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="N15" t="n">
-        <v>270000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>300000</v>
+        <v>9000</v>
       </c>
       <c r="P15" t="n">
-        <v>285000</v>
+        <v>8500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>633</v>
+        <v>531</v>
       </c>
       <c r="T15" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44308</v>
+        <v>44350</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O16" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P16" t="n">
-        <v>240000</v>
+        <v>255000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44308</v>
+        <v>44322</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N17" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="O17" t="n">
-        <v>300000</v>
+        <v>430000</v>
       </c>
       <c r="P17" t="n">
-        <v>290000</v>
+        <v>415000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>644</v>
+        <v>922</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44307</v>
+        <v>44322</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N18" t="n">
-        <v>390000</v>
+        <v>280000</v>
       </c>
       <c r="O18" t="n">
-        <v>390000</v>
+        <v>280000</v>
       </c>
       <c r="P18" t="n">
-        <v>390000</v>
+        <v>280000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>867</v>
+        <v>622</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44307</v>
+        <v>44322</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N19" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O19" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P19" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="O20" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="P20" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44298</v>
+        <v>44307</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O21" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P21" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44298</v>
+        <v>44307</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
         <v>270000</v>
       </c>
       <c r="O22" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P22" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N23" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O23" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P23" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N24" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O24" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P24" t="n">
-        <v>275000</v>
+        <v>310000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N25" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O25" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P25" t="n">
-        <v>250000</v>
+        <v>275000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2447,13 +2447,13 @@
         <v>7</v>
       </c>
       <c r="N26" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="O26" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="P26" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44306</v>
+        <v>44309</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N27" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O27" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P27" t="n">
-        <v>260000</v>
+        <v>275000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44306</v>
+        <v>44300</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N28" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O28" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P28" t="n">
-        <v>240000</v>
+        <v>275000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O29" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="P29" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>220000</v>
+        <v>450000</v>
       </c>
       <c r="O30" t="n">
-        <v>220000</v>
+        <v>450000</v>
       </c>
       <c r="P30" t="n">
-        <v>220000</v>
+        <v>450000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>489</v>
+        <v>1000</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N31" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O31" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P31" t="n">
-        <v>320000</v>
+        <v>340000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O32" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P32" t="n">
-        <v>295000</v>
+        <v>270000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>656</v>
+        <v>600</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44314</v>
+        <v>44344</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O33" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P33" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44314</v>
+        <v>44344</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="O34" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="P34" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>778</v>
+        <v>511</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O35" t="n">
         <v>300000</v>
       </c>
       <c r="P35" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44305</v>
+        <v>44320</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N36" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O36" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P36" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44305</v>
+        <v>44320</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O37" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P37" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,25 +3395,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N38" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O38" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P38" t="n">
-        <v>250000</v>
+        <v>275000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N39" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="O39" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P39" t="n">
-        <v>320000</v>
+        <v>245000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>711</v>
+        <v>544</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="O40" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="P40" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>644</v>
+        <v>467</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44305</v>
+        <v>44308</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N41" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O41" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P41" t="n">
-        <v>260000</v>
+        <v>285000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N42" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O42" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P42" t="n">
-        <v>255000</v>
+        <v>240000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44323</v>
+        <v>44308</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N43" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="O43" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P43" t="n">
-        <v>455000</v>
+        <v>290000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1011</v>
+        <v>644</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44323</v>
+        <v>44295</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N44" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O44" t="n">
-        <v>430000</v>
+        <v>290000</v>
       </c>
       <c r="P44" t="n">
-        <v>415000</v>
+        <v>280000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>922</v>
+        <v>622</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44323</v>
+        <v>44295</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O45" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P45" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>644</v>
+        <v>489</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4047,13 +4047,13 @@
         <v>18</v>
       </c>
       <c r="N46" t="n">
-        <v>230000</v>
+        <v>360000</v>
       </c>
       <c r="O46" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="P46" t="n">
-        <v>235000</v>
+        <v>365000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>522</v>
+        <v>811</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N47" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O47" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P47" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N48" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O48" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P48" t="n">
-        <v>225000</v>
+        <v>250000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N49" t="n">
         <v>200000</v>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N50" t="n">
         <v>300000</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4440,20 +4440,20 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N51" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O51" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P51" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N52" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O52" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P52" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N53" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O53" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P53" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N54" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O54" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P54" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>711</v>
+        <v>578</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N55" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="O55" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P55" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44322</v>
+        <v>44301</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N56" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="O56" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="P56" t="n">
-        <v>415000</v>
+        <v>330000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>922</v>
+        <v>733</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44322</v>
+        <v>44301</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,16 +4915,16 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N57" t="n">
         <v>280000</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44322</v>
+        <v>44301</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O58" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P58" t="n">
-        <v>255000</v>
+        <v>230000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44320</v>
+        <v>44301</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5087,13 +5087,13 @@
         <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="O59" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="P59" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44320</v>
+        <v>44301</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N60" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O60" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P60" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44320</v>
+        <v>44301</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N61" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O61" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P61" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44358</v>
+        <v>44302</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,24 +5320,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N62" t="n">
-        <v>13000</v>
+        <v>420000</v>
       </c>
       <c r="O62" t="n">
-        <v>13000</v>
+        <v>420000</v>
       </c>
       <c r="P62" t="n">
-        <v>13000</v>
+        <v>420000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>812</v>
+        <v>933</v>
       </c>
       <c r="T62" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44358</v>
+        <v>44302</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,24 +5400,24 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N63" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="O63" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="P63" t="n">
-        <v>11000</v>
+        <v>340000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>688</v>
+        <v>756</v>
       </c>
       <c r="T63" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44313</v>
+        <v>44302</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N64" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O64" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="P64" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>756</v>
+        <v>622</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44313</v>
+        <v>44333</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N65" t="n">
-        <v>370000</v>
+        <v>260000</v>
       </c>
       <c r="O65" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="P65" t="n">
-        <v>370000</v>
+        <v>265000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>822</v>
+        <v>589</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44313</v>
+        <v>44333</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N66" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O66" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="P66" t="n">
-        <v>305000</v>
+        <v>250000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>678</v>
+        <v>556</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N67" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="O67" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P67" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N68" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="O68" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="P68" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>822</v>
+        <v>733</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N69" t="n">
         <v>270000</v>
       </c>
       <c r="O69" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P69" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N70" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O70" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P70" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44333</v>
+        <v>44316</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N71" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O71" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P71" t="n">
-        <v>265000</v>
+        <v>320000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44333</v>
+        <v>44316</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6120,11 +6120,11 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N72" t="n">
         <v>250000</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44302</v>
+        <v>44329</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6207,13 +6207,13 @@
         <v>15</v>
       </c>
       <c r="N73" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="O73" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="P73" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44302</v>
+        <v>44329</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N74" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="O74" t="n">
-        <v>340000</v>
+        <v>250000</v>
       </c>
       <c r="P74" t="n">
-        <v>340000</v>
+        <v>245000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>756</v>
+        <v>544</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44302</v>
+        <v>44319</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N75" t="n">
         <v>280000</v>
       </c>
       <c r="O75" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P75" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44326</v>
+        <v>44330</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O76" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P76" t="n">
-        <v>275000</v>
+        <v>260000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44326</v>
+        <v>44330</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N77" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O77" t="n">
         <v>240000</v>
       </c>
-      <c r="O77" t="n">
-        <v>250000</v>
-      </c>
       <c r="P77" t="n">
-        <v>245000</v>
+        <v>235238</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44326</v>
+        <v>44330</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N78" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="O78" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P78" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44348</v>
+        <v>44298</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N79" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O79" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P79" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44351</v>
+        <v>44298</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N80" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O80" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P80" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44300</v>
+        <v>44328</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N81" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O81" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P81" t="n">
-        <v>275000</v>
+        <v>225000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44300</v>
+        <v>44328</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N82" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O82" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P82" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44300</v>
+        <v>44343</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N83" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O83" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="P83" t="n">
-        <v>450000</v>
+        <v>275000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44300</v>
+        <v>44343</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N84" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O84" t="n">
-        <v>350000</v>
+        <v>230000</v>
       </c>
       <c r="P84" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44300</v>
+        <v>44294</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N85" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O85" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P85" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44343</v>
+        <v>44294</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N86" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O86" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="P86" t="n">
-        <v>275000</v>
+        <v>210000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>611</v>
+        <v>467</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44343</v>
+        <v>44335</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N87" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O87" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P87" t="n">
-        <v>230000</v>
+        <v>265000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N88" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O88" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P88" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N89" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O89" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P89" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N90" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O90" t="n">
         <v>300000</v>
       </c>
       <c r="P90" t="n">
-        <v>285000</v>
+        <v>300000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N91" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="O91" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P91" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>15</v>
       </c>
       <c r="N93" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="O93" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="P93" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>756</v>
+        <v>644</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N94" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O94" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P94" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N95" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O95" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P95" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N96" t="n">
-        <v>290000</v>
+        <v>370000</v>
       </c>
       <c r="O96" t="n">
-        <v>290000</v>
+        <v>370000</v>
       </c>
       <c r="P96" t="n">
-        <v>290000</v>
+        <v>370000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>644</v>
+        <v>822</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N97" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O97" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="P97" t="n">
-        <v>270000</v>
+        <v>305000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>600</v>
+        <v>678</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N98" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O98" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P98" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44319</v>
+        <v>44313</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N99" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="O99" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P99" t="n">
-        <v>290000</v>
+        <v>370000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>644</v>
+        <v>822</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44357</v>
+        <v>44313</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8364,20 +8364,20 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="N100" t="n">
-        <v>8000</v>
+        <v>270000</v>
       </c>
       <c r="O100" t="n">
-        <v>9000</v>
+        <v>300000</v>
       </c>
       <c r="P100" t="n">
-        <v>8500</v>
+        <v>285000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -8386,10 +8386,10 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>531</v>
+        <v>633</v>
       </c>
       <c r="T100" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N101" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O101" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P101" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44329</v>
+        <v>44323</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N102" t="n">
-        <v>240000</v>
+        <v>450000</v>
       </c>
       <c r="O102" t="n">
-        <v>250000</v>
+        <v>460000</v>
       </c>
       <c r="P102" t="n">
-        <v>245000</v>
+        <v>455000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>544</v>
+        <v>1011</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44294</v>
+        <v>44323</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N103" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O103" t="n">
-        <v>220000</v>
+        <v>430000</v>
       </c>
       <c r="P103" t="n">
-        <v>210000</v>
+        <v>415000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>467</v>
+        <v>922</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44294</v>
+        <v>44323</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N104" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O104" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="P104" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N105" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O105" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P105" t="n">
-        <v>260000</v>
+        <v>235000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44330</v>
+        <v>44323</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N106" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O106" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P106" t="n">
-        <v>235238</v>
+        <v>200000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>523</v>
+        <v>444</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44330</v>
+        <v>44348</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N107" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="O107" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="P107" t="n">
-        <v>180000</v>
+        <v>280000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>400</v>
+        <v>622</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44301</v>
+        <v>44293</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N108" t="n">
         <v>330000</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44301</v>
+        <v>44293</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9087,13 +9087,13 @@
         <v>18</v>
       </c>
       <c r="N109" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O109" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P109" t="n">
-        <v>280000</v>
+        <v>285000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44301</v>
+        <v>44293</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9167,13 +9167,13 @@
         <v>15</v>
       </c>
       <c r="N110" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O110" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P110" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44301</v>
+        <v>44349</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N111" t="n">
-        <v>420000</v>
+        <v>290000</v>
       </c>
       <c r="O111" t="n">
-        <v>420000</v>
+        <v>290000</v>
       </c>
       <c r="P111" t="n">
-        <v>420000</v>
+        <v>290000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>933</v>
+        <v>644</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44301</v>
+        <v>44349</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N112" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O112" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P112" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44301</v>
+        <v>44334</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>15</v>
       </c>
       <c r="N113" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O113" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="P113" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44312</v>
+        <v>44334</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9475,25 +9475,25 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N114" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O114" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P114" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44312</v>
+        <v>44334</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9555,25 +9555,25 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N115" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O115" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P115" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>633</v>
+        <v>511</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N116" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O116" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P116" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9727,13 +9727,13 @@
         <v>18</v>
       </c>
       <c r="N117" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O117" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P117" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44349</v>
+        <v>44312</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N118" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="O118" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P118" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44349</v>
+        <v>44312</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N119" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O119" t="n">
         <v>270000</v>
       </c>
       <c r="P119" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9964,20 +9964,20 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N120" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="O120" t="n">
-        <v>270000</v>
+        <v>13000</v>
       </c>
       <c r="P120" t="n">
-        <v>265000</v>
+        <v>13000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>589</v>
+        <v>812</v>
       </c>
       <c r="T120" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10044,20 +10044,20 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N121" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="O121" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="P121" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>511</v>
+        <v>688</v>
       </c>
       <c r="T121" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44315</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,29 +515,29 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>320000</v>
+        <v>8000</v>
       </c>
       <c r="O2" t="n">
-        <v>320000</v>
+        <v>9000</v>
       </c>
       <c r="P2" t="n">
-        <v>320000</v>
+        <v>8500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>711</v>
+        <v>531</v>
       </c>
       <c r="T2" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N3" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O3" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P3" t="n">
-        <v>350000</v>
+        <v>285000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>778</v>
+        <v>633</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O4" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P4" t="n">
-        <v>285000</v>
+        <v>240000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>633</v>
+        <v>533</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,25 +755,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N5" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O5" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P5" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O6" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P6" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>711</v>
+        <v>622</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="O7" t="n">
-        <v>340000</v>
+        <v>220000</v>
       </c>
       <c r="P7" t="n">
-        <v>340000</v>
+        <v>210000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>756</v>
+        <v>467</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="O8" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P8" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>644</v>
+        <v>467</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O9" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P9" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>578</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O10" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P10" t="n">
-        <v>320000</v>
+        <v>265000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>711</v>
+        <v>589</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="O11" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P11" t="n">
-        <v>295000</v>
+        <v>230000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>656</v>
+        <v>511</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O12" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P12" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
         <v>350000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N14" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O14" t="n">
         <v>300000</v>
       </c>
       <c r="P14" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44357</v>
+        <v>44315</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,29 +1555,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O15" t="n">
-        <v>9000</v>
+        <v>240000</v>
       </c>
       <c r="P15" t="n">
-        <v>8500</v>
+        <v>240000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="T15" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O16" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P16" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>567</v>
+        <v>711</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>400000</v>
+        <v>340000</v>
       </c>
       <c r="O17" t="n">
-        <v>430000</v>
+        <v>340000</v>
       </c>
       <c r="P17" t="n">
-        <v>415000</v>
+        <v>340000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>922</v>
+        <v>756</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N18" t="n">
         <v>280000</v>
       </c>
       <c r="O18" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P18" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="O19" t="n">
         <v>260000</v>
       </c>
       <c r="P19" t="n">
-        <v>255000</v>
+        <v>260000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44307</v>
+        <v>44344</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>390000</v>
+        <v>280000</v>
       </c>
       <c r="O20" t="n">
-        <v>390000</v>
+        <v>280000</v>
       </c>
       <c r="P20" t="n">
-        <v>390000</v>
+        <v>280000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>867</v>
+        <v>622</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44307</v>
+        <v>44344</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O21" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P21" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O22" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P22" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44351</v>
+        <v>44306</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2207,13 +2207,13 @@
         <v>16</v>
       </c>
       <c r="N23" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O23" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P23" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N24" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="O24" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="P24" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>689</v>
+        <v>556</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O25" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P25" t="n">
-        <v>275000</v>
+        <v>300000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N26" t="n">
-        <v>315000</v>
+        <v>260000</v>
       </c>
       <c r="O26" t="n">
-        <v>315000</v>
+        <v>260000</v>
       </c>
       <c r="P26" t="n">
-        <v>315000</v>
+        <v>260000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>700</v>
+        <v>578</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44309</v>
+        <v>44306</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N27" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O27" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P27" t="n">
-        <v>275000</v>
+        <v>240000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O28" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P28" t="n">
-        <v>275000</v>
+        <v>340000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N29" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="O29" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="P29" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>533</v>
+        <v>822</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N30" t="n">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="O30" t="n">
-        <v>450000</v>
+        <v>310000</v>
       </c>
       <c r="P30" t="n">
-        <v>450000</v>
+        <v>305000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1000</v>
+        <v>678</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N31" t="n">
         <v>330000</v>
       </c>
       <c r="O31" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P31" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="O32" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="P32" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>600</v>
+        <v>822</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N33" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O33" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P33" t="n">
-        <v>280000</v>
+        <v>285000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N34" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O34" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P34" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44320</v>
+        <v>44327</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N35" t="n">
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="O35" t="n">
-        <v>300000</v>
+        <v>370000</v>
       </c>
       <c r="P35" t="n">
-        <v>300000</v>
+        <v>365000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>811</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44320</v>
+        <v>44327</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N36" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O36" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P36" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44320</v>
+        <v>44327</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N37" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O37" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P37" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N38" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O38" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P38" t="n">
-        <v>275000</v>
+        <v>200000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44326</v>
+        <v>44322</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N39" t="n">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="O39" t="n">
-        <v>250000</v>
+        <v>430000</v>
       </c>
       <c r="P39" t="n">
-        <v>245000</v>
+        <v>415000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>544</v>
+        <v>922</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44326</v>
+        <v>44322</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N40" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O40" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P40" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>467</v>
+        <v>622</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44308</v>
+        <v>44322</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N41" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O41" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P41" t="n">
-        <v>285000</v>
+        <v>255000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44308</v>
+        <v>44314</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N42" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O42" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P42" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44308</v>
+        <v>44314</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N43" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O43" t="n">
         <v>300000</v>
       </c>
       <c r="P43" t="n">
-        <v>290000</v>
+        <v>295000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44295</v>
+        <v>44314</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N44" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O44" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P44" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44295</v>
+        <v>44314</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N45" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="O45" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P45" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>489</v>
+        <v>778</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N46" t="n">
-        <v>360000</v>
+        <v>280000</v>
       </c>
       <c r="O46" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P46" t="n">
-        <v>365000</v>
+        <v>290000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>811</v>
+        <v>644</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N47" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O47" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P47" t="n">
-        <v>330000</v>
+        <v>225000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N48" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O48" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P48" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44327</v>
+        <v>44351</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N49" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O49" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P49" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N50" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="O50" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="P50" t="n">
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N51" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O51" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P51" t="n">
-        <v>275000</v>
+        <v>340000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44306</v>
+        <v>44302</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N52" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O52" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P52" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44306</v>
+        <v>44350</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N53" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O53" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P53" t="n">
-        <v>300000</v>
+        <v>255000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N54" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O54" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P54" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>578</v>
+        <v>667</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>12</v>
       </c>
       <c r="N55" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O55" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P55" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N56" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O56" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P56" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,16 +4915,16 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N57" t="n">
         <v>280000</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N58" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="O58" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P58" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>511</v>
+        <v>711</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44301</v>
+        <v>44316</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N59" t="n">
-        <v>420000</v>
+        <v>250000</v>
       </c>
       <c r="O59" t="n">
-        <v>420000</v>
+        <v>250000</v>
       </c>
       <c r="P59" t="n">
-        <v>420000</v>
+        <v>250000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>933</v>
+        <v>556</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44301</v>
+        <v>44319</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N60" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O60" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="P60" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,25 +5235,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N61" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O61" t="n">
         <v>280000</v>
       </c>
       <c r="P61" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N62" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="O62" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P62" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N63" t="n">
-        <v>340000</v>
+        <v>450000</v>
       </c>
       <c r="O63" t="n">
-        <v>340000</v>
+        <v>450000</v>
       </c>
       <c r="P63" t="n">
-        <v>340000</v>
+        <v>450000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>756</v>
+        <v>1000</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N64" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O64" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P64" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>622</v>
+        <v>756</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44333</v>
+        <v>44300</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N65" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O65" t="n">
         <v>270000</v>
       </c>
       <c r="P65" t="n">
-        <v>265000</v>
+        <v>270000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44333</v>
+        <v>44329</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N66" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O66" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P66" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44316</v>
+        <v>44329</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N67" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="O67" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P67" t="n">
-        <v>300000</v>
+        <v>245000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>667</v>
+        <v>544</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>12</v>
       </c>
       <c r="N68" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="O68" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P68" t="n">
-        <v>330000</v>
+        <v>455000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>733</v>
+        <v>1011</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N69" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O69" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="P69" t="n">
-        <v>270000</v>
+        <v>415000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>600</v>
+        <v>922</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N70" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O70" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P70" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>18</v>
       </c>
       <c r="N71" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O71" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="P71" t="n">
-        <v>320000</v>
+        <v>235000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>711</v>
+        <v>522</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N72" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O72" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P72" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44329</v>
+        <v>44298</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N73" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O73" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P73" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>600</v>
+        <v>711</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44329</v>
+        <v>44298</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N74" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O74" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P74" t="n">
-        <v>245000</v>
+        <v>285000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>544</v>
+        <v>633</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44319</v>
+        <v>44334</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6360,17 +6360,17 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N75" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O75" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P75" t="n">
         <v>290000</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N76" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O76" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P76" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N77" t="n">
         <v>230000</v>
       </c>
       <c r="O77" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P77" t="n">
-        <v>235238</v>
+        <v>230000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N78" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O78" t="n">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="P78" t="n">
-        <v>180000</v>
+        <v>265000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>400</v>
+        <v>589</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44298</v>
+        <v>44333</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6675,25 +6675,25 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N79" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O79" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P79" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>711</v>
+        <v>556</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44298</v>
+        <v>44295</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N80" t="n">
         <v>270000</v>
       </c>
       <c r="O80" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P80" t="n">
-        <v>285000</v>
+        <v>280000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44328</v>
+        <v>44295</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N81" t="n">
         <v>220000</v>
       </c>
       <c r="O81" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P81" t="n">
-        <v>225000</v>
+        <v>220000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44328</v>
+        <v>44293</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>15</v>
       </c>
       <c r="N82" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O82" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P82" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N83" t="n">
         <v>270000</v>
       </c>
       <c r="O83" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P83" t="n">
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7087,13 +7087,13 @@
         <v>15</v>
       </c>
       <c r="N84" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O84" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P84" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44294</v>
+        <v>44312</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,25 +7155,25 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N85" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O85" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P85" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44294</v>
+        <v>44312</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N86" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O86" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P86" t="n">
-        <v>210000</v>
+        <v>285000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>467</v>
+        <v>633</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44335</v>
+        <v>44312</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N87" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O87" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P87" t="n">
-        <v>265000</v>
+        <v>300000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44335</v>
+        <v>44312</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N88" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O88" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P88" t="n">
-        <v>230000</v>
+        <v>265000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N95" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="O95" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="P95" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N96" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="O96" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P96" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>822</v>
+        <v>622</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N97" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="O97" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P97" t="n">
-        <v>305000</v>
+        <v>230000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>678</v>
+        <v>511</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N98" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="O98" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="P98" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N99" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="O99" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="P99" t="n">
-        <v>370000</v>
+        <v>330000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>822</v>
+        <v>733</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44313</v>
+        <v>44301</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O100" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P100" t="n">
-        <v>285000</v>
+        <v>280000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44313</v>
+        <v>44326</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N101" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O101" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P101" t="n">
-        <v>240000</v>
+        <v>275000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N102" t="n">
-        <v>450000</v>
+        <v>240000</v>
       </c>
       <c r="O102" t="n">
-        <v>460000</v>
+        <v>250000</v>
       </c>
       <c r="P102" t="n">
-        <v>455000</v>
+        <v>245000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1011</v>
+        <v>544</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N103" t="n">
-        <v>400000</v>
+        <v>210000</v>
       </c>
       <c r="O103" t="n">
-        <v>430000</v>
+        <v>210000</v>
       </c>
       <c r="P103" t="n">
-        <v>415000</v>
+        <v>210000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>922</v>
+        <v>467</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N104" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O104" t="n">
         <v>310000</v>
       </c>
       <c r="P104" t="n">
-        <v>290000</v>
+        <v>310000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N105" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O105" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P105" t="n">
-        <v>235000</v>
+        <v>275000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>522</v>
+        <v>611</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44323</v>
+        <v>44309</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N106" t="n">
-        <v>200000</v>
+        <v>315000</v>
       </c>
       <c r="O106" t="n">
-        <v>200000</v>
+        <v>315000</v>
       </c>
       <c r="P106" t="n">
-        <v>200000</v>
+        <v>315000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44348</v>
+        <v>44309</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N107" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O107" t="n">
         <v>280000</v>
       </c>
       <c r="P107" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44293</v>
+        <v>44335</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N108" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O108" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P108" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44293</v>
+        <v>44335</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N109" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O109" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P109" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>633</v>
+        <v>511</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44293</v>
+        <v>44330</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>15</v>
       </c>
       <c r="N110" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O110" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P110" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44349</v>
+        <v>44330</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="N111" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="O111" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="P111" t="n">
-        <v>290000</v>
+        <v>235238</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>644</v>
+        <v>523</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44349</v>
+        <v>44330</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N112" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="O112" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P112" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N113" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O113" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P113" t="n">
-        <v>290000</v>
+        <v>275000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N114" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O114" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P114" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44334</v>
+        <v>44358</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9560,24 +9560,24 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N115" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="O115" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="P115" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>511</v>
+        <v>812</v>
       </c>
       <c r="T115" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44312</v>
+        <v>44358</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9635,29 +9635,29 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="N116" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="O116" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="P116" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="T116" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N117" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="O117" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P117" t="n">
-        <v>285000</v>
+        <v>290000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44312</v>
+        <v>44349</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N118" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O118" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P118" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44312</v>
+        <v>44307</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N119" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="O119" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="P119" t="n">
-        <v>265000</v>
+        <v>390000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>589</v>
+        <v>867</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44358</v>
+        <v>44307</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9964,20 +9964,20 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="N120" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="O120" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="P120" t="n">
-        <v>13000</v>
+        <v>330000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9986,10 +9986,10 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>812</v>
+        <v>733</v>
       </c>
       <c r="T120" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121">
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44358</v>
+        <v>44307</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10044,20 +10044,20 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="P121" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T121" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44302</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>8000</v>
+        <v>420000</v>
       </c>
       <c r="O2" t="n">
-        <v>9000</v>
+        <v>420000</v>
       </c>
       <c r="P2" t="n">
-        <v>8500</v>
+        <v>420000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>531</v>
+        <v>933</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44308</v>
+        <v>44302</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O3" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P3" t="n">
-        <v>285000</v>
+        <v>340000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>633</v>
+        <v>756</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44308</v>
+        <v>44302</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N4" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O4" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P4" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44308</v>
+        <v>44349</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,17 +760,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O5" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P5" t="n">
         <v>290000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O6" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P6" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O7" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P7" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O8" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P8" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O9" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="P9" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O10" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P10" t="n">
-        <v>265000</v>
+        <v>320000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="O11" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="P11" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O12" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="P12" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>711</v>
+        <v>578</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44315</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O13" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P13" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44315</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
         <v>270000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44315</v>
+        <v>44312</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O15" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P15" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44315</v>
+        <v>44312</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O16" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P16" t="n">
-        <v>320000</v>
+        <v>265000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>711</v>
+        <v>589</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44315</v>
+        <v>44298</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="O17" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="P17" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44315</v>
+        <v>44298</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N18" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O18" t="n">
         <v>300000</v>
       </c>
       <c r="P18" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44315</v>
+        <v>44329</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O19" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P19" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44344</v>
+        <v>44329</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N20" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O20" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P20" t="n">
-        <v>280000</v>
+        <v>245000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>622</v>
+        <v>544</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44344</v>
+        <v>44319</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O21" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P21" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O22" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P22" t="n">
-        <v>300000</v>
+        <v>275000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44306</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N23" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O23" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P23" t="n">
-        <v>275000</v>
+        <v>245000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44306</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O24" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P24" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44306</v>
+        <v>44344</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O25" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P25" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44306</v>
+        <v>44344</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O26" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P26" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44306</v>
+        <v>44316</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N27" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O27" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P27" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="O28" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="P28" t="n">
-        <v>340000</v>
+        <v>330000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="O29" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="P29" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>822</v>
+        <v>600</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N30" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O30" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P30" t="n">
-        <v>305000</v>
+        <v>280000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>678</v>
+        <v>622</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N31" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O31" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P31" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N32" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="O32" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="P32" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>822</v>
+        <v>556</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N33" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O33" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P33" t="n">
-        <v>285000</v>
+        <v>340000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>633</v>
+        <v>756</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N34" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="O34" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="P34" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>533</v>
+        <v>822</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N35" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="O35" t="n">
-        <v>370000</v>
+        <v>310000</v>
       </c>
       <c r="P35" t="n">
-        <v>365000</v>
+        <v>305000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>811</v>
+        <v>678</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,16 +3235,16 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N36" t="n">
         <v>330000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="O37" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="P37" t="n">
-        <v>250000</v>
+        <v>370000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>556</v>
+        <v>822</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44327</v>
+        <v>44313</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N38" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O38" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P38" t="n">
-        <v>200000</v>
+        <v>285000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>444</v>
+        <v>633</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N39" t="n">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O39" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P39" t="n">
-        <v>415000</v>
+        <v>240000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>922</v>
+        <v>533</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44322</v>
+        <v>44678</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="O40" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="P40" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>622</v>
+        <v>1111</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44322</v>
+        <v>44678</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N41" t="n">
-        <v>250000</v>
+        <v>470000</v>
       </c>
       <c r="O41" t="n">
-        <v>260000</v>
+        <v>470000</v>
       </c>
       <c r="P41" t="n">
-        <v>255000</v>
+        <v>470000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>567</v>
+        <v>1044</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N42" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O42" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P42" t="n">
-        <v>320000</v>
+        <v>275000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>711</v>
+        <v>611</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N43" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="O43" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P43" t="n">
-        <v>295000</v>
+        <v>240000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>656</v>
+        <v>533</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="O44" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="P44" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N45" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O45" t="n">
         <v>350000</v>
       </c>
       <c r="P45" t="n">
-        <v>350000</v>
+        <v>340000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N46" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O46" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P46" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44328</v>
+        <v>44295</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4127,13 +4127,13 @@
         <v>18</v>
       </c>
       <c r="N47" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O47" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="P47" t="n">
-        <v>225000</v>
+        <v>280000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44328</v>
+        <v>44295</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>15</v>
       </c>
       <c r="N48" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="O48" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P48" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44351</v>
+        <v>44308</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N49" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O49" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P49" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44302</v>
+        <v>44308</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>15</v>
       </c>
       <c r="N50" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="O50" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="P50" t="n">
-        <v>420000</v>
+        <v>240000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>933</v>
+        <v>533</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44302</v>
+        <v>44308</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N51" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O51" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="P51" t="n">
-        <v>340000</v>
+        <v>290000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>756</v>
+        <v>644</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44302</v>
+        <v>44330</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4520,20 +4520,20 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N52" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O52" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P52" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N53" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="O53" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P53" t="n">
-        <v>255000</v>
+        <v>235238</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>567</v>
+        <v>523</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N54" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="O54" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P54" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4760,20 +4760,20 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N55" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O55" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P55" t="n">
-        <v>330000</v>
+        <v>415000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>733</v>
+        <v>922</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N56" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O56" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P56" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N57" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O57" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P57" t="n">
-        <v>280000</v>
+        <v>255000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N58" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="O58" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="P58" t="n">
-        <v>320000</v>
+        <v>310000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N59" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O59" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P59" t="n">
-        <v>250000</v>
+        <v>275000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="N60" t="n">
-        <v>280000</v>
+        <v>315000</v>
       </c>
       <c r="O60" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="P60" t="n">
-        <v>290000</v>
+        <v>315000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44300</v>
+        <v>44309</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N61" t="n">
         <v>270000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N62" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O62" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P62" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N63" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O63" t="n">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="P63" t="n">
-        <v>450000</v>
+        <v>285000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1000</v>
+        <v>633</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N64" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O64" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="P64" t="n">
-        <v>340000</v>
+        <v>200000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>756</v>
+        <v>444</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44300</v>
+        <v>44333</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N65" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O65" t="n">
         <v>270000</v>
       </c>
       <c r="P65" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N66" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O66" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P66" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44329</v>
+        <v>44320</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N67" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O67" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P67" t="n">
-        <v>245000</v>
+        <v>300000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>544</v>
+        <v>667</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N68" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="O68" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="P68" t="n">
-        <v>455000</v>
+        <v>265000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1011</v>
+        <v>589</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44323</v>
+        <v>44320</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N69" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O69" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="P69" t="n">
-        <v>415000</v>
+        <v>230000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>922</v>
+        <v>511</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N70" t="n">
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="O70" t="n">
-        <v>310000</v>
+        <v>370000</v>
       </c>
       <c r="P70" t="n">
-        <v>290000</v>
+        <v>365000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>644</v>
+        <v>811</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,25 +6035,25 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N71" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O71" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P71" t="n">
-        <v>235000</v>
+        <v>330000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>522</v>
+        <v>733</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N72" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O72" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P72" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44298</v>
+        <v>44327</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N73" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="O73" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P73" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>711</v>
+        <v>444</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44298</v>
+        <v>44294</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>14</v>
       </c>
       <c r="N74" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O74" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P74" t="n">
-        <v>285000</v>
+        <v>210000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>633</v>
+        <v>467</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44334</v>
+        <v>44294</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N75" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="O75" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P75" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>644</v>
+        <v>467</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44334</v>
+        <v>44350</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N76" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O76" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P76" t="n">
-        <v>270000</v>
+        <v>255000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N77" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O77" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P77" t="n">
-        <v>230000</v>
+        <v>265000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N78" t="n">
-        <v>260000</v>
+        <v>390000</v>
       </c>
       <c r="O78" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="P78" t="n">
-        <v>265000</v>
+        <v>390000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>589</v>
+        <v>867</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N79" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O79" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P79" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>556</v>
+        <v>733</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44295</v>
+        <v>44307</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N80" t="n">
         <v>270000</v>
       </c>
       <c r="O80" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="P80" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44295</v>
+        <v>44348</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N81" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O81" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P81" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6927,13 +6927,13 @@
         <v>15</v>
       </c>
       <c r="N82" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O82" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P82" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N83" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O83" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P83" t="n">
-        <v>285000</v>
+        <v>350000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>633</v>
+        <v>778</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N84" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O84" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P84" t="n">
-        <v>200000</v>
+        <v>285000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>444</v>
+        <v>633</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N85" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O85" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P85" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N86" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O86" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P86" t="n">
-        <v>285000</v>
+        <v>320000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="O87" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P87" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>667</v>
+        <v>756</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44312</v>
+        <v>44315</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N88" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O88" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P88" t="n">
-        <v>265000</v>
+        <v>290000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N89" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O89" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P89" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44305</v>
+        <v>44334</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>15</v>
       </c>
       <c r="N90" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="O90" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P90" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44305</v>
+        <v>44334</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N91" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O91" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P91" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44305</v>
+        <v>44334</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O92" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P92" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44305</v>
+        <v>44323</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N93" t="n">
-        <v>290000</v>
+        <v>450000</v>
       </c>
       <c r="O93" t="n">
-        <v>290000</v>
+        <v>460000</v>
       </c>
       <c r="P93" t="n">
-        <v>290000</v>
+        <v>455000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>644</v>
+        <v>1011</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44305</v>
+        <v>44323</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N94" t="n">
-        <v>260000</v>
+        <v>400000</v>
       </c>
       <c r="O94" t="n">
-        <v>260000</v>
+        <v>430000</v>
       </c>
       <c r="P94" t="n">
-        <v>260000</v>
+        <v>415000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>578</v>
+        <v>922</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44301</v>
+        <v>44323</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N95" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O95" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="P95" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44301</v>
+        <v>44323</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8047,13 +8047,13 @@
         <v>18</v>
       </c>
       <c r="N96" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O96" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P96" t="n">
-        <v>280000</v>
+        <v>235000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>622</v>
+        <v>522</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44301</v>
+        <v>44323</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8127,13 +8127,13 @@
         <v>15</v>
       </c>
       <c r="N97" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O97" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P97" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44301</v>
+        <v>44358</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8200,24 +8200,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N98" t="n">
-        <v>420000</v>
+        <v>13000</v>
       </c>
       <c r="O98" t="n">
-        <v>420000</v>
+        <v>13000</v>
       </c>
       <c r="P98" t="n">
-        <v>420000</v>
+        <v>13000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>933</v>
+        <v>812</v>
       </c>
       <c r="T98" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44301</v>
+        <v>44358</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N99" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="O99" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="P99" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="T99" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N100" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O100" t="n">
         <v>280000</v>
       </c>
       <c r="P100" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O101" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P101" t="n">
-        <v>275000</v>
+        <v>230000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N102" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O102" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P102" t="n">
-        <v>245000</v>
+        <v>330000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>544</v>
+        <v>733</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N103" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O103" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P103" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>467</v>
+        <v>622</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44309</v>
+        <v>44301</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N104" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="O104" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P104" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>689</v>
+        <v>511</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44309</v>
+        <v>44301</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N105" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="O105" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P105" t="n">
-        <v>275000</v>
+        <v>420000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>611</v>
+        <v>933</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44309</v>
+        <v>44301</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N106" t="n">
-        <v>315000</v>
+        <v>330000</v>
       </c>
       <c r="O106" t="n">
-        <v>315000</v>
+        <v>330000</v>
       </c>
       <c r="P106" t="n">
-        <v>315000</v>
+        <v>330000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44309</v>
+        <v>44301</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N107" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O107" t="n">
         <v>280000</v>
       </c>
       <c r="P107" t="n">
-        <v>275000</v>
+        <v>280000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N110" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="O110" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P110" t="n">
-        <v>260000</v>
+        <v>225000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>578</v>
+        <v>500</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N111" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O111" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P111" t="n">
-        <v>235238</v>
+        <v>200000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>523</v>
+        <v>444</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44330</v>
+        <v>44314</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N112" t="n">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="O112" t="n">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="P112" t="n">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>400</v>
+        <v>711</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N113" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="O113" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P113" t="n">
-        <v>275000</v>
+        <v>295000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>611</v>
+        <v>656</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N114" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O114" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P114" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44358</v>
+        <v>44314</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9560,24 +9560,24 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N115" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="O115" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="P115" t="n">
-        <v>13000</v>
+        <v>350000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -9586,10 +9586,10 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>812</v>
+        <v>778</v>
       </c>
       <c r="T115" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44358</v>
+        <v>44314</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="N116" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="O116" t="n">
-        <v>11000</v>
+        <v>300000</v>
       </c>
       <c r="P116" t="n">
-        <v>11000</v>
+        <v>290000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="T116" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44349</v>
+        <v>44357</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9720,24 +9720,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N117" t="n">
-        <v>290000</v>
+        <v>8000</v>
       </c>
       <c r="O117" t="n">
-        <v>290000</v>
+        <v>9000</v>
       </c>
       <c r="P117" t="n">
-        <v>290000</v>
+        <v>8500</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>644</v>
+        <v>531</v>
       </c>
       <c r="T117" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44349</v>
+        <v>44306</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N118" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O118" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P118" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N119" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O119" t="n">
-        <v>390000</v>
+        <v>280000</v>
       </c>
       <c r="P119" t="n">
-        <v>390000</v>
+        <v>275000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>867</v>
+        <v>611</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9955,25 +9955,25 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N120" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O120" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P120" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>733</v>
+        <v>556</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,35 +10040,195 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>7</v>
+      </c>
+      <c r="N121" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O121" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P121" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S121" t="n">
+        <v>667</v>
+      </c>
+      <c r="T121" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>6</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E122" t="n">
+        <v>13</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>14</v>
+      </c>
+      <c r="N122" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O122" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P122" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S122" t="n">
+        <v>578</v>
+      </c>
+      <c r="T122" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>6</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E123" t="n">
+        <v>13</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>15</v>
-      </c>
-      <c r="N121" t="n">
-        <v>270000</v>
-      </c>
-      <c r="O121" t="n">
-        <v>270000</v>
-      </c>
-      <c r="P121" t="n">
-        <v>270000</v>
-      </c>
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S121" t="n">
-        <v>600</v>
-      </c>
-      <c r="T121" t="n">
+      <c r="M123" t="n">
+        <v>12</v>
+      </c>
+      <c r="N123" t="n">
+        <v>240000</v>
+      </c>
+      <c r="O123" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P123" t="n">
+        <v>240000</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S123" t="n">
+        <v>533</v>
+      </c>
+      <c r="T123" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4527,13 +4527,13 @@
         <v>15</v>
       </c>
       <c r="N52" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="O52" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="P52" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>578</v>
+        <v>1067</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N53" t="n">
-        <v>230000</v>
+        <v>460000</v>
       </c>
       <c r="O53" t="n">
-        <v>240000</v>
+        <v>460000</v>
       </c>
       <c r="P53" t="n">
-        <v>235238</v>
+        <v>460000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>523</v>
+        <v>1022</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N54" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O54" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P54" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N55" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O55" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P55" t="n">
-        <v>415000</v>
+        <v>235238</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>922</v>
+        <v>523</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N56" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="O56" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="P56" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>622</v>
+        <v>400</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4927,13 +4927,13 @@
         <v>14</v>
       </c>
       <c r="N57" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="O57" t="n">
-        <v>260000</v>
+        <v>430000</v>
       </c>
       <c r="P57" t="n">
-        <v>255000</v>
+        <v>415000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>567</v>
+        <v>922</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5004,16 +5004,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N58" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="O58" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P58" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>689</v>
+        <v>622</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5087,13 +5087,13 @@
         <v>14</v>
       </c>
       <c r="N59" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O59" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P59" t="n">
-        <v>275000</v>
+        <v>255000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N60" t="n">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="O60" t="n">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="P60" t="n">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N61" t="n">
         <v>270000</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N62" t="n">
-        <v>330000</v>
+        <v>315000</v>
       </c>
       <c r="O62" t="n">
-        <v>330000</v>
+        <v>315000</v>
       </c>
       <c r="P62" t="n">
-        <v>330000</v>
+        <v>315000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N63" t="n">
         <v>270000</v>
       </c>
       <c r="O63" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P63" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>15</v>
       </c>
       <c r="N64" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O64" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P64" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N65" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O65" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P65" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N66" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O66" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P66" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N67" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O67" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P67" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N68" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O68" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P68" t="n">
-        <v>265000</v>
+        <v>250000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>10</v>
       </c>
       <c r="N69" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O69" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P69" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5967,13 +5967,13 @@
         <v>18</v>
       </c>
       <c r="N70" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="O70" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="P70" t="n">
-        <v>365000</v>
+        <v>265000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>811</v>
+        <v>589</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6047,13 +6047,13 @@
         <v>10</v>
       </c>
       <c r="N71" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O71" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P71" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N72" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="O72" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="P72" t="n">
-        <v>250000</v>
+        <v>365000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>556</v>
+        <v>811</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N73" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O73" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P73" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N74" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O74" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P74" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N75" t="n">
         <v>200000</v>
       </c>
       <c r="O75" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P75" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44350</v>
+        <v>44294</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,25 +6435,25 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N76" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O76" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P76" t="n">
-        <v>255000</v>
+        <v>210000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44351</v>
+        <v>44294</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6520,20 +6520,20 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N77" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O77" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P77" t="n">
-        <v>265000</v>
+        <v>210000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>589</v>
+        <v>467</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44307</v>
+        <v>44680</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6600,20 +6600,20 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>390000</v>
+        <v>480000</v>
       </c>
       <c r="O78" t="n">
-        <v>390000</v>
+        <v>480000</v>
       </c>
       <c r="P78" t="n">
-        <v>390000</v>
+        <v>480000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44307</v>
+        <v>44680</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N79" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="O79" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="P79" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44307</v>
+        <v>44350</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N80" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O80" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P80" t="n">
-        <v>270000</v>
+        <v>255000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N81" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="O81" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P81" t="n">
-        <v>280000</v>
+        <v>265000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>15</v>
       </c>
       <c r="N82" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="O82" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="P82" t="n">
-        <v>320000</v>
+        <v>390000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>711</v>
+        <v>867</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6995,25 +6995,25 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N83" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O83" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P83" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N84" t="n">
         <v>270000</v>
       </c>
       <c r="O84" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P84" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7155,25 +7155,25 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N85" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O85" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P85" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7327,13 +7327,13 @@
         <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>340000</v>
+        <v>350000</v>
       </c>
       <c r="O87" t="n">
-        <v>340000</v>
+        <v>350000</v>
       </c>
       <c r="P87" t="n">
-        <v>340000</v>
+        <v>350000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N88" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O88" t="n">
         <v>300000</v>
       </c>
       <c r="P88" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N89" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="O89" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P89" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7567,13 +7567,13 @@
         <v>15</v>
       </c>
       <c r="N90" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="O90" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="P90" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N91" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="O91" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="P91" t="n">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>600</v>
+        <v>756</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N92" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O92" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P92" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44323</v>
+        <v>44315</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N93" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="O93" t="n">
-        <v>460000</v>
+        <v>260000</v>
       </c>
       <c r="P93" t="n">
-        <v>455000</v>
+        <v>260000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1011</v>
+        <v>578</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N94" t="n">
-        <v>400000</v>
+        <v>290000</v>
       </c>
       <c r="O94" t="n">
-        <v>430000</v>
+        <v>290000</v>
       </c>
       <c r="P94" t="n">
-        <v>415000</v>
+        <v>290000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>922</v>
+        <v>644</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N95" t="n">
         <v>270000</v>
       </c>
       <c r="O95" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P95" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N96" t="n">
         <v>230000</v>
       </c>
       <c r="O96" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P96" t="n">
-        <v>235000</v>
+        <v>230000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N97" t="n">
-        <v>200000</v>
+        <v>450000</v>
       </c>
       <c r="O97" t="n">
-        <v>200000</v>
+        <v>460000</v>
       </c>
       <c r="P97" t="n">
-        <v>200000</v>
+        <v>455000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>444</v>
+        <v>1011</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -8204,20 +8204,20 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="N98" t="n">
-        <v>13000</v>
+        <v>400000</v>
       </c>
       <c r="O98" t="n">
-        <v>13000</v>
+        <v>430000</v>
       </c>
       <c r="P98" t="n">
-        <v>13000</v>
+        <v>415000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>812</v>
+        <v>922</v>
       </c>
       <c r="T98" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8280,24 +8280,24 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="N99" t="n">
-        <v>11000</v>
+        <v>270000</v>
       </c>
       <c r="O99" t="n">
-        <v>11000</v>
+        <v>310000</v>
       </c>
       <c r="P99" t="n">
-        <v>11000</v>
+        <v>290000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -8306,10 +8306,10 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="T99" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100">
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44343</v>
+        <v>44323</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N100" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O100" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P100" t="n">
-        <v>275000</v>
+        <v>235000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>611</v>
+        <v>522</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44343</v>
+        <v>44323</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8447,13 +8447,13 @@
         <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O101" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P101" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44301</v>
+        <v>44358</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,29 +8515,29 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N102" t="n">
-        <v>330000</v>
+        <v>13000</v>
       </c>
       <c r="O102" t="n">
-        <v>330000</v>
+        <v>13000</v>
       </c>
       <c r="P102" t="n">
-        <v>330000</v>
+        <v>13000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>733</v>
+        <v>812</v>
       </c>
       <c r="T102" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44301</v>
+        <v>44358</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,29 +8595,29 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="N103" t="n">
-        <v>280000</v>
+        <v>11000</v>
       </c>
       <c r="O103" t="n">
-        <v>280000</v>
+        <v>11000</v>
       </c>
       <c r="P103" t="n">
-        <v>280000</v>
+        <v>11000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>622</v>
+        <v>688</v>
       </c>
       <c r="T103" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8675,25 +8675,25 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N104" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O104" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P104" t="n">
-        <v>230000</v>
+        <v>275000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N105" t="n">
-        <v>420000</v>
+        <v>230000</v>
       </c>
       <c r="O105" t="n">
-        <v>420000</v>
+        <v>230000</v>
       </c>
       <c r="P105" t="n">
-        <v>420000</v>
+        <v>230000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>933</v>
+        <v>511</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8835,16 +8835,16 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N106" t="n">
         <v>330000</v>
@@ -8915,16 +8915,16 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N107" t="n">
         <v>280000</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44335</v>
+        <v>44301</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N108" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O108" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P108" t="n">
-        <v>265000</v>
+        <v>230000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>589</v>
+        <v>511</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44335</v>
+        <v>44301</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N109" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="O109" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="P109" t="n">
-        <v>230000</v>
+        <v>420000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>511</v>
+        <v>933</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N110" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="O110" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P110" t="n">
-        <v>225000</v>
+        <v>330000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>500</v>
+        <v>733</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9247,13 +9247,13 @@
         <v>15</v>
       </c>
       <c r="N111" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O111" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P111" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9315,25 +9315,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N112" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="O112" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P112" t="n">
-        <v>320000</v>
+        <v>265000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>711</v>
+        <v>589</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9395,25 +9395,25 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>20</v>
       </c>
       <c r="N113" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="O113" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P113" t="n">
-        <v>295000</v>
+        <v>230000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>656</v>
+        <v>511</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N114" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="O114" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P114" t="n">
-        <v>330000</v>
+        <v>225000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N115" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="O115" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="P115" t="n">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N116" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O116" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P116" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44357</v>
+        <v>44314</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -9724,20 +9724,20 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N117" t="n">
-        <v>8000</v>
+        <v>290000</v>
       </c>
       <c r="O117" t="n">
-        <v>9000</v>
+        <v>300000</v>
       </c>
       <c r="P117" t="n">
-        <v>8500</v>
+        <v>295000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>531</v>
+        <v>656</v>
       </c>
       <c r="T117" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118">
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N118" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O118" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P118" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N119" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="O119" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="P119" t="n">
-        <v>275000</v>
+        <v>350000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9955,25 +9955,25 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N120" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O120" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P120" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>556</v>
+        <v>644</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44306</v>
+        <v>44357</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,24 +10040,24 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="N121" t="n">
-        <v>300000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>300000</v>
+        <v>9000</v>
       </c>
       <c r="P121" t="n">
-        <v>300000</v>
+        <v>8500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>667</v>
+        <v>531</v>
       </c>
       <c r="T121" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
@@ -10115,25 +10115,25 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N122" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="O122" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P122" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>578</v>
+        <v>667</v>
       </c>
       <c r="T122" t="n">
         <v>450</v>
@@ -10195,40 +10195,360 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
+          <t>Fuyu</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>16</v>
+      </c>
+      <c r="N123" t="n">
+        <v>270000</v>
+      </c>
+      <c r="O123" t="n">
+        <v>280000</v>
+      </c>
+      <c r="P123" t="n">
+        <v>275000</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S123" t="n">
+        <v>611</v>
+      </c>
+      <c r="T123" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>6</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E124" t="n">
+        <v>13</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Fuyu</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>12</v>
+      </c>
+      <c r="N124" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O124" t="n">
+        <v>250000</v>
+      </c>
+      <c r="P124" t="n">
+        <v>250000</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S124" t="n">
+        <v>556</v>
+      </c>
+      <c r="T124" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E125" t="n">
+        <v>13</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
           <t>Mankaki</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>7</v>
+      </c>
+      <c r="N125" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O125" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P125" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S125" t="n">
+        <v>667</v>
+      </c>
+      <c r="T125" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E126" t="n">
+        <v>13</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>14</v>
+      </c>
+      <c r="N126" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O126" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P126" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S126" t="n">
+        <v>578</v>
+      </c>
+      <c r="T126" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E127" t="n">
+        <v>13</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="M127" t="n">
         <v>12</v>
       </c>
-      <c r="N123" t="n">
+      <c r="N127" t="n">
         <v>240000</v>
       </c>
-      <c r="O123" t="n">
+      <c r="O127" t="n">
         <v>240000</v>
       </c>
-      <c r="P123" t="n">
+      <c r="P127" t="n">
         <v>240000</v>
       </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S123" t="n">
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S127" t="n">
         <v>533</v>
       </c>
-      <c r="T123" t="n">
+      <c r="T127" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44687</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O13" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="P13" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44687</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="O14" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="P14" t="n">
-        <v>285000</v>
+        <v>380000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>633</v>
+        <v>844</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N15" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O15" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P15" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1647,13 +1647,13 @@
         <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O16" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P16" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N17" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="O17" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P17" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O18" t="n">
         <v>270000</v>
       </c>
-      <c r="O18" t="n">
-        <v>300000</v>
-      </c>
       <c r="P18" t="n">
-        <v>285000</v>
+        <v>265000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44329</v>
+        <v>44298</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O19" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P19" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>600</v>
+        <v>711</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44329</v>
+        <v>44298</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N20" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O20" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P20" t="n">
-        <v>245000</v>
+        <v>285000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>544</v>
+        <v>633</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44319</v>
+        <v>44329</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O21" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P21" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N22" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O22" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P22" t="n">
-        <v>275000</v>
+        <v>245000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O23" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P23" t="n">
-        <v>245000</v>
+        <v>290000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N24" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="O24" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P24" t="n">
-        <v>210000</v>
+        <v>275000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44344</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N25" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O25" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P25" t="n">
-        <v>280000</v>
+        <v>245000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>622</v>
+        <v>544</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44344</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="O26" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P26" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2515,25 +2515,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O27" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P27" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2595,25 +2595,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O28" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P28" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O29" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P29" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O30" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P30" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O31" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P31" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>711</v>
+        <v>600</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N32" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="O32" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P32" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N33" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="O33" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="P33" t="n">
-        <v>340000</v>
+        <v>320000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N34" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="O34" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="P34" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>822</v>
+        <v>556</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="O35" t="n">
-        <v>310000</v>
+        <v>340000</v>
       </c>
       <c r="P35" t="n">
-        <v>305000</v>
+        <v>340000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3235,25 +3235,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N36" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="O36" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="P36" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N37" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="O37" t="n">
-        <v>370000</v>
+        <v>310000</v>
       </c>
       <c r="P37" t="n">
-        <v>370000</v>
+        <v>305000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>822</v>
+        <v>678</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N38" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O38" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P38" t="n">
-        <v>285000</v>
+        <v>330000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N39" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="O39" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="P39" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>533</v>
+        <v>822</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44678</v>
+        <v>44313</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N40" t="n">
-        <v>500000</v>
+        <v>270000</v>
       </c>
       <c r="O40" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="P40" t="n">
-        <v>500000</v>
+        <v>285000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1111</v>
+        <v>633</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44678</v>
+        <v>44313</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N41" t="n">
-        <v>470000</v>
+        <v>240000</v>
       </c>
       <c r="O41" t="n">
-        <v>470000</v>
+        <v>240000</v>
       </c>
       <c r="P41" t="n">
-        <v>470000</v>
+        <v>240000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1044</v>
+        <v>533</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44300</v>
+        <v>44678</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>270000</v>
+        <v>500000</v>
       </c>
       <c r="O42" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="P42" t="n">
-        <v>275000</v>
+        <v>500000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44300</v>
+        <v>44678</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>240000</v>
+        <v>470000</v>
       </c>
       <c r="O43" t="n">
-        <v>240000</v>
+        <v>470000</v>
       </c>
       <c r="P43" t="n">
-        <v>240000</v>
+        <v>470000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>533</v>
+        <v>1044</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N44" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O44" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="P44" t="n">
-        <v>450000</v>
+        <v>275000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O45" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="P45" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>756</v>
+        <v>533</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O46" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="P46" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N47" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O47" t="n">
-        <v>290000</v>
+        <v>350000</v>
       </c>
       <c r="P47" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>622</v>
+        <v>756</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N48" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O48" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P48" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4284,16 +4284,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N49" t="n">
         <v>270000</v>
       </c>
       <c r="O49" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P49" t="n">
-        <v>285000</v>
+        <v>280000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4367,13 +4367,13 @@
         <v>15</v>
       </c>
       <c r="N50" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="O50" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P50" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N51" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O51" t="n">
         <v>300000</v>
       </c>
       <c r="P51" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44679</v>
+        <v>44308</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>15</v>
       </c>
       <c r="N52" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="O52" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="P52" t="n">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1067</v>
+        <v>533</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44679</v>
+        <v>44308</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N53" t="n">
-        <v>460000</v>
+        <v>280000</v>
       </c>
       <c r="O53" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P53" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1022</v>
+        <v>644</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4687,13 +4687,13 @@
         <v>15</v>
       </c>
       <c r="N54" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="O54" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="P54" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>578</v>
+        <v>1067</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="N55" t="n">
-        <v>230000</v>
+        <v>460000</v>
       </c>
       <c r="O55" t="n">
-        <v>240000</v>
+        <v>460000</v>
       </c>
       <c r="P55" t="n">
-        <v>235238</v>
+        <v>460000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>523</v>
+        <v>1022</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N56" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="O56" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P56" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N57" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O57" t="n">
-        <v>430000</v>
+        <v>240000</v>
       </c>
       <c r="P57" t="n">
-        <v>415000</v>
+        <v>235238</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>922</v>
+        <v>523</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N58" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="O58" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="P58" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>622</v>
+        <v>400</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5087,13 +5087,13 @@
         <v>14</v>
       </c>
       <c r="N59" t="n">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="O59" t="n">
-        <v>260000</v>
+        <v>430000</v>
       </c>
       <c r="P59" t="n">
-        <v>255000</v>
+        <v>415000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>567</v>
+        <v>922</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N60" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="O60" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P60" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>689</v>
+        <v>622</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5247,13 +5247,13 @@
         <v>14</v>
       </c>
       <c r="N61" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="O61" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P61" t="n">
-        <v>275000</v>
+        <v>255000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N62" t="n">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="O62" t="n">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="P62" t="n">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N63" t="n">
         <v>270000</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N64" t="n">
-        <v>330000</v>
+        <v>315000</v>
       </c>
       <c r="O64" t="n">
-        <v>330000</v>
+        <v>315000</v>
       </c>
       <c r="P64" t="n">
-        <v>330000</v>
+        <v>315000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N65" t="n">
         <v>270000</v>
       </c>
       <c r="O65" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P65" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>15</v>
       </c>
       <c r="N66" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O66" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P66" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N67" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O67" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P67" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N68" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O68" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P68" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N69" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="O69" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P69" t="n">
-        <v>300000</v>
+        <v>265000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5960,20 +5960,20 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N70" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O70" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P70" t="n">
-        <v>265000</v>
+        <v>250000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>10</v>
       </c>
       <c r="N71" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O71" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P71" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6127,13 +6127,13 @@
         <v>18</v>
       </c>
       <c r="N72" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="O72" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="P72" t="n">
-        <v>365000</v>
+        <v>265000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>811</v>
+        <v>589</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6207,13 +6207,13 @@
         <v>10</v>
       </c>
       <c r="N73" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O73" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P73" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N74" t="n">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="O74" t="n">
-        <v>260000</v>
+        <v>370000</v>
       </c>
       <c r="P74" t="n">
-        <v>250000</v>
+        <v>365000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>556</v>
+        <v>811</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N75" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O75" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P75" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,25 +6435,25 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N76" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O76" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P76" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N77" t="n">
         <v>200000</v>
       </c>
       <c r="O77" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P77" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44680</v>
+        <v>44294</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N78" t="n">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="O78" t="n">
-        <v>480000</v>
+        <v>220000</v>
       </c>
       <c r="P78" t="n">
-        <v>480000</v>
+        <v>210000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1067</v>
+        <v>467</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44680</v>
+        <v>44294</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>10</v>
       </c>
       <c r="N79" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="O79" t="n">
-        <v>450000</v>
+        <v>220000</v>
       </c>
       <c r="P79" t="n">
-        <v>450000</v>
+        <v>210000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44350</v>
+        <v>44680</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N80" t="n">
-        <v>250000</v>
+        <v>480000</v>
       </c>
       <c r="O80" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="P80" t="n">
-        <v>255000</v>
+        <v>480000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>567</v>
+        <v>1067</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44351</v>
+        <v>44680</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N81" t="n">
-        <v>260000</v>
+        <v>450000</v>
       </c>
       <c r="O81" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="P81" t="n">
-        <v>265000</v>
+        <v>450000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>589</v>
+        <v>1000</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44307</v>
+        <v>44350</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N82" t="n">
-        <v>390000</v>
+        <v>250000</v>
       </c>
       <c r="O82" t="n">
-        <v>390000</v>
+        <v>260000</v>
       </c>
       <c r="P82" t="n">
-        <v>390000</v>
+        <v>255000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>867</v>
+        <v>567</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44307</v>
+        <v>44351</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N83" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O83" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P83" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>15</v>
       </c>
       <c r="N84" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="O84" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="P84" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44348</v>
+        <v>44307</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N85" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O85" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P85" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7235,25 +7235,25 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>15</v>
       </c>
       <c r="N86" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O86" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="P86" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>711</v>
+        <v>600</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7315,25 +7315,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N87" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="O87" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P87" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N88" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O88" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P88" t="n">
-        <v>285000</v>
+        <v>320000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N89" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="O89" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="P89" t="n">
-        <v>240000</v>
+        <v>350000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N90" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O90" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P90" t="n">
-        <v>320000</v>
+        <v>285000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N91" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="O91" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="P91" t="n">
-        <v>340000</v>
+        <v>240000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>756</v>
+        <v>533</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="O92" t="n">
-        <v>300000</v>
+        <v>320000</v>
       </c>
       <c r="P92" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N93" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O93" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P93" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7880,17 +7880,17 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N94" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="O94" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P94" t="n">
         <v>290000</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N95" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O95" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P95" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>15</v>
       </c>
       <c r="N96" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="O96" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="P96" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N97" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O97" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="P97" t="n">
-        <v>455000</v>
+        <v>270000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1011</v>
+        <v>600</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8195,25 +8195,25 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N98" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O98" t="n">
-        <v>430000</v>
+        <v>230000</v>
       </c>
       <c r="P98" t="n">
-        <v>415000</v>
+        <v>230000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>922</v>
+        <v>511</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N99" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O99" t="n">
-        <v>310000</v>
+        <v>460000</v>
       </c>
       <c r="P99" t="n">
-        <v>290000</v>
+        <v>455000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>644</v>
+        <v>1011</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N100" t="n">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="O100" t="n">
-        <v>240000</v>
+        <v>430000</v>
       </c>
       <c r="P100" t="n">
-        <v>235000</v>
+        <v>415000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>522</v>
+        <v>922</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N101" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O101" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="P101" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8524,20 +8524,20 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N102" t="n">
-        <v>13000</v>
+        <v>230000</v>
       </c>
       <c r="O102" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="P102" t="n">
-        <v>13000</v>
+        <v>235000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -8546,10 +8546,10 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>812</v>
+        <v>522</v>
       </c>
       <c r="T102" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="103">
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8604,20 +8604,20 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N103" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O103" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P103" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>688</v>
+        <v>444</v>
       </c>
       <c r="T103" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104">
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44343</v>
+        <v>44358</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8684,20 +8684,20 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="N104" t="n">
-        <v>270000</v>
+        <v>13000</v>
       </c>
       <c r="O104" t="n">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="P104" t="n">
-        <v>275000</v>
+        <v>13000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>611</v>
+        <v>812</v>
       </c>
       <c r="T104" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44343</v>
+        <v>44358</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8764,20 +8764,20 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N105" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="O105" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="P105" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>511</v>
+        <v>688</v>
       </c>
       <c r="T105" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N106" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O106" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P106" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8915,25 +8915,25 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N107" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O107" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P107" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N108" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O108" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P108" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N109" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="O109" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="P109" t="n">
-        <v>420000</v>
+        <v>280000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>933</v>
+        <v>622</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9155,25 +9155,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N110" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="O110" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P110" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>733</v>
+        <v>511</v>
       </c>
       <c r="T110" t="n">
         <v>450</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N111" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="O111" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P111" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>622</v>
+        <v>933</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44335</v>
+        <v>44301</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N112" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O112" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P112" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44335</v>
+        <v>44301</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N113" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O113" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P113" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N114" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O114" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P114" t="n">
-        <v>225000</v>
+        <v>265000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>500</v>
+        <v>589</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N115" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O115" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P115" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N116" t="n">
-        <v>320000</v>
+        <v>220000</v>
       </c>
       <c r="O116" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P116" t="n">
-        <v>320000</v>
+        <v>225000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>711</v>
+        <v>500</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N117" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="O117" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P117" t="n">
-        <v>295000</v>
+        <v>200000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>656</v>
+        <v>444</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9807,13 +9807,13 @@
         <v>12</v>
       </c>
       <c r="N118" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O118" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P118" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N119" t="n">
-        <v>350000</v>
+        <v>290000</v>
       </c>
       <c r="O119" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P119" t="n">
-        <v>350000</v>
+        <v>295000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>778</v>
+        <v>656</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N120" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="O120" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P120" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44357</v>
+        <v>44314</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,24 +10040,24 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="N121" t="n">
-        <v>8000</v>
+        <v>350000</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>350000</v>
       </c>
       <c r="P121" t="n">
-        <v>8500</v>
+        <v>350000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -10066,10 +10066,10 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>531</v>
+        <v>778</v>
       </c>
       <c r="T121" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -10115,25 +10115,25 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N122" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="O122" t="n">
         <v>300000</v>
       </c>
       <c r="P122" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="T122" t="n">
         <v>450</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44306</v>
+        <v>44357</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -10204,32 +10204,32 @@
         </is>
       </c>
       <c r="M123" t="n">
+        <v>140</v>
+      </c>
+      <c r="N123" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O123" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P123" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S123" t="n">
+        <v>531</v>
+      </c>
+      <c r="T123" t="n">
         <v>16</v>
-      </c>
-      <c r="N123" t="n">
-        <v>270000</v>
-      </c>
-      <c r="O123" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P123" t="n">
-        <v>275000</v>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S123" t="n">
-        <v>611</v>
-      </c>
-      <c r="T123" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="124">
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N124" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O124" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P124" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T124" t="n">
         <v>450</v>
@@ -10355,25 +10355,25 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N125" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O125" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P125" t="n">
-        <v>300000</v>
+        <v>275000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T125" t="n">
         <v>450</v>
@@ -10435,25 +10435,25 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N126" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O126" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P126" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T126" t="n">
         <v>450</v>
@@ -10520,35 +10520,195 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>7</v>
+      </c>
+      <c r="N127" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O127" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P127" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S127" t="n">
+        <v>667</v>
+      </c>
+      <c r="T127" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>14</v>
+      </c>
+      <c r="N128" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O128" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P128" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S128" t="n">
+        <v>578</v>
+      </c>
+      <c r="T128" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="M129" t="n">
         <v>12</v>
       </c>
-      <c r="N127" t="n">
+      <c r="N129" t="n">
         <v>240000</v>
       </c>
-      <c r="O127" t="n">
+      <c r="O129" t="n">
         <v>240000</v>
       </c>
-      <c r="P127" t="n">
+      <c r="P129" t="n">
         <v>240000</v>
       </c>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S127" t="n">
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S129" t="n">
         <v>533</v>
       </c>
-      <c r="T127" t="n">
+      <c r="T129" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44298</v>
+        <v>44690</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N19" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="O19" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="P19" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>711</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44298</v>
+        <v>44690</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O20" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="P20" t="n">
-        <v>285000</v>
+        <v>400000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>633</v>
+        <v>889</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44329</v>
+        <v>44690</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="O21" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="P21" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>600</v>
+        <v>844</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44329</v>
+        <v>44298</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O22" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P22" t="n">
-        <v>245000</v>
+        <v>320000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>544</v>
+        <v>711</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44319</v>
+        <v>44298</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N23" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O23" t="n">
         <v>300000</v>
       </c>
       <c r="P23" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
         <v>270000</v>
       </c>
       <c r="O24" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P24" t="n">
-        <v>275000</v>
+        <v>270000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O26" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="P26" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44344</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N27" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O27" t="n">
         <v>280000</v>
       </c>
       <c r="P27" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44344</v>
+        <v>44326</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N28" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O28" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P28" t="n">
-        <v>230000</v>
+        <v>245000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44316</v>
+        <v>44326</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2675,25 +2675,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="O29" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P29" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O30" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P30" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2835,25 +2835,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N31" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O31" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P31" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N32" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O32" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P32" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N33" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O33" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P33" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N34" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O34" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P34" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N35" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O35" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="P35" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>756</v>
+        <v>622</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N36" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="O36" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="P36" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N37" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O37" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="P37" t="n">
-        <v>305000</v>
+        <v>250000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>678</v>
+        <v>556</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="O38" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="P38" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N39" t="n">
         <v>370000</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3567,13 +3567,13 @@
         <v>16</v>
       </c>
       <c r="N40" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O40" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P40" t="n">
-        <v>285000</v>
+        <v>305000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N41" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O41" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P41" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44678</v>
+        <v>44313</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>500000</v>
+        <v>370000</v>
       </c>
       <c r="O42" t="n">
-        <v>500000</v>
+        <v>370000</v>
       </c>
       <c r="P42" t="n">
-        <v>500000</v>
+        <v>370000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1111</v>
+        <v>822</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44678</v>
+        <v>44313</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N43" t="n">
-        <v>470000</v>
+        <v>270000</v>
       </c>
       <c r="O43" t="n">
-        <v>470000</v>
+        <v>300000</v>
       </c>
       <c r="P43" t="n">
-        <v>470000</v>
+        <v>285000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1044</v>
+        <v>633</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N44" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O44" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P44" t="n">
-        <v>275000</v>
+        <v>240000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44300</v>
+        <v>44678</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3955,25 +3955,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>240000</v>
+        <v>500000</v>
       </c>
       <c r="O45" t="n">
-        <v>240000</v>
+        <v>500000</v>
       </c>
       <c r="P45" t="n">
-        <v>240000</v>
+        <v>500000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>533</v>
+        <v>1111</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44300</v>
+        <v>44678</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>450000</v>
+        <v>470000</v>
       </c>
       <c r="O46" t="n">
-        <v>450000</v>
+        <v>470000</v>
       </c>
       <c r="P46" t="n">
-        <v>450000</v>
+        <v>470000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1000</v>
+        <v>1044</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N47" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O47" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P47" t="n">
-        <v>340000</v>
+        <v>275000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>756</v>
+        <v>611</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4207,13 +4207,13 @@
         <v>10</v>
       </c>
       <c r="N48" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O48" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P48" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N49" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O49" t="n">
-        <v>290000</v>
+        <v>450000</v>
       </c>
       <c r="P49" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>622</v>
+        <v>1000</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4355,25 +4355,25 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N50" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="O50" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P50" t="n">
-        <v>220000</v>
+        <v>340000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>489</v>
+        <v>756</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N51" t="n">
         <v>270000</v>
       </c>
       <c r="O51" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P51" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N52" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O52" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P52" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N53" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="O53" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P53" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>644</v>
+        <v>489</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44679</v>
+        <v>44308</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N54" t="n">
-        <v>480000</v>
+        <v>270000</v>
       </c>
       <c r="O54" t="n">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="P54" t="n">
-        <v>480000</v>
+        <v>285000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1067</v>
+        <v>633</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44679</v>
+        <v>44308</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N55" t="n">
-        <v>460000</v>
+        <v>240000</v>
       </c>
       <c r="O55" t="n">
-        <v>460000</v>
+        <v>240000</v>
       </c>
       <c r="P55" t="n">
-        <v>460000</v>
+        <v>240000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1022</v>
+        <v>533</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4840,20 +4840,20 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N56" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O56" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P56" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4920,20 +4920,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N57" t="n">
-        <v>230000</v>
+        <v>480000</v>
       </c>
       <c r="O57" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="P57" t="n">
-        <v>235238</v>
+        <v>480000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>523</v>
+        <v>1067</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>20</v>
       </c>
       <c r="N58" t="n">
-        <v>180000</v>
+        <v>460000</v>
       </c>
       <c r="O58" t="n">
-        <v>180000</v>
+        <v>460000</v>
       </c>
       <c r="P58" t="n">
-        <v>180000</v>
+        <v>460000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>400</v>
+        <v>1022</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5075,25 +5075,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N59" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O59" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="P59" t="n">
-        <v>415000</v>
+        <v>260000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>922</v>
+        <v>578</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N60" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O60" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P60" t="n">
-        <v>280000</v>
+        <v>235238</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="S60" t="n">
-        <v>622</v>
+        <v>523</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N61" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O61" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P61" t="n">
-        <v>255000</v>
+        <v>180000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>567</v>
+        <v>400</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5320,20 +5320,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N62" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="O62" t="n">
-        <v>310000</v>
+        <v>430000</v>
       </c>
       <c r="P62" t="n">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>689</v>
+        <v>922</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N63" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O63" t="n">
         <v>280000</v>
       </c>
       <c r="P63" t="n">
-        <v>275000</v>
+        <v>280000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N64" t="n">
-        <v>315000</v>
+        <v>250000</v>
       </c>
       <c r="O64" t="n">
-        <v>315000</v>
+        <v>260000</v>
       </c>
       <c r="P64" t="n">
-        <v>315000</v>
+        <v>255000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N65" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O65" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P65" t="n">
-        <v>275000</v>
+        <v>310000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N66" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O66" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P66" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N67" t="n">
-        <v>270000</v>
+        <v>315000</v>
       </c>
       <c r="O67" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="P67" t="n">
-        <v>285000</v>
+        <v>315000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>633</v>
+        <v>700</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N68" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O68" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P68" t="n">
-        <v>200000</v>
+        <v>275000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N69" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O69" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P69" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N70" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O70" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P70" t="n">
-        <v>250000</v>
+        <v>285000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44320</v>
+        <v>44293</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N71" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O71" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P71" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N72" t="n">
         <v>260000</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N73" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O73" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P73" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N74" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="O74" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P74" t="n">
-        <v>365000</v>
+        <v>300000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>811</v>
+        <v>667</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,25 +6355,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N75" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O75" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P75" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6440,20 +6440,20 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N76" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O76" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P76" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N77" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="O77" t="n">
-        <v>200000</v>
+        <v>370000</v>
       </c>
       <c r="P77" t="n">
-        <v>200000</v>
+        <v>365000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>444</v>
+        <v>811</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N78" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O78" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P78" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N79" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O79" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P79" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44680</v>
+        <v>44327</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N80" t="n">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="O80" t="n">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="P80" t="n">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1067</v>
+        <v>444</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44680</v>
+        <v>44294</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,25 +6835,25 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N81" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="O81" t="n">
-        <v>450000</v>
+        <v>220000</v>
       </c>
       <c r="P81" t="n">
-        <v>450000</v>
+        <v>210000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44350</v>
+        <v>44294</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N82" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O82" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P82" t="n">
-        <v>255000</v>
+        <v>210000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44351</v>
+        <v>44680</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N83" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="O83" t="n">
-        <v>270000</v>
+        <v>480000</v>
       </c>
       <c r="P83" t="n">
-        <v>265000</v>
+        <v>480000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>589</v>
+        <v>1067</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44307</v>
+        <v>44680</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N84" t="n">
-        <v>390000</v>
+        <v>450000</v>
       </c>
       <c r="O84" t="n">
-        <v>390000</v>
+        <v>450000</v>
       </c>
       <c r="P84" t="n">
-        <v>390000</v>
+        <v>450000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44307</v>
+        <v>44350</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N85" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O85" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P85" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44307</v>
+        <v>44351</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N86" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O86" t="n">
         <v>270000</v>
       </c>
       <c r="P86" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44348</v>
+        <v>44307</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="O87" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="P87" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>622</v>
+        <v>867</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N88" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O88" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P88" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>15</v>
       </c>
       <c r="N89" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O89" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P89" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N90" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O90" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P90" t="n">
-        <v>285000</v>
+        <v>280000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N91" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O91" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P91" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="O92" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P92" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N93" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="O93" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="P93" t="n">
-        <v>340000</v>
+        <v>285000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>756</v>
+        <v>633</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N94" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O94" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P94" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>644</v>
+        <v>533</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N95" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O95" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P95" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>578</v>
+        <v>711</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>15</v>
       </c>
       <c r="N96" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="O96" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="P96" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>644</v>
+        <v>756</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N97" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O97" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P97" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N98" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O98" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P98" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8284,16 +8284,16 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N99" t="n">
-        <v>450000</v>
+        <v>290000</v>
       </c>
       <c r="O99" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="P99" t="n">
-        <v>455000</v>
+        <v>290000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1011</v>
+        <v>644</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N100" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O100" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P100" t="n">
-        <v>415000</v>
+        <v>270000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>922</v>
+        <v>600</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O101" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P101" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>644</v>
+        <v>511</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N102" t="n">
-        <v>230000</v>
+        <v>450000</v>
       </c>
       <c r="O102" t="n">
-        <v>240000</v>
+        <v>460000</v>
       </c>
       <c r="P102" t="n">
-        <v>235000</v>
+        <v>455000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>522</v>
+        <v>1011</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8595,25 +8595,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N103" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O103" t="n">
-        <v>200000</v>
+        <v>430000</v>
       </c>
       <c r="P103" t="n">
-        <v>200000</v>
+        <v>415000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>444</v>
+        <v>922</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8680,24 +8680,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N104" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="O104" t="n">
-        <v>13000</v>
+        <v>310000</v>
       </c>
       <c r="P104" t="n">
-        <v>13000</v>
+        <v>290000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>812</v>
+        <v>644</v>
       </c>
       <c r="T104" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8760,24 +8760,24 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N105" t="n">
-        <v>11000</v>
+        <v>230000</v>
       </c>
       <c r="O105" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="P105" t="n">
-        <v>11000</v>
+        <v>235000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>688</v>
+        <v>522</v>
       </c>
       <c r="T105" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44343</v>
+        <v>44323</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N106" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O106" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P106" t="n">
-        <v>275000</v>
+        <v>200000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44343</v>
+        <v>44358</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N107" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="O107" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="P107" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>511</v>
+        <v>812</v>
       </c>
       <c r="T107" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44301</v>
+        <v>44358</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,29 +8995,29 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="N108" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="O108" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="P108" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="T108" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N109" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O109" t="n">
         <v>280000</v>
       </c>
       <c r="P109" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N111" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="O111" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P111" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T111" t="n">
         <v>450</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N112" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O112" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P112" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -9407,13 +9407,13 @@
         <v>15</v>
       </c>
       <c r="N113" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O113" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P113" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44335</v>
+        <v>44301</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N114" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="O114" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="P114" t="n">
-        <v>265000</v>
+        <v>420000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>589</v>
+        <v>933</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44335</v>
+        <v>44301</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N115" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O115" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P115" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N116" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O116" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P116" t="n">
-        <v>225000</v>
+        <v>280000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N117" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O117" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P117" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N118" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O118" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P118" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N119" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="O119" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P119" t="n">
-        <v>295000</v>
+        <v>225000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N120" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O120" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P120" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9982,11 +9982,11 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10035,25 +10035,25 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N121" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O121" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="P121" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N122" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O122" t="n">
         <v>300000</v>
       </c>
       <c r="P122" t="n">
-        <v>290000</v>
+        <v>295000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="T122" t="n">
         <v>450</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44357</v>
+        <v>44314</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -10200,24 +10200,24 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="N123" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="O123" t="n">
-        <v>9000</v>
+        <v>330000</v>
       </c>
       <c r="P123" t="n">
-        <v>8500</v>
+        <v>330000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -10226,10 +10226,10 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>531</v>
+        <v>733</v>
       </c>
       <c r="T123" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N124" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O124" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P124" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T124" t="n">
         <v>450</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N125" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O125" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P125" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T125" t="n">
         <v>450</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44306</v>
+        <v>44357</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -10435,29 +10435,29 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="N126" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O126" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="P126" t="n">
-        <v>250000</v>
+        <v>8500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="T126" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N127" t="n">
         <v>300000</v>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N128" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O128" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P128" t="n">
-        <v>260000</v>
+        <v>275000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="T128" t="n">
         <v>450</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -10687,28 +10687,268 @@
         <v>12</v>
       </c>
       <c r="N129" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O129" t="n">
+        <v>250000</v>
+      </c>
+      <c r="P129" t="n">
+        <v>250000</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S129" t="n">
+        <v>556</v>
+      </c>
+      <c r="T129" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E130" t="n">
+        <v>13</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>7</v>
+      </c>
+      <c r="N130" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O130" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P130" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S130" t="n">
+        <v>667</v>
+      </c>
+      <c r="T130" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>14</v>
+      </c>
+      <c r="N131" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O131" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P131" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S131" t="n">
+        <v>578</v>
+      </c>
+      <c r="T131" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>6</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>12</v>
+      </c>
+      <c r="N132" t="n">
         <v>240000</v>
       </c>
-      <c r="O129" t="n">
+      <c r="O132" t="n">
         <v>240000</v>
       </c>
-      <c r="P129" t="n">
+      <c r="P132" t="n">
         <v>240000</v>
       </c>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S129" t="n">
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S132" t="n">
         <v>533</v>
       </c>
-      <c r="T129" t="n">
+      <c r="T132" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T132"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44349</v>
+        <v>44691</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>290000</v>
+        <v>420000</v>
       </c>
       <c r="O5" t="n">
-        <v>290000</v>
+        <v>420000</v>
       </c>
       <c r="P5" t="n">
-        <v>290000</v>
+        <v>420000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>644</v>
+        <v>933</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44349</v>
+        <v>44691</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="O6" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="P6" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>600</v>
+        <v>822</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44691</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -915,25 +915,25 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>330000</v>
+        <v>360000</v>
       </c>
       <c r="O7" t="n">
-        <v>330000</v>
+        <v>360000</v>
       </c>
       <c r="P7" t="n">
-        <v>330000</v>
+        <v>360000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44349</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="O8" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P8" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44349</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O9" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P9" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O10" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P10" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1247,13 +1247,13 @@
         <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="O11" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P11" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O12" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P12" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44687</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="O13" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="P13" t="n">
-        <v>400000</v>
+        <v>320000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>889</v>
+        <v>711</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44687</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>380000</v>
+        <v>290000</v>
       </c>
       <c r="O14" t="n">
-        <v>380000</v>
+        <v>290000</v>
       </c>
       <c r="P14" t="n">
-        <v>380000</v>
+        <v>290000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>844</v>
+        <v>644</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O15" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P15" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44312</v>
+        <v>44687</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O16" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="P16" t="n">
-        <v>285000</v>
+        <v>400000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>633</v>
+        <v>889</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44312</v>
+        <v>44687</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="O17" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="P17" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>844</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1795,25 +1795,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N18" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O18" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P18" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44690</v>
+        <v>44312</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O19" t="n">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="P19" t="n">
-        <v>450000</v>
+        <v>285000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>633</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44690</v>
+        <v>44312</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N20" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O20" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="P20" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44690</v>
+        <v>44312</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N21" t="n">
-        <v>380000</v>
+        <v>260000</v>
       </c>
       <c r="O21" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="P21" t="n">
-        <v>380000</v>
+        <v>265000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>844</v>
+        <v>589</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44298</v>
+        <v>44690</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N22" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="O22" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="P22" t="n">
-        <v>320000</v>
+        <v>450000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>711</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44298</v>
+        <v>44690</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O23" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="P23" t="n">
-        <v>285000</v>
+        <v>400000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>633</v>
+        <v>889</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44329</v>
+        <v>44690</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="O24" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="P24" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>600</v>
+        <v>844</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44329</v>
+        <v>44298</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O25" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="P25" t="n">
-        <v>245000</v>
+        <v>320000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>544</v>
+        <v>711</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44319</v>
+        <v>44298</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N26" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O26" t="n">
         <v>300000</v>
       </c>
       <c r="P26" t="n">
-        <v>290000</v>
+        <v>285000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
         <v>270000</v>
       </c>
       <c r="O27" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="P27" t="n">
-        <v>275000</v>
+        <v>270000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="O29" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="P29" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44344</v>
+        <v>44326</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N30" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O30" t="n">
         <v>280000</v>
       </c>
       <c r="P30" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44344</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N31" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O31" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P31" t="n">
-        <v>230000</v>
+        <v>245000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44316</v>
+        <v>44326</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="O32" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P32" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2995,25 +2995,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O33" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P33" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3075,25 +3075,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O34" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P34" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N35" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O35" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P35" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N36" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O36" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P36" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N37" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O37" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P37" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N38" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="O38" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="P38" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>756</v>
+        <v>622</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N39" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="O39" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="P39" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>822</v>
+        <v>711</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N40" t="n">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="O40" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="P40" t="n">
-        <v>305000</v>
+        <v>250000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>678</v>
+        <v>556</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N41" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="O41" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="P41" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N42" t="n">
         <v>370000</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3807,13 +3807,13 @@
         <v>16</v>
       </c>
       <c r="N43" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O43" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P43" t="n">
-        <v>285000</v>
+        <v>305000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N44" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O44" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P44" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44678</v>
+        <v>44313</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>500000</v>
+        <v>370000</v>
       </c>
       <c r="O45" t="n">
-        <v>500000</v>
+        <v>370000</v>
       </c>
       <c r="P45" t="n">
-        <v>500000</v>
+        <v>370000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1111</v>
+        <v>822</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44678</v>
+        <v>44313</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N46" t="n">
-        <v>470000</v>
+        <v>270000</v>
       </c>
       <c r="O46" t="n">
-        <v>470000</v>
+        <v>300000</v>
       </c>
       <c r="P46" t="n">
-        <v>470000</v>
+        <v>285000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1044</v>
+        <v>633</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N47" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O47" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P47" t="n">
-        <v>275000</v>
+        <v>240000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44300</v>
+        <v>44678</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4195,25 +4195,25 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>10</v>
       </c>
       <c r="N48" t="n">
-        <v>240000</v>
+        <v>500000</v>
       </c>
       <c r="O48" t="n">
-        <v>240000</v>
+        <v>500000</v>
       </c>
       <c r="P48" t="n">
-        <v>240000</v>
+        <v>500000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>533</v>
+        <v>1111</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44300</v>
+        <v>44678</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>15</v>
       </c>
       <c r="N49" t="n">
-        <v>450000</v>
+        <v>470000</v>
       </c>
       <c r="O49" t="n">
-        <v>450000</v>
+        <v>470000</v>
       </c>
       <c r="P49" t="n">
-        <v>450000</v>
+        <v>470000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1000</v>
+        <v>1044</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N50" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O50" t="n">
-        <v>350000</v>
+        <v>280000</v>
       </c>
       <c r="P50" t="n">
-        <v>340000</v>
+        <v>275000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>756</v>
+        <v>611</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4447,13 +4447,13 @@
         <v>10</v>
       </c>
       <c r="N51" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O51" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P51" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N52" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O52" t="n">
-        <v>290000</v>
+        <v>450000</v>
       </c>
       <c r="P52" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>622</v>
+        <v>1000</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44295</v>
+        <v>44300</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4595,25 +4595,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N53" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="O53" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P53" t="n">
-        <v>220000</v>
+        <v>340000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>489</v>
+        <v>756</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44308</v>
+        <v>44300</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4675,25 +4675,25 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N54" t="n">
         <v>270000</v>
       </c>
       <c r="O54" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P54" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N55" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O55" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P55" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N56" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="O56" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P56" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>644</v>
+        <v>489</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44679</v>
+        <v>44308</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N57" t="n">
-        <v>480000</v>
+        <v>270000</v>
       </c>
       <c r="O57" t="n">
-        <v>480000</v>
+        <v>300000</v>
       </c>
       <c r="P57" t="n">
-        <v>480000</v>
+        <v>285000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4942,11 +4942,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1067</v>
+        <v>633</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44679</v>
+        <v>44308</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N58" t="n">
-        <v>460000</v>
+        <v>240000</v>
       </c>
       <c r="O58" t="n">
-        <v>460000</v>
+        <v>240000</v>
       </c>
       <c r="P58" t="n">
-        <v>460000</v>
+        <v>240000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5022,11 +5022,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S58" t="n">
-        <v>1022</v>
+        <v>533</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N59" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O59" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P59" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="S59" t="n">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="T59" t="n">
         <v>450</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N60" t="n">
-        <v>230000</v>
+        <v>480000</v>
       </c>
       <c r="O60" t="n">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="P60" t="n">
-        <v>235238</v>
+        <v>480000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>523</v>
+        <v>1067</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>20</v>
       </c>
       <c r="N61" t="n">
-        <v>180000</v>
+        <v>460000</v>
       </c>
       <c r="O61" t="n">
-        <v>180000</v>
+        <v>460000</v>
       </c>
       <c r="P61" t="n">
-        <v>180000</v>
+        <v>460000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>400</v>
+        <v>1022</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,25 +5315,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N62" t="n">
-        <v>400000</v>
+        <v>260000</v>
       </c>
       <c r="O62" t="n">
-        <v>430000</v>
+        <v>260000</v>
       </c>
       <c r="P62" t="n">
-        <v>415000</v>
+        <v>260000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>922</v>
+        <v>578</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N63" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O63" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P63" t="n">
-        <v>280000</v>
+        <v>235238</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>622</v>
+        <v>523</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N64" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O64" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P64" t="n">
-        <v>255000</v>
+        <v>180000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>567</v>
+        <v>400</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N65" t="n">
-        <v>310000</v>
+        <v>400000</v>
       </c>
       <c r="O65" t="n">
-        <v>310000</v>
+        <v>430000</v>
       </c>
       <c r="P65" t="n">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>689</v>
+        <v>922</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5635,25 +5635,25 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N66" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O66" t="n">
         <v>280000</v>
       </c>
       <c r="P66" t="n">
-        <v>275000</v>
+        <v>280000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44309</v>
+        <v>44322</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N67" t="n">
-        <v>315000</v>
+        <v>250000</v>
       </c>
       <c r="O67" t="n">
-        <v>315000</v>
+        <v>260000</v>
       </c>
       <c r="P67" t="n">
-        <v>315000</v>
+        <v>255000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N68" t="n">
-        <v>270000</v>
+        <v>310000</v>
       </c>
       <c r="O68" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P68" t="n">
-        <v>275000</v>
+        <v>310000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N69" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="O69" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P69" t="n">
-        <v>330000</v>
+        <v>275000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N70" t="n">
-        <v>270000</v>
+        <v>315000</v>
       </c>
       <c r="O70" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="P70" t="n">
-        <v>285000</v>
+        <v>315000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>633</v>
+        <v>700</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44293</v>
+        <v>44309</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6040,20 +6040,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N71" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="O71" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="P71" t="n">
-        <v>200000</v>
+        <v>275000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,25 +6115,25 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N72" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O72" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P72" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44333</v>
+        <v>44293</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,25 +6195,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N73" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O73" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P73" t="n">
-        <v>250000</v>
+        <v>285000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44320</v>
+        <v>44293</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N74" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="O74" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P74" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N75" t="n">
         <v>260000</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N76" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O76" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P76" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T76" t="n">
         <v>450</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6515,25 +6515,25 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N77" t="n">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="O77" t="n">
-        <v>370000</v>
+        <v>300000</v>
       </c>
       <c r="P77" t="n">
-        <v>365000</v>
+        <v>300000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>811</v>
+        <v>667</v>
       </c>
       <c r="T77" t="n">
         <v>450</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6595,25 +6595,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N78" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="O78" t="n">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="P78" t="n">
-        <v>330000</v>
+        <v>265000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N79" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="O79" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P79" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6755,25 +6755,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N80" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="O80" t="n">
-        <v>200000</v>
+        <v>370000</v>
       </c>
       <c r="P80" t="n">
-        <v>200000</v>
+        <v>365000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>444</v>
+        <v>811</v>
       </c>
       <c r="T80" t="n">
         <v>450</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N81" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O81" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P81" t="n">
-        <v>210000</v>
+        <v>330000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>467</v>
+        <v>733</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44294</v>
+        <v>44327</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N82" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O82" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P82" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44680</v>
+        <v>44327</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N83" t="n">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="O83" t="n">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="P83" t="n">
-        <v>480000</v>
+        <v>200000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1067</v>
+        <v>444</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44680</v>
+        <v>44294</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N84" t="n">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="O84" t="n">
-        <v>450000</v>
+        <v>220000</v>
       </c>
       <c r="P84" t="n">
-        <v>450000</v>
+        <v>210000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44350</v>
+        <v>44294</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N85" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O85" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P85" t="n">
-        <v>255000</v>
+        <v>210000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44351</v>
+        <v>44680</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="O86" t="n">
-        <v>270000</v>
+        <v>480000</v>
       </c>
       <c r="P86" t="n">
-        <v>265000</v>
+        <v>480000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>589</v>
+        <v>1067</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44307</v>
+        <v>44680</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N87" t="n">
-        <v>390000</v>
+        <v>450000</v>
       </c>
       <c r="O87" t="n">
-        <v>390000</v>
+        <v>450000</v>
       </c>
       <c r="P87" t="n">
-        <v>390000</v>
+        <v>450000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44307</v>
+        <v>44350</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N88" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="O88" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P88" t="n">
-        <v>330000</v>
+        <v>255000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44307</v>
+        <v>44351</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N89" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O89" t="n">
         <v>270000</v>
       </c>
       <c r="P89" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44348</v>
+        <v>44307</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N90" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="O90" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="P90" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>622</v>
+        <v>867</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N91" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O91" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P91" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44315</v>
+        <v>44307</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7715,25 +7715,25 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="O92" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="P92" t="n">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44315</v>
+        <v>44348</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N93" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O93" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P93" t="n">
-        <v>285000</v>
+        <v>280000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N94" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="O94" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="P94" t="n">
-        <v>240000</v>
+        <v>320000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>15</v>
       </c>
       <c r="N95" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="O95" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="P95" t="n">
-        <v>320000</v>
+        <v>350000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N96" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="O96" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="P96" t="n">
-        <v>340000</v>
+        <v>285000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>756</v>
+        <v>633</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N97" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O97" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P97" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>644</v>
+        <v>533</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N98" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="O98" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P98" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>578</v>
+        <v>711</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>15</v>
       </c>
       <c r="N99" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="O99" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="P99" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>644</v>
+        <v>756</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N100" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O100" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P100" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44334</v>
+        <v>44315</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N101" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O101" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P101" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N102" t="n">
-        <v>450000</v>
+        <v>290000</v>
       </c>
       <c r="O102" t="n">
-        <v>460000</v>
+        <v>290000</v>
       </c>
       <c r="P102" t="n">
-        <v>455000</v>
+        <v>290000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1011</v>
+        <v>644</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8604,16 +8604,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N103" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O103" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P103" t="n">
-        <v>415000</v>
+        <v>270000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>922</v>
+        <v>600</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44323</v>
+        <v>44334</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N104" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O104" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P104" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>644</v>
+        <v>511</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N105" t="n">
-        <v>230000</v>
+        <v>450000</v>
       </c>
       <c r="O105" t="n">
-        <v>240000</v>
+        <v>460000</v>
       </c>
       <c r="P105" t="n">
-        <v>235000</v>
+        <v>455000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>522</v>
+        <v>1011</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N106" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="O106" t="n">
-        <v>200000</v>
+        <v>430000</v>
       </c>
       <c r="P106" t="n">
-        <v>200000</v>
+        <v>415000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>444</v>
+        <v>922</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,24 +8920,24 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="N107" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="O107" t="n">
-        <v>13000</v>
+        <v>310000</v>
       </c>
       <c r="P107" t="n">
-        <v>13000</v>
+        <v>290000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>812</v>
+        <v>644</v>
       </c>
       <c r="T107" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44358</v>
+        <v>44323</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -9000,24 +9000,24 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N108" t="n">
-        <v>11000</v>
+        <v>230000</v>
       </c>
       <c r="O108" t="n">
-        <v>11000</v>
+        <v>240000</v>
       </c>
       <c r="P108" t="n">
-        <v>11000</v>
+        <v>235000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -9026,10 +9026,10 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>688</v>
+        <v>522</v>
       </c>
       <c r="T108" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44343</v>
+        <v>44323</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N109" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O109" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P109" t="n">
-        <v>275000</v>
+        <v>200000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44343</v>
+        <v>44358</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9160,24 +9160,24 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N110" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="O110" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="P110" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>511</v>
+        <v>812</v>
       </c>
       <c r="T110" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44301</v>
+        <v>44358</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9235,29 +9235,29 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="N111" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="O111" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="P111" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="T111" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N112" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O112" t="n">
         <v>280000</v>
       </c>
       <c r="P112" t="n">
-        <v>280000</v>
+        <v>275000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44301</v>
+        <v>44343</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N114" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="O114" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="P114" t="n">
-        <v>420000</v>
+        <v>330000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N115" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="O115" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P115" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>733</v>
+        <v>622</v>
       </c>
       <c r="T115" t="n">
         <v>450</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -9647,13 +9647,13 @@
         <v>15</v>
       </c>
       <c r="N116" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="O116" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P116" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44335</v>
+        <v>44301</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N117" t="n">
-        <v>260000</v>
+        <v>420000</v>
       </c>
       <c r="O117" t="n">
-        <v>270000</v>
+        <v>420000</v>
       </c>
       <c r="P117" t="n">
-        <v>265000</v>
+        <v>420000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>589</v>
+        <v>933</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44335</v>
+        <v>44301</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N118" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="O118" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="P118" t="n">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>511</v>
+        <v>733</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N119" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O119" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P119" t="n">
-        <v>225000</v>
+        <v>280000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N120" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O120" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P120" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9982,11 +9982,11 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S120" t="n">
-        <v>444</v>
+        <v>589</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44314</v>
+        <v>44335</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10035,25 +10035,25 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N121" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O121" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P121" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N122" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="O122" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P122" t="n">
-        <v>295000</v>
+        <v>225000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T122" t="n">
         <v>450</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N123" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="O123" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P123" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>733</v>
+        <v>444</v>
       </c>
       <c r="T123" t="n">
         <v>450</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N124" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="O124" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="P124" t="n">
-        <v>350000</v>
+        <v>320000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="T124" t="n">
         <v>450</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N125" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O125" t="n">
         <v>300000</v>
       </c>
       <c r="P125" t="n">
-        <v>290000</v>
+        <v>295000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="T125" t="n">
         <v>450</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44357</v>
+        <v>44314</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -10440,24 +10440,24 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="N126" t="n">
-        <v>8000</v>
+        <v>330000</v>
       </c>
       <c r="O126" t="n">
-        <v>9000</v>
+        <v>330000</v>
       </c>
       <c r="P126" t="n">
-        <v>8500</v>
+        <v>330000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>531</v>
+        <v>733</v>
       </c>
       <c r="T126" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -10515,25 +10515,25 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N127" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="O127" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P127" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T127" t="n">
         <v>450</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44306</v>
+        <v>44314</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N128" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O128" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P128" t="n">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="T128" t="n">
         <v>450</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44306</v>
+        <v>44357</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -10675,29 +10675,29 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="N129" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O129" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="P129" t="n">
-        <v>250000</v>
+        <v>8500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="T129" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -10764,7 +10764,7 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N130" t="n">
         <v>300000</v>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N131" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O131" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P131" t="n">
-        <v>260000</v>
+        <v>275000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="T131" t="n">
         <v>450</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10927,28 +10927,268 @@
         <v>12</v>
       </c>
       <c r="N132" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O132" t="n">
+        <v>250000</v>
+      </c>
+      <c r="P132" t="n">
+        <v>250000</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S132" t="n">
+        <v>556</v>
+      </c>
+      <c r="T132" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>6</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>7</v>
+      </c>
+      <c r="N133" t="n">
+        <v>300000</v>
+      </c>
+      <c r="O133" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P133" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S133" t="n">
+        <v>667</v>
+      </c>
+      <c r="T133" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>6</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>14</v>
+      </c>
+      <c r="N134" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O134" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P134" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S134" t="n">
+        <v>578</v>
+      </c>
+      <c r="T134" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="E135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>12</v>
+      </c>
+      <c r="N135" t="n">
         <v>240000</v>
       </c>
-      <c r="O132" t="n">
+      <c r="O135" t="n">
         <v>240000</v>
       </c>
-      <c r="P132" t="n">
+      <c r="P135" t="n">
         <v>240000</v>
       </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S132" t="n">
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S135" t="n">
         <v>533</v>
       </c>
-      <c r="T132" t="n">
+      <c r="T135" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T135"/>
+  <dimension ref="A1:T137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44302</v>
+        <v>44335</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>420000</v>
+        <v>260000</v>
       </c>
       <c r="O2" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="P2" t="n">
-        <v>420000</v>
+        <v>265000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>933</v>
+        <v>589</v>
       </c>
       <c r="T2" t="n">
         <v>450</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44302</v>
+        <v>44335</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="O3" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="P3" t="n">
-        <v>340000</v>
+        <v>230000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>756</v>
+        <v>511</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44302</v>
+        <v>44691</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,25 +675,25 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="O4" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="P4" t="n">
-        <v>280000</v>
+        <v>420000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>622</v>
+        <v>933</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="O5" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="P5" t="n">
-        <v>420000</v>
+        <v>370000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>933</v>
+        <v>822</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>370000</v>
+        <v>360000</v>
       </c>
       <c r="O6" t="n">
-        <v>370000</v>
+        <v>360000</v>
       </c>
       <c r="P6" t="n">
-        <v>370000</v>
+        <v>360000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44691</v>
+        <v>44350</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N7" t="n">
-        <v>360000</v>
+        <v>250000</v>
       </c>
       <c r="O7" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="P7" t="n">
-        <v>360000</v>
+        <v>255000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44349</v>
+        <v>44295</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N8" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="O8" t="n">
         <v>290000</v>
       </c>
       <c r="P8" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44349</v>
+        <v>44295</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O9" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P9" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="O10" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="P10" t="n">
-        <v>330000</v>
+        <v>310000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O11" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P11" t="n">
-        <v>300000</v>
+        <v>275000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>250000</v>
+        <v>315000</v>
       </c>
       <c r="O12" t="n">
-        <v>250000</v>
+        <v>315000</v>
       </c>
       <c r="P12" t="n">
-        <v>250000</v>
+        <v>315000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44309</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N13" t="n">
-        <v>320000</v>
+        <v>270000</v>
       </c>
       <c r="O13" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P13" t="n">
-        <v>320000</v>
+        <v>275000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>711</v>
+        <v>611</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44344</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1487,13 +1487,13 @@
         <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="O14" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P14" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44344</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="O15" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P15" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44687</v>
+        <v>44300</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O16" t="n">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="P16" t="n">
-        <v>400000</v>
+        <v>275000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>889</v>
+        <v>611</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44687</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="O17" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="P17" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>844</v>
+        <v>533</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44312</v>
+        <v>44300</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="O18" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="P18" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44300</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N19" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O19" t="n">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="P19" t="n">
-        <v>285000</v>
+        <v>340000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>633</v>
+        <v>756</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44312</v>
+        <v>44300</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="O20" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P20" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44312</v>
+        <v>44301</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="O21" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P21" t="n">
-        <v>265000</v>
+        <v>330000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44690</v>
+        <v>44301</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N22" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="O22" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="P22" t="n">
-        <v>450000</v>
+        <v>280000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>622</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44690</v>
+        <v>44301</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="O23" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="P23" t="n">
-        <v>400000</v>
+        <v>230000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>889</v>
+        <v>511</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44690</v>
+        <v>44301</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="O24" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="P24" t="n">
-        <v>380000</v>
+        <v>420000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>844</v>
+        <v>933</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2355,25 +2355,25 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="O25" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="P25" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T25" t="n">
         <v>450</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2435,25 +2435,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="O26" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P26" t="n">
-        <v>285000</v>
+        <v>280000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N27" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="O27" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P27" t="n">
-        <v>270000</v>
+        <v>225000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="O28" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P28" t="n">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44319</v>
+        <v>44348</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
         <v>280000</v>
       </c>
       <c r="O29" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P29" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44326</v>
+        <v>44679</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>270000</v>
+        <v>480000</v>
       </c>
       <c r="O30" t="n">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="P30" t="n">
-        <v>275000</v>
+        <v>480000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>611</v>
+        <v>1067</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44679</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>240000</v>
+        <v>460000</v>
       </c>
       <c r="O31" t="n">
-        <v>250000</v>
+        <v>460000</v>
       </c>
       <c r="P31" t="n">
-        <v>245000</v>
+        <v>460000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>544</v>
+        <v>1022</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="O32" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P32" t="n">
-        <v>210000</v>
+        <v>265000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>467</v>
+        <v>589</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N33" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="O33" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P33" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44344</v>
+        <v>44680</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>230000</v>
+        <v>480000</v>
       </c>
       <c r="O34" t="n">
-        <v>230000</v>
+        <v>480000</v>
       </c>
       <c r="P34" t="n">
-        <v>230000</v>
+        <v>480000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>511</v>
+        <v>1067</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44316</v>
+        <v>44680</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="O35" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="P35" t="n">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>12</v>
       </c>
       <c r="N36" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="O36" t="n">
-        <v>330000</v>
+        <v>460000</v>
       </c>
       <c r="P36" t="n">
-        <v>330000</v>
+        <v>455000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>733</v>
+        <v>1011</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N37" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O37" t="n">
-        <v>270000</v>
+        <v>430000</v>
       </c>
       <c r="P37" t="n">
-        <v>270000</v>
+        <v>415000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>600</v>
+        <v>922</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N38" t="n">
-        <v>280000</v>
+        <v>270000</v>
       </c>
       <c r="O38" t="n">
-        <v>280000</v>
+        <v>310000</v>
       </c>
       <c r="P38" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>18</v>
       </c>
       <c r="N39" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O39" t="n">
-        <v>320000</v>
+        <v>240000</v>
       </c>
       <c r="P39" t="n">
-        <v>320000</v>
+        <v>235000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>711</v>
+        <v>522</v>
       </c>
       <c r="T39" t="n">
         <v>450</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O40" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P40" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T40" t="n">
         <v>450</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44313</v>
+        <v>44326</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N41" t="n">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="O41" t="n">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="P41" t="n">
-        <v>340000</v>
+        <v>275000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>756</v>
+        <v>611</v>
       </c>
       <c r="T41" t="n">
         <v>450</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44313</v>
+        <v>44326</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3715,25 +3715,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N42" t="n">
-        <v>370000</v>
+        <v>240000</v>
       </c>
       <c r="O42" t="n">
-        <v>370000</v>
+        <v>250000</v>
       </c>
       <c r="P42" t="n">
-        <v>370000</v>
+        <v>245000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>822</v>
+        <v>544</v>
       </c>
       <c r="T42" t="n">
         <v>450</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44313</v>
+        <v>44326</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3795,25 +3795,25 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="O43" t="n">
-        <v>310000</v>
+        <v>210000</v>
       </c>
       <c r="P43" t="n">
-        <v>305000</v>
+        <v>210000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>678</v>
+        <v>467</v>
       </c>
       <c r="T43" t="n">
         <v>450</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44313</v>
+        <v>44687</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3875,25 +3875,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O44" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="P44" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="T44" t="n">
         <v>450</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44313</v>
+        <v>44687</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>370000</v>
+        <v>380000</v>
       </c>
       <c r="O45" t="n">
-        <v>370000</v>
+        <v>380000</v>
       </c>
       <c r="P45" t="n">
-        <v>370000</v>
+        <v>380000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="T45" t="n">
         <v>450</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44313</v>
+        <v>44293</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O46" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P46" t="n">
-        <v>285000</v>
+        <v>330000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="T46" t="n">
         <v>450</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44313</v>
+        <v>44293</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N47" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O47" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P47" t="n">
-        <v>240000</v>
+        <v>285000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="T47" t="n">
         <v>450</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44678</v>
+        <v>44293</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N48" t="n">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="O48" t="n">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="P48" t="n">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1111</v>
+        <v>444</v>
       </c>
       <c r="T48" t="n">
         <v>450</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44678</v>
+        <v>44298</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>470000</v>
+        <v>320000</v>
       </c>
       <c r="O49" t="n">
-        <v>470000</v>
+        <v>320000</v>
       </c>
       <c r="P49" t="n">
-        <v>470000</v>
+        <v>320000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1044</v>
+        <v>711</v>
       </c>
       <c r="T49" t="n">
         <v>450</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4370,10 +4370,10 @@
         <v>270000</v>
       </c>
       <c r="O50" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P50" t="n">
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="S50" t="n">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="T50" t="n">
         <v>450</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4435,25 +4435,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N51" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O51" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P51" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="S51" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T51" t="n">
         <v>450</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4515,25 +4515,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N52" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O52" t="n">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="P52" t="n">
-        <v>450000</v>
+        <v>285000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1000</v>
+        <v>633</v>
       </c>
       <c r="T52" t="n">
         <v>450</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4600,20 +4600,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N53" t="n">
-        <v>330000</v>
+        <v>300000</v>
       </c>
       <c r="O53" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="P53" t="n">
-        <v>340000</v>
+        <v>300000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="T53" t="n">
         <v>450</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44300</v>
+        <v>44312</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4680,20 +4680,20 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N54" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="O54" t="n">
         <v>270000</v>
       </c>
       <c r="P54" t="n">
-        <v>270000</v>
+        <v>265000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="S54" t="n">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="T54" t="n">
         <v>450</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44295</v>
+        <v>44307</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N55" t="n">
-        <v>270000</v>
+        <v>390000</v>
       </c>
       <c r="O55" t="n">
-        <v>290000</v>
+        <v>390000</v>
       </c>
       <c r="P55" t="n">
-        <v>280000</v>
+        <v>390000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>622</v>
+        <v>867</v>
       </c>
       <c r="T55" t="n">
         <v>450</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44295</v>
+        <v>44307</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4835,25 +4835,25 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N56" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="O56" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="P56" t="n">
-        <v>220000</v>
+        <v>330000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>489</v>
+        <v>733</v>
       </c>
       <c r="T56" t="n">
         <v>450</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4915,25 +4915,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N57" t="n">
         <v>270000</v>
       </c>
       <c r="O57" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P57" t="n">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="T57" t="n">
         <v>450</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44308</v>
+        <v>44319</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4995,25 +4995,25 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N58" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="O58" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P58" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="T58" t="n">
         <v>450</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44308</v>
+        <v>44334</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5080,17 +5080,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N59" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="O59" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P59" t="n">
         <v>290000</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44679</v>
+        <v>44334</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N60" t="n">
-        <v>480000</v>
+        <v>270000</v>
       </c>
       <c r="O60" t="n">
-        <v>480000</v>
+        <v>270000</v>
       </c>
       <c r="P60" t="n">
-        <v>480000</v>
+        <v>270000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1067</v>
+        <v>600</v>
       </c>
       <c r="T60" t="n">
         <v>450</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44679</v>
+        <v>44334</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N61" t="n">
-        <v>460000</v>
+        <v>230000</v>
       </c>
       <c r="O61" t="n">
-        <v>460000</v>
+        <v>230000</v>
       </c>
       <c r="P61" t="n">
-        <v>460000</v>
+        <v>230000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1022</v>
+        <v>511</v>
       </c>
       <c r="T61" t="n">
         <v>450</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N62" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="O62" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="P62" t="n">
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>578</v>
+        <v>756</v>
       </c>
       <c r="T62" t="n">
         <v>450</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -5395,25 +5395,25 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="N63" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="O63" t="n">
-        <v>240000</v>
+        <v>370000</v>
       </c>
       <c r="P63" t="n">
-        <v>235238</v>
+        <v>370000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>523</v>
+        <v>822</v>
       </c>
       <c r="T63" t="n">
         <v>450</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -5475,25 +5475,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N64" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="O64" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P64" t="n">
-        <v>180000</v>
+        <v>305000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="S64" t="n">
-        <v>400</v>
+        <v>678</v>
       </c>
       <c r="T64" t="n">
         <v>450</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5555,25 +5555,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N65" t="n">
-        <v>400000</v>
+        <v>330000</v>
       </c>
       <c r="O65" t="n">
-        <v>430000</v>
+        <v>330000</v>
       </c>
       <c r="P65" t="n">
-        <v>415000</v>
+        <v>330000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="S65" t="n">
-        <v>922</v>
+        <v>733</v>
       </c>
       <c r="T65" t="n">
         <v>450</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N66" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="O66" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="P66" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>622</v>
+        <v>822</v>
       </c>
       <c r="T66" t="n">
         <v>450</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44322</v>
+        <v>44313</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N67" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O67" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P67" t="n">
-        <v>255000</v>
+        <v>285000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="T67" t="n">
         <v>450</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44309</v>
+        <v>44313</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5795,25 +5795,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N68" t="n">
-        <v>310000</v>
+        <v>240000</v>
       </c>
       <c r="O68" t="n">
-        <v>310000</v>
+        <v>240000</v>
       </c>
       <c r="P68" t="n">
-        <v>310000</v>
+        <v>240000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>689</v>
+        <v>533</v>
       </c>
       <c r="T68" t="n">
         <v>450</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44309</v>
+        <v>44690</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5875,25 +5875,25 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N69" t="n">
-        <v>270000</v>
+        <v>450000</v>
       </c>
       <c r="O69" t="n">
-        <v>280000</v>
+        <v>450000</v>
       </c>
       <c r="P69" t="n">
-        <v>275000</v>
+        <v>450000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T69" t="n">
         <v>450</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44309</v>
+        <v>44690</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5955,25 +5955,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N70" t="n">
-        <v>315000</v>
+        <v>400000</v>
       </c>
       <c r="O70" t="n">
-        <v>315000</v>
+        <v>400000</v>
       </c>
       <c r="P70" t="n">
-        <v>315000</v>
+        <v>400000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>700</v>
+        <v>889</v>
       </c>
       <c r="T70" t="n">
         <v>450</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44309</v>
+        <v>44690</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N71" t="n">
-        <v>270000</v>
+        <v>380000</v>
       </c>
       <c r="O71" t="n">
-        <v>280000</v>
+        <v>380000</v>
       </c>
       <c r="P71" t="n">
-        <v>275000</v>
+        <v>380000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>611</v>
+        <v>844</v>
       </c>
       <c r="T71" t="n">
         <v>450</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44293</v>
+        <v>44692</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N72" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="O72" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="P72" t="n">
-        <v>330000</v>
+        <v>420000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T72" t="n">
         <v>450</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44293</v>
+        <v>44692</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N73" t="n">
-        <v>270000</v>
+        <v>370000</v>
       </c>
       <c r="O73" t="n">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="P73" t="n">
-        <v>285000</v>
+        <v>375000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>633</v>
+        <v>833</v>
       </c>
       <c r="T73" t="n">
         <v>450</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44293</v>
+        <v>44306</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -6275,25 +6275,25 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N74" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="O74" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P74" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T74" t="n">
         <v>450</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44333</v>
+        <v>44306</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N75" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="O75" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P75" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="T75" t="n">
         <v>450</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44333</v>
+        <v>44306</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44320</v>
+        <v>44306</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N77" t="n">
         <v>300000</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44320</v>
+        <v>44306</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N78" t="n">
         <v>260000</v>
       </c>
       <c r="O78" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P78" t="n">
-        <v>265000</v>
+        <v>260000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="T78" t="n">
         <v>450</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44320</v>
+        <v>44306</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6684,16 +6684,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N79" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O79" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P79" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="T79" t="n">
         <v>450</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44327</v>
+        <v>44357</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6764,20 +6764,20 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="N80" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="O80" t="n">
-        <v>370000</v>
+        <v>9000</v>
       </c>
       <c r="P80" t="n">
-        <v>365000</v>
+        <v>8500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>811</v>
+        <v>531</v>
       </c>
       <c r="T80" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N81" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="O81" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="P81" t="n">
-        <v>330000</v>
+        <v>320000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T81" t="n">
         <v>450</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N82" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="O82" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P82" t="n">
-        <v>250000</v>
+        <v>295000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>556</v>
+        <v>656</v>
       </c>
       <c r="T82" t="n">
         <v>450</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N83" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O83" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P83" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T83" t="n">
         <v>450</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44294</v>
+        <v>44314</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -7075,25 +7075,25 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N84" t="n">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="O84" t="n">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="P84" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>467</v>
+        <v>778</v>
       </c>
       <c r="T84" t="n">
         <v>450</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44294</v>
+        <v>44314</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N85" t="n">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="O85" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P85" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>467</v>
+        <v>644</v>
       </c>
       <c r="T85" t="n">
         <v>450</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44680</v>
+        <v>44343</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N86" t="n">
-        <v>480000</v>
+        <v>270000</v>
       </c>
       <c r="O86" t="n">
-        <v>480000</v>
+        <v>280000</v>
       </c>
       <c r="P86" t="n">
-        <v>480000</v>
+        <v>275000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1067</v>
+        <v>611</v>
       </c>
       <c r="T86" t="n">
         <v>450</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44680</v>
+        <v>44343</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N87" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="O87" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="P87" t="n">
-        <v>450000</v>
+        <v>230000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1000</v>
+        <v>511</v>
       </c>
       <c r="T87" t="n">
         <v>450</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -7395,25 +7395,25 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N88" t="n">
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="O88" t="n">
-        <v>260000</v>
+        <v>320000</v>
       </c>
       <c r="P88" t="n">
-        <v>255000</v>
+        <v>320000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>567</v>
+        <v>711</v>
       </c>
       <c r="T88" t="n">
         <v>450</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44351</v>
+        <v>44315</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -7475,25 +7475,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N89" t="n">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="O89" t="n">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="P89" t="n">
-        <v>265000</v>
+        <v>350000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>589</v>
+        <v>778</v>
       </c>
       <c r="T89" t="n">
         <v>450</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N90" t="n">
-        <v>390000</v>
+        <v>270000</v>
       </c>
       <c r="O90" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
       <c r="P90" t="n">
-        <v>390000</v>
+        <v>285000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>867</v>
+        <v>633</v>
       </c>
       <c r="T90" t="n">
         <v>450</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N91" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O91" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P91" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T91" t="n">
         <v>450</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>15</v>
       </c>
       <c r="N92" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O92" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P92" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>600</v>
+        <v>711</v>
       </c>
       <c r="T92" t="n">
         <v>450</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N93" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="O93" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P93" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>622</v>
+        <v>756</v>
       </c>
       <c r="T93" t="n">
         <v>450</v>
@@ -7875,25 +7875,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N94" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="O94" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P94" t="n">
-        <v>320000</v>
+        <v>290000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>711</v>
+        <v>644</v>
       </c>
       <c r="T94" t="n">
         <v>450</v>
@@ -7955,25 +7955,25 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N95" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="O95" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="P95" t="n">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>778</v>
+        <v>578</v>
       </c>
       <c r="T95" t="n">
         <v>450</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -8035,25 +8035,25 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N96" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O96" t="n">
         <v>300000</v>
       </c>
       <c r="P96" t="n">
-        <v>285000</v>
+        <v>300000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="T96" t="n">
         <v>450</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N97" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="O97" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P97" t="n">
-        <v>240000</v>
+        <v>265000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="T97" t="n">
         <v>450</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44315</v>
+        <v>44320</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N98" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="O98" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P98" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="T98" t="n">
         <v>450</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>15</v>
       </c>
       <c r="N99" t="n">
-        <v>340000</v>
+        <v>420000</v>
       </c>
       <c r="O99" t="n">
-        <v>340000</v>
+        <v>420000</v>
       </c>
       <c r="P99" t="n">
-        <v>340000</v>
+        <v>420000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>756</v>
+        <v>933</v>
       </c>
       <c r="T99" t="n">
         <v>450</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N100" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="O100" t="n">
-        <v>300000</v>
+        <v>340000</v>
       </c>
       <c r="P100" t="n">
-        <v>290000</v>
+        <v>340000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>644</v>
+        <v>756</v>
       </c>
       <c r="T100" t="n">
         <v>450</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -8447,13 +8447,13 @@
         <v>18</v>
       </c>
       <c r="N101" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O101" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P101" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="T101" t="n">
         <v>450</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44334</v>
+        <v>44294</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -8515,25 +8515,25 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N102" t="n">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="O102" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P102" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>644</v>
+        <v>467</v>
       </c>
       <c r="T102" t="n">
         <v>450</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44334</v>
+        <v>44294</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N103" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O103" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P103" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T103" t="n">
         <v>450</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44334</v>
+        <v>44349</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N104" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="O104" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="P104" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="T104" t="n">
         <v>450</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44323</v>
+        <v>44349</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -8755,25 +8755,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N105" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O105" t="n">
-        <v>460000</v>
+        <v>270000</v>
       </c>
       <c r="P105" t="n">
-        <v>455000</v>
+        <v>270000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1011</v>
+        <v>600</v>
       </c>
       <c r="T105" t="n">
         <v>450</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -8835,25 +8835,25 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N106" t="n">
-        <v>400000</v>
+        <v>270000</v>
       </c>
       <c r="O106" t="n">
-        <v>430000</v>
+        <v>270000</v>
       </c>
       <c r="P106" t="n">
-        <v>415000</v>
+        <v>270000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>922</v>
+        <v>600</v>
       </c>
       <c r="T106" t="n">
         <v>450</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N107" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="O107" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="P107" t="n">
-        <v>290000</v>
+        <v>245000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T107" t="n">
         <v>450</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44323</v>
+        <v>44316</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8995,25 +8995,25 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>18</v>
       </c>
       <c r="N108" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="O108" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P108" t="n">
-        <v>235000</v>
+        <v>300000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>522</v>
+        <v>667</v>
       </c>
       <c r="T108" t="n">
         <v>450</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44323</v>
+        <v>44316</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -9075,25 +9075,25 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N109" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="O109" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="P109" t="n">
-        <v>200000</v>
+        <v>330000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>444</v>
+        <v>733</v>
       </c>
       <c r="T109" t="n">
         <v>450</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44358</v>
+        <v>44316</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -9164,20 +9164,20 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N110" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="O110" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="P110" t="n">
-        <v>13000</v>
+        <v>270000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>812</v>
+        <v>600</v>
       </c>
       <c r="T110" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44358</v>
+        <v>44316</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -9240,24 +9240,24 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="N111" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="O111" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="P111" t="n">
-        <v>11000</v>
+        <v>280000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>688</v>
+        <v>622</v>
       </c>
       <c r="T111" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44343</v>
+        <v>44316</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N112" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O112" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P112" t="n">
-        <v>275000</v>
+        <v>320000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="T112" t="n">
         <v>450</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44343</v>
+        <v>44316</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N113" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O113" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P113" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T113" t="n">
         <v>450</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44301</v>
+        <v>44322</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -9475,25 +9475,25 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N114" t="n">
-        <v>330000</v>
+        <v>400000</v>
       </c>
       <c r="O114" t="n">
-        <v>330000</v>
+        <v>430000</v>
       </c>
       <c r="P114" t="n">
-        <v>330000</v>
+        <v>415000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>733</v>
+        <v>922</v>
       </c>
       <c r="T114" t="n">
         <v>450</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44301</v>
+        <v>44322</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -9555,16 +9555,16 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N115" t="n">
         <v>280000</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44301</v>
+        <v>44322</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -9635,25 +9635,25 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N116" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O116" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P116" t="n">
-        <v>230000</v>
+        <v>255000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="T116" t="n">
         <v>450</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9715,25 +9715,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N117" t="n">
-        <v>420000</v>
+        <v>270000</v>
       </c>
       <c r="O117" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="P117" t="n">
-        <v>420000</v>
+        <v>285000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>933</v>
+        <v>633</v>
       </c>
       <c r="T117" t="n">
         <v>450</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -9795,25 +9795,25 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N118" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="O118" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="P118" t="n">
-        <v>330000</v>
+        <v>240000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N119" t="n">
         <v>280000</v>
       </c>
       <c r="O119" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P119" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44335</v>
+        <v>44330</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N120" t="n">
         <v>260000</v>
       </c>
       <c r="O120" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P120" t="n">
-        <v>265000</v>
+        <v>260000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44335</v>
+        <v>44330</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N121" t="n">
         <v>230000</v>
       </c>
       <c r="O121" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P121" t="n">
-        <v>230000</v>
+        <v>235238</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N122" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="O122" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P122" t="n">
-        <v>225000</v>
+        <v>180000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T122" t="n">
         <v>450</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44328</v>
+        <v>44678</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N123" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="O123" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="P123" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>444</v>
+        <v>1111</v>
       </c>
       <c r="T123" t="n">
         <v>450</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44314</v>
+        <v>44678</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -10275,25 +10275,25 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N124" t="n">
-        <v>320000</v>
+        <v>470000</v>
       </c>
       <c r="O124" t="n">
-        <v>320000</v>
+        <v>470000</v>
       </c>
       <c r="P124" t="n">
-        <v>320000</v>
+        <v>470000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>711</v>
+        <v>1044</v>
       </c>
       <c r="T124" t="n">
         <v>450</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44314</v>
+        <v>44351</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N125" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="O125" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P125" t="n">
-        <v>295000</v>
+        <v>265000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="T125" t="n">
         <v>450</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44314</v>
+        <v>44327</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -10435,25 +10435,25 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N126" t="n">
-        <v>330000</v>
+        <v>360000</v>
       </c>
       <c r="O126" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="P126" t="n">
-        <v>330000</v>
+        <v>365000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>733</v>
+        <v>811</v>
       </c>
       <c r="T126" t="n">
         <v>450</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44314</v>
+        <v>44327</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -10515,25 +10515,25 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N127" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="O127" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="P127" t="n">
-        <v>350000</v>
+        <v>330000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="T127" t="n">
         <v>450</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44314</v>
+        <v>44327</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -10607,13 +10607,13 @@
         <v>24</v>
       </c>
       <c r="N128" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O128" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P128" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="T128" t="n">
         <v>450</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44357</v>
+        <v>44327</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -10680,24 +10680,24 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="N129" t="n">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="O129" t="n">
-        <v>9000</v>
+        <v>200000</v>
       </c>
       <c r="P129" t="n">
-        <v>8500</v>
+        <v>200000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -10706,10 +10706,10 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>531</v>
+        <v>444</v>
       </c>
       <c r="T129" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44306</v>
+        <v>44358</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -10755,29 +10755,29 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="N130" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="O130" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="P130" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>667</v>
+        <v>812</v>
       </c>
       <c r="T130" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44306</v>
+        <v>44358</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -10835,41 +10835,41 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
+        <v>100</v>
+      </c>
+      <c r="N131" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O131" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P131" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S131" t="n">
+        <v>688</v>
+      </c>
+      <c r="T131" t="n">
         <v>16</v>
-      </c>
-      <c r="N131" t="n">
-        <v>270000</v>
-      </c>
-      <c r="O131" t="n">
-        <v>280000</v>
-      </c>
-      <c r="P131" t="n">
-        <v>275000</v>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S131" t="n">
-        <v>611</v>
-      </c>
-      <c r="T131" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N132" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="O132" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P132" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>556</v>
+        <v>733</v>
       </c>
       <c r="T132" t="n">
         <v>450</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -10995,16 +10995,16 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N133" t="n">
         <v>300000</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N134" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="O134" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P134" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T134" t="n">
         <v>450</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -11160,35 +11160,195 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>15</v>
+      </c>
+      <c r="N135" t="n">
+        <v>320000</v>
+      </c>
+      <c r="O135" t="n">
+        <v>320000</v>
+      </c>
+      <c r="P135" t="n">
+        <v>320000</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S135" t="n">
+        <v>711</v>
+      </c>
+      <c r="T135" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E136" t="n">
+        <v>13</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>15</v>
+      </c>
+      <c r="N136" t="n">
+        <v>290000</v>
+      </c>
+      <c r="O136" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P136" t="n">
+        <v>290000</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S136" t="n">
+        <v>644</v>
+      </c>
+      <c r="T136" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E137" t="n">
+        <v>13</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>12</v>
-      </c>
-      <c r="N135" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O135" t="n">
-        <v>240000</v>
-      </c>
-      <c r="P135" t="n">
-        <v>240000</v>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S135" t="n">
-        <v>533</v>
-      </c>
-      <c r="T135" t="n">
+      <c r="M137" t="n">
+        <v>15</v>
+      </c>
+      <c r="N137" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O137" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P137" t="n">
+        <v>260000</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S137" t="n">
+        <v>578</v>
+      </c>
+      <c r="T137" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T137"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44308</v>
+        <v>44694</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -9720,24 +9720,24 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N117" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="O117" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P117" t="n">
-        <v>285000</v>
+        <v>200000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -9746,10 +9746,10 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="T117" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118">
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N118" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="O118" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P118" t="n">
-        <v>240000</v>
+        <v>285000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>533</v>
+        <v>633</v>
       </c>
       <c r="T118" t="n">
         <v>450</v>
@@ -9875,25 +9875,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N119" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="O119" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P119" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>644</v>
+        <v>533</v>
       </c>
       <c r="T119" t="n">
         <v>450</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N120" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O120" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P120" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="T120" t="n">
         <v>450</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N121" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O121" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P121" t="n">
-        <v>235238</v>
+        <v>260000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="T121" t="n">
         <v>450</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N122" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O122" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P122" t="n">
-        <v>180000</v>
+        <v>235238</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="T122" t="n">
         <v>450</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44678</v>
+        <v>44330</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N123" t="n">
-        <v>500000</v>
+        <v>180000</v>
       </c>
       <c r="O123" t="n">
-        <v>500000</v>
+        <v>180000</v>
       </c>
       <c r="P123" t="n">
-        <v>500000</v>
+        <v>180000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1111</v>
+        <v>400</v>
       </c>
       <c r="T123" t="n">
         <v>450</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N124" t="n">
-        <v>470000</v>
+        <v>500000</v>
       </c>
       <c r="O124" t="n">
-        <v>470000</v>
+        <v>500000</v>
       </c>
       <c r="P124" t="n">
-        <v>470000</v>
+        <v>500000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1044</v>
+        <v>1111</v>
       </c>
       <c r="T124" t="n">
         <v>450</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44351</v>
+        <v>44678</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N125" t="n">
-        <v>260000</v>
+        <v>470000</v>
       </c>
       <c r="O125" t="n">
-        <v>270000</v>
+        <v>470000</v>
       </c>
       <c r="P125" t="n">
-        <v>265000</v>
+        <v>470000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10382,11 +10382,11 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>589</v>
+        <v>1044</v>
       </c>
       <c r="T125" t="n">
         <v>450</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44327</v>
+        <v>44351</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N126" t="n">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="O126" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="P126" t="n">
-        <v>365000</v>
+        <v>265000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>811</v>
+        <v>589</v>
       </c>
       <c r="T126" t="n">
         <v>450</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N127" t="n">
-        <v>330000</v>
+        <v>360000</v>
       </c>
       <c r="O127" t="n">
-        <v>330000</v>
+        <v>370000</v>
       </c>
       <c r="P127" t="n">
-        <v>330000</v>
+        <v>365000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>733</v>
+        <v>811</v>
       </c>
       <c r="T127" t="n">
         <v>450</v>
@@ -10595,25 +10595,25 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N128" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="O128" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P128" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>556</v>
+        <v>733</v>
       </c>
       <c r="T128" t="n">
         <v>450</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N129" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O129" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="P129" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T129" t="n">
         <v>450</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44358</v>
+        <v>44327</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -10760,24 +10760,24 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="N130" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="O130" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="P130" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -10786,10 +10786,10 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>812</v>
+        <v>444</v>
       </c>
       <c r="T130" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="131">
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N131" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O131" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P131" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T131" t="n">
         <v>16</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44305</v>
+        <v>44358</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -10915,29 +10915,29 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="N132" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="O132" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="P132" t="n">
-        <v>330000</v>
+        <v>11000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 16 kilos granel</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -10946,10 +10946,10 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="T132" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N133" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="O133" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P133" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T133" t="n">
         <v>450</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N134" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="O134" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P134" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T134" t="n">
         <v>450</v>
@@ -11155,25 +11155,25 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N135" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="O135" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="P135" t="n">
-        <v>320000</v>
+        <v>250000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>711</v>
+        <v>556</v>
       </c>
       <c r="T135" t="n">
         <v>450</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M136" t="n">
         <v>15</v>
       </c>
       <c r="N136" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="O136" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="P136" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="T136" t="n">
         <v>450</v>
@@ -11320,35 +11320,115 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M137" t="n">
         <v>15</v>
       </c>
       <c r="N137" t="n">
+        <v>290000</v>
+      </c>
+      <c r="O137" t="n">
+        <v>290000</v>
+      </c>
+      <c r="P137" t="n">
+        <v>290000</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S137" t="n">
+        <v>644</v>
+      </c>
+      <c r="T137" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="E138" t="n">
+        <v>13</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>100107001</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Caqui</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Mankaki</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>15</v>
+      </c>
+      <c r="N138" t="n">
         <v>260000</v>
       </c>
-      <c r="O137" t="n">
+      <c r="O138" t="n">
         <v>260000</v>
       </c>
-      <c r="P137" t="n">
+      <c r="P138" t="n">
         <v>260000</v>
       </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S137" t="n">
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S138" t="n">
         <v>578</v>
       </c>
-      <c r="T137" t="n">
+      <c r="T138" t="n">
         <v>450</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Caqui.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T138"/>
+  <dimension ref="A1:T139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44335</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -515,25 +515,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="O2" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P2" t="n">
-        <v>265000</v>
+        <v>210000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>589</v>
+        <v>467</v>
       </c>
       <c r="T2" t="n">
         <v>450</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44335</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="O3" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P3" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="T3" t="n">
         <v>450</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44691</v>
+        <v>44309</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>420000</v>
+        <v>310000</v>
       </c>
       <c r="O4" t="n">
-        <v>420000</v>
+        <v>310000</v>
       </c>
       <c r="P4" t="n">
-        <v>420000</v>
+        <v>310000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>933</v>
+        <v>689</v>
       </c>
       <c r="T4" t="n">
         <v>450</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44309</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>370000</v>
+        <v>270000</v>
       </c>
       <c r="O5" t="n">
-        <v>370000</v>
+        <v>280000</v>
       </c>
       <c r="P5" t="n">
-        <v>370000</v>
+        <v>275000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>822</v>
+        <v>611</v>
       </c>
       <c r="T5" t="n">
         <v>450</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44691</v>
+        <v>44309</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
-        <v>360000</v>
+        <v>315000</v>
       </c>
       <c r="O6" t="n">
-        <v>360000</v>
+        <v>315000</v>
       </c>
       <c r="P6" t="n">
-        <v>360000</v>
+        <v>315000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T6" t="n">
         <v>450</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44350</v>
+        <v>44309</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>16</v>
       </c>
       <c r="N7" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="O7" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P7" t="n">
-        <v>255000</v>
+        <v>275000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="T7" t="n">
         <v>450</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44295</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -995,25 +995,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="O8" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P8" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
         <v>450</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44295</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N9" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="O9" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P9" t="n">
-        <v>220000</v>
+        <v>265000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="T9" t="n">
         <v>450</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44309</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1155,25 +1155,25 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="O10" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="P10" t="n">
-        <v>310000</v>
+        <v>230000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>689</v>
+        <v>511</v>
       </c>
       <c r="T10" t="n">
         <v>450</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44309</v>
+        <v>44678</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>270000</v>
+        <v>500000</v>
       </c>
       <c r="O11" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="P11" t="n">
-        <v>275000</v>
+        <v>500000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>611</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44309</v>
+        <v>44678</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>315000</v>
+        <v>470000</v>
       </c>
       <c r="O12" t="n">
-        <v>315000</v>
+        <v>470000</v>
       </c>
       <c r="P12" t="n">
-        <v>315000</v>
+        <v>470000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>700</v>
+        <v>1044</v>
       </c>
       <c r="T12" t="n">
         <v>450</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44309</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1395,25 +1395,25 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N13" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="O13" t="n">
-        <v>280000</v>
+        <v>330000</v>
       </c>
       <c r="P13" t="n">
-        <v>275000</v>
+        <v>330000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="T13" t="n">
         <v>450</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44344</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,13 +1487,13 @@
         <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="O14" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P14" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
         <v>450</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44344</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N15" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="O15" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P15" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T15" t="n">
         <v>450</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44300</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1635,25 +1635,25 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="O16" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P16" t="n">
-        <v>275000</v>
+        <v>320000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="T16" t="n">
         <v>450</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1715,25 +1715,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="O17" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P17" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="T17" t="n">
         <v>450</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44300</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="O18" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="P18" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>578</v>
       </c>
       <c r="T18" t="n">
         <v>450</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44300</v>
+        <v>44690</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1875,25 +1875,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N19" t="n">
-        <v>330000</v>
+        <v>450000</v>
       </c>
       <c r="O19" t="n">
-        <v>350000</v>
+        <v>450000</v>
       </c>
       <c r="P19" t="n">
-        <v>340000</v>
+        <v>450000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>756</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>450</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44690</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1955,25 +1955,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="O20" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="P20" t="n">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T20" t="n">
         <v>450</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44301</v>
+        <v>44690</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2035,25 +2035,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>330000</v>
+        <v>380000</v>
       </c>
       <c r="O21" t="n">
-        <v>330000</v>
+        <v>380000</v>
       </c>
       <c r="P21" t="n">
-        <v>330000</v>
+        <v>380000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>733</v>
+        <v>844</v>
       </c>
       <c r="T21" t="n">
         <v>450</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2115,25 +2115,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="O22" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="P22" t="n">
-        <v>280000</v>
+        <v>340000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>622</v>
+        <v>756</v>
       </c>
       <c r="T22" t="n">
         <v>450</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Hachiya</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N23" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="O23" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="P23" t="n">
-        <v>230000</v>
+        <v>370000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>511</v>
+        <v>822</v>
       </c>
       <c r="T23" t="n">
         <v>450</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2275,25 +2275,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N24" t="n">
-        <v>420000</v>
+        <v>300000</v>
       </c>
       <c r="O24" t="n">
-        <v>420000</v>
+        <v>310000</v>
       </c>
       <c r="P24" t="n">
-        <v>420000</v>
+        <v>305000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>933</v>
+        <v>678</v>
       </c>
       <c r="T24" t="n">
         <v>450</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N25" t="n">
         <v>330000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44301</v>
+        <v>44313</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="O26" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="P26" t="n">
-        <v>280000</v>
+        <v>370000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>622</v>
+        <v>822</v>
       </c>
       <c r="T26" t="n">
         <v>450</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44328</v>
+        <v>44313</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N27" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O27" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P27" t="n">
-        <v>225000</v>
+        <v>285000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>500</v>
+        <v>633</v>
       </c>
       <c r="T27" t="n">
         <v>450</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44328</v>
+        <v>44313</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N28" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O28" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P28" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T28" t="n">
         <v>450</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44348</v>
+        <v>44319</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
         <v>280000</v>
       </c>
       <c r="O29" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P29" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="T29" t="n">
         <v>450</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44679</v>
+        <v>44302</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2767,13 +2767,13 @@
         <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>480000</v>
+        <v>420000</v>
       </c>
       <c r="O30" t="n">
-        <v>480000</v>
+        <v>420000</v>
       </c>
       <c r="P30" t="n">
-        <v>480000</v>
+        <v>420000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="T30" t="n">
         <v>450</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44679</v>
+        <v>44302</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>460000</v>
+        <v>340000</v>
       </c>
       <c r="O31" t="n">
-        <v>460000</v>
+        <v>340000</v>
       </c>
       <c r="P31" t="n">
-        <v>460000</v>
+        <v>340000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1022</v>
+        <v>756</v>
       </c>
       <c r="T31" t="n">
         <v>450</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44333</v>
+        <v>44302</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N32" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="O32" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P32" t="n">
-        <v>265000</v>
+        <v>280000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44333</v>
+        <v>44680</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>250000</v>
+        <v>480000</v>
       </c>
       <c r="O33" t="n">
-        <v>250000</v>
+        <v>480000</v>
       </c>
       <c r="P33" t="n">
-        <v>250000</v>
+        <v>480000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>556</v>
+        <v>1067</v>
       </c>
       <c r="T33" t="n">
         <v>450</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>480000</v>
+        <v>450000</v>
       </c>
       <c r="O34" t="n">
-        <v>480000</v>
+        <v>450000</v>
       </c>
       <c r="P34" t="n">
-        <v>480000</v>
+        <v>450000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T34" t="n">
         <v>450</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44680</v>
+        <v>44312</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3155,25 +3155,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Fuyu</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N35" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="O35" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="P35" t="n">
-        <v>450000</v>
+        <v>330000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44323</v>
+        <v>44312</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N36" t="n">
-        <v>450000</v>
+        <v>270000</v>
       </c>
       <c r="O36" t="n">
-        <v>460000</v>
+        <v>300000</v>
       </c>
       <c r="P36" t="n">
-        <v>455000</v>
+        <v>285000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1011</v>
+        <v>633</v>
       </c>
       <c r="T36" t="n">
         <v>450</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44323</v>
+        <v>44312</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3315,25 +3315,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fuyu</t>
+          <t>Mankaki</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N37" t="n">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="O37" t="n">
-        <v>430000</v>
+        <v>300000</v>
       </c>
       <c r="P37" t="n">
-        <v>415000</v>
+        <v>300000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>922</v>
+        <v>667</v>
       </c>
       <c r="T37" t="n">
         <v>450</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44323</v>
+        <v>44312</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N38" t="n">
+        <v>260000</v>
+      </c>
+      <c r="O38" t="n">
         <v>270000</v>
       </c>
-      <c r="O38" t="n">
-        <v>310000</v>
-      </c>
       <c r="P38" t="n">
-        <v>290000</v>
+        <v>265000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44323</v>
+        <v>44293</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3475,25 +3475,25 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Mankaki</t>
+          <t>Hachiya</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        